--- a/firebase_data_from_spyVOC.xlsx
+++ b/firebase_data_from_spyVOC.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDEBC93-1523-4F87-97E7-C1E762C2660C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Fecha</t>
-  </si>
   <si>
     <t>Direction</t>
   </si>
@@ -33,15 +36,18 @@
   <si>
     <t>proba1</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +111,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -149,7 +163,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -183,6 +197,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -217,9 +232,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -392,39 +408,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G521"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>45077.37501136574</v>
+        <v>45077.375011365737</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -442,7 +460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -465,7 +483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -488,7 +506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -511,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -534,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -557,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -580,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -603,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -626,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -649,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -672,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -695,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -718,12 +736,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>45097.37500385417</v>
+        <v>45097.375003854169</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -741,12 +759,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>45098.3750046875</v>
+        <v>45098.375004687499</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -764,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -787,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -810,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -833,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -856,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -879,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -902,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -925,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -948,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -971,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -994,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1017,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1040,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1063,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1086,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1109,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1132,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1155,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1178,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1201,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1224,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1247,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1270,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1293,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1316,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1339,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1362,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1385,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1408,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1431,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1454,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1477,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1500,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1523,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1546,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1569,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1592,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1615,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1638,7 +1656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1661,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1684,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1707,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1730,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1753,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1776,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1799,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1822,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1845,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1868,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1891,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1914,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1937,12 +1955,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>45174.37500440973</v>
+        <v>45174.375004409732</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1960,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1983,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2006,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2029,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2052,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2075,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2098,7 +2116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2121,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2144,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2167,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2190,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2213,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2236,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2259,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2282,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2305,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2328,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2351,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2374,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2397,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2420,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2443,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2466,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2489,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2512,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2535,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2558,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2581,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2604,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2627,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2650,7 +2668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2673,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2696,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2719,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2742,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2765,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2788,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2811,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2834,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2857,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2880,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2903,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2926,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2949,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2972,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2995,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3018,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3041,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3064,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3087,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3110,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3133,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3156,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3179,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3202,7 +3220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3225,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3248,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3271,7 +3289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3294,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3317,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3340,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3363,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3386,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3409,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3432,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3455,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3478,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3501,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3524,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3547,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3570,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3593,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3616,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3639,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3662,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3685,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3708,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3731,12 +3749,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>45286.37500724537</v>
+        <v>45286.375007245369</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -3754,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3777,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3800,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3823,12 +3841,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>45293.37500314815</v>
+        <v>45293.375003148147</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -3846,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3869,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3892,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3915,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3938,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3961,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3984,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4007,7 +4025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4030,12 +4048,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>45307.3750075463</v>
+        <v>45307.375007546303</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -4053,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4076,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4099,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4122,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4145,7 +4163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4168,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4191,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4214,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4237,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4260,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4283,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4306,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4329,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4352,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4375,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4398,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4421,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4444,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4467,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4490,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4513,7 +4531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4536,12 +4554,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>45337.37500688658</v>
+        <v>45337.375006886577</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -4559,12 +4577,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>45338.37500824074</v>
+        <v>45338.375008240742</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4582,12 +4600,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>45342.37500195602</v>
+        <v>45342.375001956018</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -4605,7 +4623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4628,7 +4646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4651,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4674,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4697,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4720,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4743,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4766,7 +4784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4789,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4812,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4835,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4858,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4881,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4904,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4927,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4950,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4973,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4996,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -5019,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -5042,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -5065,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -5088,7 +5106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -5111,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -5134,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -5157,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -5180,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -5203,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -5226,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -5249,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -5272,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -5295,7 +5313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -5318,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -5341,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -5364,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -5387,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -5410,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -5433,7 +5451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -5456,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -5479,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -5502,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -5525,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -5548,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -5571,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -5594,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -5617,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -5640,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -5663,7 +5681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -5686,7 +5704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -5709,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -5732,7 +5750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -5755,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -5778,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -5801,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -5824,7 +5842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -5847,7 +5865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -5870,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -5893,7 +5911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -5916,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -5939,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -5962,7 +5980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -5985,7 +6003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -6008,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -6031,7 +6049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -6054,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -6077,7 +6095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -6100,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -6123,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -6146,12 +6164,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
       <c r="B251" s="2">
-        <v>45440.37500440973</v>
+        <v>45440.375004409732</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -6169,7 +6187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -6192,7 +6210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -6215,7 +6233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -6238,7 +6256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -6261,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -6284,7 +6302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -6307,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -6330,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -6353,7 +6371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -6376,7 +6394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -6399,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -6422,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -6445,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -6468,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -6491,7 +6509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -6514,7 +6532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -6537,7 +6555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -6560,7 +6578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -6583,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -6606,7 +6624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -6629,7 +6647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -6652,7 +6670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -6675,7 +6693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -6698,7 +6716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -6721,7 +6739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -6744,7 +6762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -6767,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -6790,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -6813,7 +6831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -6836,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -6859,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -6882,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -6905,7 +6923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -6928,7 +6946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -6951,7 +6969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -6974,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -6997,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -7020,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -7043,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -7066,7 +7084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -7089,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -7112,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -7135,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -7158,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -7175,13 +7193,13 @@
         <v>0</v>
       </c>
       <c r="F295">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G295">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -7204,7 +7222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -7227,7 +7245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -7250,7 +7268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -7273,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -7296,7 +7314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -7319,7 +7337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -7342,7 +7360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -7365,7 +7383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -7388,7 +7406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -7411,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -7434,7 +7452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -7457,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -7480,7 +7498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -7503,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -7526,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -7549,7 +7567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -7572,7 +7590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -7595,7 +7613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -7618,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -7641,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -7664,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -7687,7 +7705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -7704,13 +7722,13 @@
         <v>0</v>
       </c>
       <c r="F318">
-        <v>0.4346997449291082</v>
+        <v>0.43469974492910818</v>
       </c>
       <c r="G318">
-        <v>0.5653002550708918</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7">
+        <v>0.56530025507089177</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -7727,13 +7745,13 @@
         <v>1</v>
       </c>
       <c r="F319">
-        <v>0.4799580882511817</v>
+        <v>0.47995808825118169</v>
       </c>
       <c r="G319">
-        <v>0.5200419117488183</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7">
+        <v>0.52004191174881831</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -7750,13 +7768,13 @@
         <v>0</v>
       </c>
       <c r="F320">
-        <v>0.454330912393792</v>
+        <v>0.45433091239379197</v>
       </c>
       <c r="G320">
-        <v>0.545669087606208</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7">
+        <v>0.54566908760620803</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -7776,10 +7794,10 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="G321">
-        <v>0.3833333333333334</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7">
+        <v>0.38333333333333341</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -7796,13 +7814,13 @@
         <v>0</v>
       </c>
       <c r="F322">
-        <v>0.575</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="G322">
-        <v>0.425</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -7819,13 +7837,13 @@
         <v>1</v>
       </c>
       <c r="F323">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G323">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -7842,13 +7860,13 @@
         <v>1</v>
       </c>
       <c r="F324">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G324">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -7865,13 +7883,13 @@
         <v>1</v>
       </c>
       <c r="F325">
-        <v>0.2666666666666667</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="G325">
-        <v>0.7333333333333333</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -7888,13 +7906,13 @@
         <v>0</v>
       </c>
       <c r="F326">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G326">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -7911,13 +7929,13 @@
         <v>1</v>
       </c>
       <c r="F327">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G327">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -7934,13 +7952,13 @@
         <v>0</v>
       </c>
       <c r="F328">
-        <v>0.3416666666666666</v>
+        <v>0.34166666666666662</v>
       </c>
       <c r="G328">
-        <v>0.6583333333333333</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7">
+        <v>0.65833333333333333</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -7957,13 +7975,13 @@
         <v>1</v>
       </c>
       <c r="F329">
-        <v>0.525</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G329">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -7980,13 +7998,13 @@
         <v>0</v>
       </c>
       <c r="F330">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G330">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -8003,13 +8021,13 @@
         <v>0</v>
       </c>
       <c r="F331">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G331">
         <v>0.45</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -8032,7 +8050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -8055,7 +8073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -8072,13 +8090,13 @@
         <v>1</v>
       </c>
       <c r="F334">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G334">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -8101,7 +8119,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -8118,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="F336">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G336">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -8147,7 +8165,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -8164,13 +8182,13 @@
         <v>1</v>
       </c>
       <c r="F338">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G338">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -8187,13 +8205,13 @@
         <v>0</v>
       </c>
       <c r="F339">
-        <v>0.6416666666666667</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="G339">
-        <v>0.3583333333333333</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7">
+        <v>0.35833333333333328</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -8210,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="F340">
-        <v>0.5666666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G340">
-        <v>0.4333333333333333</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7">
+        <v>0.43333333333333329</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -8236,10 +8254,10 @@
         <v>0.45</v>
       </c>
       <c r="G341">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -8259,10 +8277,10 @@
         <v>0.45</v>
       </c>
       <c r="G342">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -8282,10 +8300,10 @@
         <v>0.45</v>
       </c>
       <c r="G343">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -8308,7 +8326,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -8331,7 +8349,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -8354,7 +8372,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -8371,13 +8389,13 @@
         <v>1</v>
       </c>
       <c r="F347">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G347">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -8394,13 +8412,13 @@
         <v>0</v>
       </c>
       <c r="F348">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G348">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -8423,7 +8441,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -8446,7 +8464,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -8463,13 +8481,13 @@
         <v>1</v>
       </c>
       <c r="F351">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G351">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -8492,7 +8510,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -8509,13 +8527,13 @@
         <v>0</v>
       </c>
       <c r="F353">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G353">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -8538,7 +8556,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -8555,13 +8573,13 @@
         <v>1</v>
       </c>
       <c r="F355">
-        <v>0.5666666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G355">
-        <v>0.4333333333333333</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7">
+        <v>0.43333333333333329</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -8584,7 +8602,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -8601,13 +8619,13 @@
         <v>1</v>
       </c>
       <c r="F357">
-        <v>0.7666666666666667</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="G357">
-        <v>0.2333333333333333</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7">
+        <v>0.23333333333333331</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -8624,13 +8642,13 @@
         <v>0</v>
       </c>
       <c r="F358">
-        <v>0.7166666666666667</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="G358">
-        <v>0.2833333333333333</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7">
+        <v>0.28333333333333333</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -8650,10 +8668,10 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G359">
-        <v>0.3666666666666666</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7">
+        <v>0.36666666666666659</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -8676,7 +8694,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -8693,13 +8711,13 @@
         <v>1</v>
       </c>
       <c r="F361">
-        <v>0.7333333333333333</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G361">
-        <v>0.2666666666666667</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7">
+        <v>0.26666666666666672</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -8722,7 +8740,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -8745,7 +8763,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -8762,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="F364">
-        <v>0.6666666666666665</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G364">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -8788,10 +8806,10 @@
         <v>0.45</v>
       </c>
       <c r="G365">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -8814,7 +8832,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -8831,13 +8849,13 @@
         <v>0</v>
       </c>
       <c r="F367">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G367">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -8860,7 +8878,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -8877,13 +8895,13 @@
         <v>0</v>
       </c>
       <c r="F369">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G369">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -8906,7 +8924,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -8923,13 +8941,13 @@
         <v>1</v>
       </c>
       <c r="F371">
-        <v>0.5666666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G371">
-        <v>0.4333333333333333</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7">
+        <v>0.43333333333333329</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -8946,13 +8964,13 @@
         <v>1</v>
       </c>
       <c r="F372">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G372">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -8969,13 +8987,13 @@
         <v>0</v>
       </c>
       <c r="F373">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G373">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -8995,10 +9013,10 @@
         <v>0.45</v>
       </c>
       <c r="G374">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -9021,7 +9039,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -9038,13 +9056,13 @@
         <v>1</v>
       </c>
       <c r="F376">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G376">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -9061,13 +9079,13 @@
         <v>0</v>
       </c>
       <c r="F377">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G377">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -9084,13 +9102,13 @@
         <v>0</v>
       </c>
       <c r="F378">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G378">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -9107,13 +9125,13 @@
         <v>0</v>
       </c>
       <c r="F379">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G379">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -9130,13 +9148,13 @@
         <v>1</v>
       </c>
       <c r="F380">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G380">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -9153,13 +9171,13 @@
         <v>0</v>
       </c>
       <c r="F381">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G381">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -9179,10 +9197,10 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="G382">
-        <v>0.3833333333333334</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7">
+        <v>0.38333333333333341</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -9205,7 +9223,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -9222,13 +9240,13 @@
         <v>0</v>
       </c>
       <c r="F384">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G384">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -9245,13 +9263,13 @@
         <v>1</v>
       </c>
       <c r="F385">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G385">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -9268,13 +9286,13 @@
         <v>1</v>
       </c>
       <c r="F386">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G386">
         <v>0.45</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -9297,7 +9315,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -9314,13 +9332,13 @@
         <v>1</v>
       </c>
       <c r="F388">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G388">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -9337,13 +9355,13 @@
         <v>1</v>
       </c>
       <c r="F389">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G389">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -9360,13 +9378,13 @@
         <v>1</v>
       </c>
       <c r="F390">
-        <v>0.7666666666666667</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="G390">
-        <v>0.2333333333333333</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7">
+        <v>0.23333333333333331</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -9383,18 +9401,18 @@
         <v>1</v>
       </c>
       <c r="F391">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G391">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
       <c r="B392" s="2">
-        <v>45643.47916666666</v>
+        <v>45643.479166666657</v>
       </c>
       <c r="C392">
         <v>1</v>
@@ -9412,12 +9430,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
       <c r="B393" s="2">
-        <v>45644.47916666666</v>
+        <v>45644.479166666657</v>
       </c>
       <c r="C393">
         <v>0</v>
@@ -9435,12 +9453,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
       <c r="B394" s="2">
-        <v>45645.47916666666</v>
+        <v>45645.479166666657</v>
       </c>
       <c r="C394">
         <v>0</v>
@@ -9452,18 +9470,18 @@
         <v>0</v>
       </c>
       <c r="F394">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G394">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>393</v>
       </c>
       <c r="B395" s="2">
-        <v>45646.47916666666</v>
+        <v>45646.479166666657</v>
       </c>
       <c r="C395">
         <v>1</v>
@@ -9475,18 +9493,18 @@
         <v>1</v>
       </c>
       <c r="F395">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G395">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
       <c r="B396" s="2">
-        <v>45649.47916666666</v>
+        <v>45649.479166666657</v>
       </c>
       <c r="C396">
         <v>1</v>
@@ -9498,18 +9516,18 @@
         <v>1</v>
       </c>
       <c r="F396">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G396">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
       <c r="B397" s="2">
-        <v>45650.47916666666</v>
+        <v>45650.479166666657</v>
       </c>
       <c r="C397">
         <v>1</v>
@@ -9521,18 +9539,18 @@
         <v>1</v>
       </c>
       <c r="F397">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G397">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
       <c r="B398" s="2">
-        <v>45652.47916666666</v>
+        <v>45652.479166666657</v>
       </c>
       <c r="C398">
         <v>1</v>
@@ -9550,12 +9568,12 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
       <c r="B399" s="2">
-        <v>45653.47916666666</v>
+        <v>45653.479166666657</v>
       </c>
       <c r="C399">
         <v>0</v>
@@ -9573,12 +9591,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
       <c r="B400" s="2">
-        <v>45656.47916666666</v>
+        <v>45656.479166666657</v>
       </c>
       <c r="C400">
         <v>1</v>
@@ -9590,18 +9608,18 @@
         <v>0</v>
       </c>
       <c r="F400">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G400">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
       <c r="B401" s="2">
-        <v>45657.47916666666</v>
+        <v>45657.479166666657</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -9613,18 +9631,18 @@
         <v>0</v>
       </c>
       <c r="F401">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G401">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>400</v>
       </c>
       <c r="B402" s="2">
-        <v>45659.47916666666</v>
+        <v>45659.479166666657</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -9642,12 +9660,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>401</v>
       </c>
       <c r="B403" s="2">
-        <v>45660.47916666666</v>
+        <v>45660.479166666657</v>
       </c>
       <c r="C403">
         <v>1</v>
@@ -9662,15 +9680,15 @@
         <v>0.45</v>
       </c>
       <c r="G403">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
       <c r="B404" s="2">
-        <v>45663.47916666666</v>
+        <v>45663.479166666657</v>
       </c>
       <c r="C404">
         <v>0</v>
@@ -9688,12 +9706,12 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
       <c r="B405" s="2">
-        <v>45664.47916666666</v>
+        <v>45664.479166666657</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -9705,18 +9723,18 @@
         <v>1</v>
       </c>
       <c r="F405">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G405">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
       <c r="B406" s="2">
-        <v>45665.47916666666</v>
+        <v>45665.479166666657</v>
       </c>
       <c r="C406">
         <v>1</v>
@@ -9734,12 +9752,12 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
       <c r="B407" s="2">
-        <v>45667.47916666666</v>
+        <v>45667.479166666657</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -9751,18 +9769,18 @@
         <v>0</v>
       </c>
       <c r="F407">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G407">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="408" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>406</v>
       </c>
       <c r="B408" s="2">
-        <v>45670.47916666666</v>
+        <v>45670.479166666657</v>
       </c>
       <c r="C408">
         <v>1</v>
@@ -9774,18 +9792,18 @@
         <v>1</v>
       </c>
       <c r="F408">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G408">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="409" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>407</v>
       </c>
       <c r="B409" s="2">
-        <v>45671.47916666666</v>
+        <v>45671.479166666657</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -9797,18 +9815,18 @@
         <v>0</v>
       </c>
       <c r="F409">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G409">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>408</v>
       </c>
       <c r="B410" s="2">
-        <v>45672.47916666666</v>
+        <v>45672.479166666657</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -9826,12 +9844,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>409</v>
       </c>
       <c r="B411" s="2">
-        <v>45673.47916666666</v>
+        <v>45673.479166666657</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -9843,18 +9861,18 @@
         <v>1</v>
       </c>
       <c r="F411">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G411">
         <v>0.45</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>410</v>
       </c>
       <c r="B412" s="2">
-        <v>45674.47916666666</v>
+        <v>45674.479166666657</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -9869,15 +9887,15 @@
         <v>0.45</v>
       </c>
       <c r="G412">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>411</v>
       </c>
       <c r="B413" s="2">
-        <v>45678.47916666666</v>
+        <v>45678.479166666657</v>
       </c>
       <c r="C413">
         <v>1</v>
@@ -9889,18 +9907,18 @@
         <v>0</v>
       </c>
       <c r="F413">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G413">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
       <c r="B414" s="2">
-        <v>45679.47916666666</v>
+        <v>45679.479166666657</v>
       </c>
       <c r="C414">
         <v>1</v>
@@ -9912,18 +9930,18 @@
         <v>0</v>
       </c>
       <c r="F414">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G414">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>413</v>
       </c>
       <c r="B415" s="2">
-        <v>45680.47916666666</v>
+        <v>45680.479166666657</v>
       </c>
       <c r="C415">
         <v>1</v>
@@ -9938,15 +9956,15 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="G415">
-        <v>0.3833333333333334</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7">
+        <v>0.38333333333333341</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>414</v>
       </c>
       <c r="B416" s="2">
-        <v>45681.47916666666</v>
+        <v>45681.479166666657</v>
       </c>
       <c r="C416">
         <v>0</v>
@@ -9958,18 +9976,18 @@
         <v>1</v>
       </c>
       <c r="F416">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G416">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
       <c r="B417" s="2">
-        <v>45684.47916666666</v>
+        <v>45684.479166666657</v>
       </c>
       <c r="C417">
         <v>1</v>
@@ -9981,18 +9999,18 @@
         <v>0</v>
       </c>
       <c r="F417">
-        <v>0.7166666666666667</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="G417">
-        <v>0.2833333333333333</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7">
+        <v>0.28333333333333333</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
       <c r="B418" s="2">
-        <v>45685.47916666666</v>
+        <v>45685.479166666657</v>
       </c>
       <c r="C418">
         <v>1</v>
@@ -10004,18 +10022,18 @@
         <v>0</v>
       </c>
       <c r="F418">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G418">
         <v>0.45</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>417</v>
       </c>
       <c r="B419" s="2">
-        <v>45686.47916666666</v>
+        <v>45686.479166666657</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -10030,15 +10048,15 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="G419">
-        <v>0.3833333333333334</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7">
+        <v>0.38333333333333341</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
       <c r="B420" s="2">
-        <v>45687.47916666666</v>
+        <v>45687.479166666657</v>
       </c>
       <c r="C420">
         <v>1</v>
@@ -10050,18 +10068,18 @@
         <v>0</v>
       </c>
       <c r="F420">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G420">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
       <c r="B421" s="2">
-        <v>45688.47916666666</v>
+        <v>45688.479166666657</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -10076,15 +10094,15 @@
         <v>0.45</v>
       </c>
       <c r="G421">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>420</v>
       </c>
       <c r="B422" s="2">
-        <v>45691.47916666666</v>
+        <v>45691.479166666657</v>
       </c>
       <c r="C422">
         <v>1</v>
@@ -10099,15 +10117,15 @@
         <v>0.45</v>
       </c>
       <c r="G422">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>421</v>
       </c>
       <c r="B423" s="2">
-        <v>45692.47916666666</v>
+        <v>45692.479166666657</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -10119,18 +10137,18 @@
         <v>0</v>
       </c>
       <c r="F423">
-        <v>0.6666666666666665</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G423">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>422</v>
       </c>
       <c r="B424" s="2">
-        <v>45693.47916666666</v>
+        <v>45693.479166666657</v>
       </c>
       <c r="C424">
         <v>1</v>
@@ -10142,18 +10160,18 @@
         <v>1</v>
       </c>
       <c r="F424">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G424">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>423</v>
       </c>
       <c r="B425" s="2">
-        <v>45694.47916666666</v>
+        <v>45694.479166666657</v>
       </c>
       <c r="C425">
         <v>1</v>
@@ -10171,12 +10189,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>424</v>
       </c>
       <c r="B426" s="2">
-        <v>45695.47916666666</v>
+        <v>45695.479166666657</v>
       </c>
       <c r="C426">
         <v>0</v>
@@ -10188,18 +10206,18 @@
         <v>0</v>
       </c>
       <c r="F426">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G426">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>425</v>
       </c>
       <c r="B427" s="2">
-        <v>45698.47916666666</v>
+        <v>45698.479166666657</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -10211,18 +10229,18 @@
         <v>1</v>
       </c>
       <c r="F427">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G427">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>426</v>
       </c>
       <c r="B428" s="2">
-        <v>45699.47916666666</v>
+        <v>45699.479166666657</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -10240,12 +10258,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>427</v>
       </c>
       <c r="B429" s="2">
-        <v>45700.47916666666</v>
+        <v>45700.479166666657</v>
       </c>
       <c r="C429">
         <v>1</v>
@@ -10257,18 +10275,18 @@
         <v>1</v>
       </c>
       <c r="F429">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G429">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
       <c r="B430" s="2">
-        <v>45701.47916666666</v>
+        <v>45701.479166666657</v>
       </c>
       <c r="C430">
         <v>1</v>
@@ -10280,18 +10298,18 @@
         <v>1</v>
       </c>
       <c r="F430">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G430">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>429</v>
       </c>
       <c r="B431" s="2">
-        <v>45702.47916666666</v>
+        <v>45702.479166666657</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -10306,15 +10324,15 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="G431">
-        <v>0.7833333333333333</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7">
+        <v>0.78333333333333333</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>430</v>
       </c>
       <c r="B432" s="2">
-        <v>45706.47916666666</v>
+        <v>45706.479166666657</v>
       </c>
       <c r="C432">
         <v>1</v>
@@ -10332,12 +10350,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>431</v>
       </c>
       <c r="B433" s="2">
-        <v>45707.47916666666</v>
+        <v>45707.479166666657</v>
       </c>
       <c r="C433">
         <v>1</v>
@@ -10349,18 +10367,18 @@
         <v>1</v>
       </c>
       <c r="F433">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G433">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>432</v>
       </c>
       <c r="B434" s="2">
-        <v>45708.47916666666</v>
+        <v>45708.479166666657</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -10372,18 +10390,18 @@
         <v>0</v>
       </c>
       <c r="F434">
-        <v>0.2833333333333333</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="G434">
-        <v>0.7166666666666667</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7">
+        <v>0.71666666666666667</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>433</v>
       </c>
       <c r="B435" s="2">
-        <v>45709.47916666666</v>
+        <v>45709.479166666657</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -10395,18 +10413,18 @@
         <v>1</v>
       </c>
       <c r="F435">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G435">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>434</v>
       </c>
       <c r="B436" s="2">
-        <v>45712.47916666666</v>
+        <v>45712.479166666657</v>
       </c>
       <c r="C436">
         <v>0</v>
@@ -10418,18 +10436,18 @@
         <v>1</v>
       </c>
       <c r="F436">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G436">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
       <c r="B437" s="2">
-        <v>45713.47916666666</v>
+        <v>45713.479166666657</v>
       </c>
       <c r="C437">
         <v>0</v>
@@ -10441,18 +10459,18 @@
         <v>1</v>
       </c>
       <c r="F437">
-        <v>0.5666666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G437">
-        <v>0.4333333333333333</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7">
+        <v>0.43333333333333329</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
       <c r="B438" s="2">
-        <v>45714.47916666666</v>
+        <v>45714.479166666657</v>
       </c>
       <c r="C438">
         <v>0</v>
@@ -10464,18 +10482,18 @@
         <v>0</v>
       </c>
       <c r="F438">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G438">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="439" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>437</v>
       </c>
       <c r="B439" s="2">
-        <v>45715.47916666666</v>
+        <v>45715.479166666657</v>
       </c>
       <c r="C439">
         <v>0</v>
@@ -10487,18 +10505,18 @@
         <v>0</v>
       </c>
       <c r="F439">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G439">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="440" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>438</v>
       </c>
       <c r="B440" s="2">
-        <v>45716.47916666666</v>
+        <v>45716.479166666657</v>
       </c>
       <c r="C440">
         <v>1</v>
@@ -10516,12 +10534,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>439</v>
       </c>
       <c r="B441" s="2">
-        <v>45719.47916666666</v>
+        <v>45719.479166666657</v>
       </c>
       <c r="C441">
         <v>0</v>
@@ -10533,18 +10551,18 @@
         <v>0</v>
       </c>
       <c r="F441">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G441">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="442" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>440</v>
       </c>
       <c r="B442" s="2">
-        <v>45720.47916666666</v>
+        <v>45720.479166666657</v>
       </c>
       <c r="C442">
         <v>0</v>
@@ -10562,12 +10580,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>441</v>
       </c>
       <c r="B443" s="2">
-        <v>45721.47916666666</v>
+        <v>45721.479166666657</v>
       </c>
       <c r="C443">
         <v>1</v>
@@ -10585,12 +10603,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>442</v>
       </c>
       <c r="B444" s="2">
-        <v>45722.47916666666</v>
+        <v>45722.479166666657</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -10602,18 +10620,18 @@
         <v>0</v>
       </c>
       <c r="F444">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G444">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>443</v>
       </c>
       <c r="B445" s="2">
-        <v>45723.47916666666</v>
+        <v>45723.479166666657</v>
       </c>
       <c r="C445">
         <v>1</v>
@@ -10625,18 +10643,18 @@
         <v>1</v>
       </c>
       <c r="F445">
-        <v>0.2833333333333333</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="G445">
-        <v>0.7166666666666667</v>
-      </c>
-    </row>
-    <row r="446" spans="1:7">
+        <v>0.71666666666666667</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>444</v>
       </c>
       <c r="B446" s="2">
-        <v>45726.47916666666</v>
+        <v>45726.479166666657</v>
       </c>
       <c r="C446">
         <v>0</v>
@@ -10654,12 +10672,12 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>445</v>
       </c>
       <c r="B447" s="2">
-        <v>45727.47916666666</v>
+        <v>45727.479166666657</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -10671,18 +10689,18 @@
         <v>0</v>
       </c>
       <c r="F447">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G447">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>446</v>
       </c>
       <c r="B448" s="2">
-        <v>45728.47916666666</v>
+        <v>45728.479166666657</v>
       </c>
       <c r="C448">
         <v>0</v>
@@ -10694,18 +10712,18 @@
         <v>1</v>
       </c>
       <c r="F448">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G448">
         <v>0.45</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>447</v>
       </c>
       <c r="B449" s="2">
-        <v>45729.47916666666</v>
+        <v>45729.479166666657</v>
       </c>
       <c r="C449">
         <v>0</v>
@@ -10723,12 +10741,12 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>448</v>
       </c>
       <c r="B450" s="2">
-        <v>45730.47916666666</v>
+        <v>45730.479166666657</v>
       </c>
       <c r="C450">
         <v>1</v>
@@ -10740,18 +10758,18 @@
         <v>0</v>
       </c>
       <c r="F450">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G450">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>449</v>
       </c>
       <c r="B451" s="2">
-        <v>45733.47916666666</v>
+        <v>45733.479166666657</v>
       </c>
       <c r="C451">
         <v>1</v>
@@ -10766,15 +10784,15 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="G451">
-        <v>0.3833333333333334</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7">
+        <v>0.38333333333333341</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>450</v>
       </c>
       <c r="B452" s="2">
-        <v>45734.47916666666</v>
+        <v>45734.479166666657</v>
       </c>
       <c r="C452">
         <v>0</v>
@@ -10786,18 +10804,18 @@
         <v>0</v>
       </c>
       <c r="F452">
-        <v>0.3166666666666667</v>
+        <v>0.31666666666666671</v>
       </c>
       <c r="G452">
-        <v>0.6833333333333332</v>
-      </c>
-    </row>
-    <row r="453" spans="1:7">
+        <v>0.68333333333333324</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>451</v>
       </c>
       <c r="B453" s="2">
-        <v>45735.47916666666</v>
+        <v>45735.479166666657</v>
       </c>
       <c r="C453">
         <v>1</v>
@@ -10809,18 +10827,18 @@
         <v>1</v>
       </c>
       <c r="F453">
-        <v>0.2833333333333333</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="G453">
-        <v>0.7166666666666667</v>
-      </c>
-    </row>
-    <row r="454" spans="1:7">
+        <v>0.71666666666666667</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>452</v>
       </c>
       <c r="B454" s="2">
-        <v>45736.47916666666</v>
+        <v>45736.479166666657</v>
       </c>
       <c r="C454">
         <v>1</v>
@@ -10832,18 +10850,18 @@
         <v>1</v>
       </c>
       <c r="F454">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G454">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>453</v>
       </c>
       <c r="B455" s="2">
-        <v>45737.47916666666</v>
+        <v>45737.479166666657</v>
       </c>
       <c r="C455">
         <v>1</v>
@@ -10858,15 +10876,15 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="G455">
-        <v>0.7833333333333333</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7">
+        <v>0.78333333333333333</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>454</v>
       </c>
       <c r="B456" s="2">
-        <v>45740.47916666666</v>
+        <v>45740.479166666657</v>
       </c>
       <c r="C456">
         <v>1</v>
@@ -10884,12 +10902,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>455</v>
       </c>
       <c r="B457" s="2">
-        <v>45741.47916666666</v>
+        <v>45741.479166666657</v>
       </c>
       <c r="C457">
         <v>1</v>
@@ -10907,12 +10925,12 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>456</v>
       </c>
       <c r="B458" s="2">
-        <v>45742.47916666666</v>
+        <v>45742.479166666657</v>
       </c>
       <c r="C458">
         <v>0</v>
@@ -10930,12 +10948,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>457</v>
       </c>
       <c r="B459" s="2">
-        <v>45743.47916666666</v>
+        <v>45743.479166666657</v>
       </c>
       <c r="C459">
         <v>0</v>
@@ -10947,18 +10965,18 @@
         <v>0</v>
       </c>
       <c r="F459">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G459">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="460" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>458</v>
       </c>
       <c r="B460" s="2">
-        <v>45744.47916666666</v>
+        <v>45744.479166666657</v>
       </c>
       <c r="C460">
         <v>0</v>
@@ -10970,18 +10988,18 @@
         <v>1</v>
       </c>
       <c r="F460">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G460">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="461" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>459</v>
       </c>
       <c r="B461" s="2">
-        <v>45747.47916666666</v>
+        <v>45747.479166666657</v>
       </c>
       <c r="C461">
         <v>1</v>
@@ -10996,15 +11014,15 @@
         <v>0.45</v>
       </c>
       <c r="G461">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>460</v>
       </c>
       <c r="B462" s="2">
-        <v>45748.47916666666</v>
+        <v>45748.479166666657</v>
       </c>
       <c r="C462">
         <v>1</v>
@@ -11022,12 +11040,12 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>461</v>
       </c>
       <c r="B463" s="2">
-        <v>45749.47916666666</v>
+        <v>45749.479166666657</v>
       </c>
       <c r="C463">
         <v>1</v>
@@ -11039,18 +11057,18 @@
         <v>1</v>
       </c>
       <c r="F463">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G463">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="464" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>462</v>
       </c>
       <c r="B464" s="2">
-        <v>45750.47916666666</v>
+        <v>45750.479166666657</v>
       </c>
       <c r="C464">
         <v>0</v>
@@ -11062,18 +11080,18 @@
         <v>0</v>
       </c>
       <c r="F464">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G464">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>463</v>
       </c>
       <c r="B465" s="2">
-        <v>45751.47916666666</v>
+        <v>45751.479166666657</v>
       </c>
       <c r="C465">
         <v>0</v>
@@ -11085,18 +11103,18 @@
         <v>0</v>
       </c>
       <c r="F465">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G465">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="466" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>464</v>
       </c>
       <c r="B466" s="2">
-        <v>45754.47916666666</v>
+        <v>45754.479166666657</v>
       </c>
       <c r="C466">
         <v>1</v>
@@ -11114,12 +11132,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>465</v>
       </c>
       <c r="B467" s="2">
-        <v>45755.47916666666</v>
+        <v>45755.479166666657</v>
       </c>
       <c r="C467">
         <v>0</v>
@@ -11131,18 +11149,18 @@
         <v>1</v>
       </c>
       <c r="F467">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G467">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="468" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>466</v>
       </c>
       <c r="B468" s="2">
-        <v>45756.47916666666</v>
+        <v>45756.479166666657</v>
       </c>
       <c r="C468">
         <v>1</v>
@@ -11154,18 +11172,18 @@
         <v>1</v>
       </c>
       <c r="F468">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G468">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>467</v>
       </c>
       <c r="B469" s="2">
-        <v>45757.47916666666</v>
+        <v>45757.479166666657</v>
       </c>
       <c r="C469">
         <v>0</v>
@@ -11177,18 +11195,18 @@
         <v>0</v>
       </c>
       <c r="F469">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G469">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="470" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>468</v>
       </c>
       <c r="B470" s="2">
-        <v>45758.47916666666</v>
+        <v>45758.479166666657</v>
       </c>
       <c r="C470">
         <v>1</v>
@@ -11200,18 +11218,18 @@
         <v>1</v>
       </c>
       <c r="F470">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G470">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="471" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>469</v>
       </c>
       <c r="B471" s="2">
-        <v>45761.47916666666</v>
+        <v>45761.479166666657</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -11223,18 +11241,18 @@
         <v>0</v>
       </c>
       <c r="F471">
-        <v>0.3166666666666667</v>
+        <v>0.31666666666666671</v>
       </c>
       <c r="G471">
-        <v>0.6833333333333332</v>
-      </c>
-    </row>
-    <row r="472" spans="1:7">
+        <v>0.68333333333333324</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>470</v>
       </c>
       <c r="B472" s="2">
-        <v>45762.47916666666</v>
+        <v>45762.479166666657</v>
       </c>
       <c r="C472">
         <v>0</v>
@@ -11252,12 +11270,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>471</v>
       </c>
       <c r="B473" s="2">
-        <v>45763.47916666666</v>
+        <v>45763.479166666657</v>
       </c>
       <c r="C473">
         <v>0</v>
@@ -11272,15 +11290,15 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G473">
-        <v>0.3666666666666666</v>
-      </c>
-    </row>
-    <row r="474" spans="1:7">
+        <v>0.36666666666666659</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>472</v>
       </c>
       <c r="B474" s="2">
-        <v>45764.47916666666</v>
+        <v>45764.479166666657</v>
       </c>
       <c r="C474">
         <v>0</v>
@@ -11292,18 +11310,18 @@
         <v>1</v>
       </c>
       <c r="F474">
-        <v>0.6833333333333332</v>
+        <v>0.68333333333333324</v>
       </c>
       <c r="G474">
-        <v>0.3166666666666667</v>
-      </c>
-    </row>
-    <row r="475" spans="1:7">
+        <v>0.31666666666666671</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>473</v>
       </c>
       <c r="B475" s="2">
-        <v>45768.47916666666</v>
+        <v>45768.479166666657</v>
       </c>
       <c r="C475">
         <v>0</v>
@@ -11321,12 +11339,12 @@
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>474</v>
       </c>
       <c r="B476" s="2">
-        <v>45769.47916666666</v>
+        <v>45769.479166666657</v>
       </c>
       <c r="C476">
         <v>1</v>
@@ -11341,15 +11359,15 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="G476">
-        <v>0.3833333333333334</v>
-      </c>
-    </row>
-    <row r="477" spans="1:7">
+        <v>0.38333333333333341</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>475</v>
       </c>
       <c r="B477" s="2">
-        <v>45770.47916666666</v>
+        <v>45770.479166666657</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -11361,18 +11379,18 @@
         <v>1</v>
       </c>
       <c r="F477">
-        <v>0.7333333333333333</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G477">
-        <v>0.2666666666666667</v>
-      </c>
-    </row>
-    <row r="478" spans="1:7">
+        <v>0.26666666666666672</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>476</v>
       </c>
       <c r="B478" s="2">
-        <v>45771.47916666666</v>
+        <v>45771.479166666657</v>
       </c>
       <c r="C478">
         <v>1</v>
@@ -11390,12 +11408,12 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>477</v>
       </c>
       <c r="B479" s="2">
-        <v>45772.47916666666</v>
+        <v>45772.479166666657</v>
       </c>
       <c r="C479">
         <v>1</v>
@@ -11413,12 +11431,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>478</v>
       </c>
       <c r="B480" s="2">
-        <v>45775.47916666666</v>
+        <v>45775.479166666657</v>
       </c>
       <c r="C480">
         <v>0</v>
@@ -11436,12 +11454,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>479</v>
       </c>
       <c r="B481" s="2">
-        <v>45776.47916666666</v>
+        <v>45776.479166666657</v>
       </c>
       <c r="C481">
         <v>1</v>
@@ -11456,15 +11474,15 @@
         <v>0.45</v>
       </c>
       <c r="G481">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="482" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>480</v>
       </c>
       <c r="B482" s="2">
-        <v>45777.47916666666</v>
+        <v>45777.479166666657</v>
       </c>
       <c r="C482">
         <v>1</v>
@@ -11482,12 +11500,12 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>481</v>
       </c>
       <c r="B483" s="2">
-        <v>45778.47916666666</v>
+        <v>45778.479166666657</v>
       </c>
       <c r="C483">
         <v>0</v>
@@ -11499,18 +11517,18 @@
         <v>0</v>
       </c>
       <c r="F483">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G483">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="484" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>482</v>
       </c>
       <c r="B484" s="2">
-        <v>45779.47916666666</v>
+        <v>45779.479166666657</v>
       </c>
       <c r="C484">
         <v>1</v>
@@ -11522,18 +11540,18 @@
         <v>1</v>
       </c>
       <c r="F484">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G484">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="485" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>483</v>
       </c>
       <c r="B485" s="2">
-        <v>45782.47916666666</v>
+        <v>45782.479166666657</v>
       </c>
       <c r="C485">
         <v>1</v>
@@ -11545,18 +11563,18 @@
         <v>0</v>
       </c>
       <c r="F485">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G485">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="486" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>484</v>
       </c>
       <c r="B486" s="2">
-        <v>45783.47916666666</v>
+        <v>45783.479166666657</v>
       </c>
       <c r="C486">
         <v>1</v>
@@ -11574,12 +11592,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>485</v>
       </c>
       <c r="B487" s="2">
-        <v>45784.47916666666</v>
+        <v>45784.479166666657</v>
       </c>
       <c r="C487">
         <v>1</v>
@@ -11591,18 +11609,18 @@
         <v>1</v>
       </c>
       <c r="F487">
-        <v>0.3166666666666667</v>
+        <v>0.31666666666666671</v>
       </c>
       <c r="G487">
-        <v>0.6833333333333332</v>
-      </c>
-    </row>
-    <row r="488" spans="1:7">
+        <v>0.68333333333333324</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>486</v>
       </c>
       <c r="B488" s="2">
-        <v>45785.47916666666</v>
+        <v>45785.479166666657</v>
       </c>
       <c r="C488">
         <v>0</v>
@@ -11614,18 +11632,18 @@
         <v>0</v>
       </c>
       <c r="F488">
-        <v>0.1833333333333333</v>
+        <v>0.18333333333333329</v>
       </c>
       <c r="G488">
-        <v>0.8166666666666668</v>
-      </c>
-    </row>
-    <row r="489" spans="1:7">
+        <v>0.81666666666666676</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>487</v>
       </c>
       <c r="B489" s="2">
-        <v>45786.47916666666</v>
+        <v>45786.479166666657</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -11637,18 +11655,18 @@
         <v>0</v>
       </c>
       <c r="F489">
-        <v>0.2666666666666667</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="G489">
-        <v>0.7333333333333333</v>
-      </c>
-    </row>
-    <row r="490" spans="1:7">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>488</v>
       </c>
       <c r="B490" s="2">
-        <v>45789.47916666666</v>
+        <v>45789.479166666657</v>
       </c>
       <c r="C490">
         <v>1</v>
@@ -11666,12 +11684,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>489</v>
       </c>
       <c r="B491" s="2">
-        <v>45790.47916666666</v>
+        <v>45790.479166666657</v>
       </c>
       <c r="C491">
         <v>1</v>
@@ -11683,18 +11701,18 @@
         <v>1</v>
       </c>
       <c r="F491">
-        <v>0.3166666666666667</v>
+        <v>0.31666666666666671</v>
       </c>
       <c r="G491">
-        <v>0.6833333333333332</v>
-      </c>
-    </row>
-    <row r="492" spans="1:7">
+        <v>0.68333333333333324</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>490</v>
       </c>
       <c r="B492" s="2">
-        <v>45791.47916666666</v>
+        <v>45791.479166666657</v>
       </c>
       <c r="C492">
         <v>0</v>
@@ -11706,18 +11724,18 @@
         <v>0</v>
       </c>
       <c r="F492">
-        <v>0.2666666666666667</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="G492">
-        <v>0.7333333333333333</v>
-      </c>
-    </row>
-    <row r="493" spans="1:7">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>491</v>
       </c>
       <c r="B493" s="2">
-        <v>45792.47916666666</v>
+        <v>45792.479166666657</v>
       </c>
       <c r="C493">
         <v>1</v>
@@ -11729,18 +11747,18 @@
         <v>1</v>
       </c>
       <c r="F493">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G493">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="494" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>492</v>
       </c>
       <c r="B494" s="2">
-        <v>45793.47916666666</v>
+        <v>45793.479166666657</v>
       </c>
       <c r="C494">
         <v>1</v>
@@ -11752,18 +11770,18 @@
         <v>0</v>
       </c>
       <c r="F494">
-        <v>0.6666666666666665</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G494">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="495" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>493</v>
       </c>
       <c r="B495" s="2">
-        <v>45796.47916666666</v>
+        <v>45796.479166666657</v>
       </c>
       <c r="C495">
         <v>1</v>
@@ -11775,18 +11793,18 @@
         <v>1</v>
       </c>
       <c r="F495">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G495">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="496" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>494</v>
       </c>
       <c r="B496" s="2">
-        <v>45797.47916666666</v>
+        <v>45797.479166666657</v>
       </c>
       <c r="C496">
         <v>0</v>
@@ -11804,12 +11822,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>495</v>
       </c>
       <c r="B497" s="2">
-        <v>45798.47916666666</v>
+        <v>45798.479166666657</v>
       </c>
       <c r="C497">
         <v>0</v>
@@ -11821,18 +11839,18 @@
         <v>0</v>
       </c>
       <c r="F497">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G497">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="498" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>496</v>
       </c>
       <c r="B498" s="2">
-        <v>45799.47916666666</v>
+        <v>45799.479166666657</v>
       </c>
       <c r="C498">
         <v>1</v>
@@ -11844,18 +11862,18 @@
         <v>1</v>
       </c>
       <c r="F498">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G498">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="499" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>497</v>
       </c>
       <c r="B499" s="2">
-        <v>45800.47916666666</v>
+        <v>45800.479166666657</v>
       </c>
       <c r="C499">
         <v>1</v>
@@ -11867,18 +11885,18 @@
         <v>0</v>
       </c>
       <c r="F499">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G499">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="500" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>498</v>
       </c>
       <c r="B500" s="2">
-        <v>45804.47916666666</v>
+        <v>45804.479166666657</v>
       </c>
       <c r="C500">
         <v>1</v>
@@ -11896,12 +11914,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>499</v>
       </c>
       <c r="B501" s="2">
-        <v>45805.47916666666</v>
+        <v>45805.479166666657</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -11913,18 +11931,18 @@
         <v>0</v>
       </c>
       <c r="F501">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G501">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="502" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>500</v>
       </c>
       <c r="B502" s="2">
-        <v>45806.47916666666</v>
+        <v>45806.479166666657</v>
       </c>
       <c r="C502">
         <v>0</v>
@@ -11942,12 +11960,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>501</v>
       </c>
       <c r="B503" s="2">
-        <v>45807.47916666666</v>
+        <v>45807.479166666657</v>
       </c>
       <c r="C503">
         <v>1</v>
@@ -11959,18 +11977,18 @@
         <v>1</v>
       </c>
       <c r="F503">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G503">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="504" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>502</v>
       </c>
       <c r="B504" s="2">
-        <v>45810.47916666666</v>
+        <v>45810.479166666657</v>
       </c>
       <c r="C504">
         <v>1</v>
@@ -11982,18 +12000,18 @@
         <v>1</v>
       </c>
       <c r="F504">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G504">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="505" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>503</v>
       </c>
       <c r="B505" s="2">
-        <v>45811.47916666666</v>
+        <v>45811.479166666657</v>
       </c>
       <c r="C505">
         <v>1</v>
@@ -12005,18 +12023,18 @@
         <v>1</v>
       </c>
       <c r="F505">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G505">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>504</v>
       </c>
       <c r="B506" s="2">
-        <v>45812.47916666666</v>
+        <v>45812.479166666657</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -12031,15 +12049,15 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="G506">
-        <v>0.3833333333333334</v>
-      </c>
-    </row>
-    <row r="507" spans="1:7">
+        <v>0.38333333333333341</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>505</v>
       </c>
       <c r="B507" s="2">
-        <v>45813.47916666666</v>
+        <v>45813.479166666657</v>
       </c>
       <c r="C507">
         <v>0</v>
@@ -12051,18 +12069,18 @@
         <v>1</v>
       </c>
       <c r="F507">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G507">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="508" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>506</v>
       </c>
       <c r="B508" s="2">
-        <v>45814.47916666666</v>
+        <v>45814.479166666657</v>
       </c>
       <c r="C508">
         <v>1</v>
@@ -12074,18 +12092,18 @@
         <v>0</v>
       </c>
       <c r="F508">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G508">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="509" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>507</v>
       </c>
       <c r="B509" s="2">
-        <v>45817.47916666666</v>
+        <v>45817.479166666657</v>
       </c>
       <c r="C509">
         <v>0</v>
@@ -12103,12 +12121,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>508</v>
       </c>
       <c r="B510" s="2">
-        <v>45818.47916666666</v>
+        <v>45818.479166666657</v>
       </c>
       <c r="C510">
         <v>1</v>
@@ -12123,15 +12141,15 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G510">
-        <v>0.3666666666666666</v>
-      </c>
-    </row>
-    <row r="511" spans="1:7">
+        <v>0.36666666666666659</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>509</v>
       </c>
       <c r="B511" s="2">
-        <v>45819.47916666666</v>
+        <v>45819.479166666657</v>
       </c>
       <c r="C511">
         <v>0</v>
@@ -12143,18 +12161,18 @@
         <v>0</v>
       </c>
       <c r="F511">
-        <v>0.2666666666666667</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="G511">
-        <v>0.7333333333333333</v>
-      </c>
-    </row>
-    <row r="512" spans="1:7">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>510</v>
       </c>
       <c r="B512" s="2">
-        <v>45820.47916666666</v>
+        <v>45820.479166666657</v>
       </c>
       <c r="C512">
         <v>1</v>
@@ -12166,18 +12184,18 @@
         <v>1</v>
       </c>
       <c r="F512">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G512">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="513" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>511</v>
       </c>
       <c r="B513" s="2">
-        <v>45821.47916666666</v>
+        <v>45821.479166666657</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -12195,12 +12213,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>512</v>
       </c>
       <c r="B514" s="2">
-        <v>45824.47916666666</v>
+        <v>45824.479166666657</v>
       </c>
       <c r="C514">
         <v>1</v>
@@ -12218,12 +12236,12 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>513</v>
       </c>
       <c r="B515" s="2">
-        <v>45825.47916666666</v>
+        <v>45825.479166666657</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -12235,18 +12253,18 @@
         <v>0</v>
       </c>
       <c r="F515">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G515">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>514</v>
       </c>
       <c r="B516" s="2">
-        <v>45826.47916666666</v>
+        <v>45826.479166666657</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -12261,15 +12279,15 @@
         <v>0.45</v>
       </c>
       <c r="G516">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="517" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>515</v>
       </c>
       <c r="B517" s="2">
-        <v>45828.47916666666</v>
+        <v>45828.479166666657</v>
       </c>
       <c r="C517">
         <v>0</v>
@@ -12281,18 +12299,18 @@
         <v>1</v>
       </c>
       <c r="F517">
-        <v>0.7166666666666667</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="G517">
-        <v>0.2833333333333333</v>
-      </c>
-    </row>
-    <row r="518" spans="1:7">
+        <v>0.28333333333333333</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518" s="2">
-        <v>45831.47916666666</v>
+        <v>45831.479166666657</v>
       </c>
       <c r="C518">
         <v>1</v>
@@ -12304,18 +12322,18 @@
         <v>0</v>
       </c>
       <c r="F518">
-        <v>0.7166666666666667</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="G518">
-        <v>0.2833333333333333</v>
-      </c>
-    </row>
-    <row r="519" spans="1:7">
+        <v>0.28333333333333333</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>517</v>
       </c>
       <c r="B519" s="2">
-        <v>45832.47916666666</v>
+        <v>45832.479166666657</v>
       </c>
       <c r="C519">
         <v>1</v>
@@ -12327,18 +12345,18 @@
         <v>1</v>
       </c>
       <c r="F519">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G519">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="520" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>518</v>
       </c>
       <c r="B520" s="2">
-        <v>45833.47916666666</v>
+        <v>45833.479166666657</v>
       </c>
       <c r="C520">
         <v>0</v>
@@ -12350,27 +12368,27 @@
         <v>1</v>
       </c>
       <c r="F520">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G520">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="521" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>519</v>
       </c>
       <c r="B521" s="2">
-        <v>45834.47916666666</v>
+        <v>45834.479166666657</v>
       </c>
       <c r="D521">
         <v>0</v>
       </c>
       <c r="F521">
-        <v>0.5666666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G521">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyVOC.xlsx
+++ b/firebase_data_from_spyVOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="584">
   <si>
     <t>date</t>
   </si>
@@ -34,6 +34,9 @@
     <t>proba1</t>
   </si>
   <si>
+    <t>probability</t>
+  </si>
+  <si>
     <t>2023-05-31</t>
   </si>
   <si>
@@ -1610,6 +1613,159 @@
   </si>
   <si>
     <t>2025-07-07</t>
+  </si>
+  <si>
+    <t>2025-07-08</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>2025-07-10</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>2025-07-14</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-16</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>2025-07-18</t>
+  </si>
+  <si>
+    <t>2025-07-21</t>
+  </si>
+  <si>
+    <t>2025-07-22</t>
+  </si>
+  <si>
+    <t>2025-07-23</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>2025-07-25</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>2025-07-29</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-07-31</t>
+  </si>
+  <si>
+    <t>2025-08-01</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>53.33</t>
+  </si>
+  <si>
+    <t>54.80</t>
+  </si>
+  <si>
+    <t>56.53</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>54.57</t>
+  </si>
+  <si>
+    <t>61.67</t>
+  </si>
+  <si>
+    <t>57.50</t>
+  </si>
+  <si>
+    <t>48.33</t>
+  </si>
+  <si>
+    <t>73.33</t>
+  </si>
+  <si>
+    <t>58.33</t>
+  </si>
+  <si>
+    <t>65.83</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>51.67</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>64.17</t>
+  </si>
+  <si>
+    <t>56.67</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>76.67</t>
+  </si>
+  <si>
+    <t>71.67</t>
+  </si>
+  <si>
+    <t>63.33</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>66.67</t>
+  </si>
+  <si>
+    <t>78.33</t>
+  </si>
+  <si>
+    <t>68.33</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>86.67</t>
+  </si>
+  <si>
+    <t>81.67</t>
   </si>
 </sst>
 </file>
@@ -1967,13 +2123,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G527"/>
+  <dimension ref="A1:H546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1992,13 +2148,16 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2016,12 +2175,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2039,12 +2198,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2062,12 +2221,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2085,12 +2244,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2107,13 +2266,16 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2131,12 +2293,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2154,12 +2316,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2177,12 +2339,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2200,12 +2362,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2223,12 +2385,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2246,12 +2408,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2269,12 +2431,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2292,12 +2454,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2315,12 +2477,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2343,7 +2505,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2366,7 +2528,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2389,7 +2551,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2412,7 +2574,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2435,7 +2597,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2458,7 +2620,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2481,7 +2643,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2504,7 +2666,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2527,7 +2689,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2550,7 +2712,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2573,7 +2735,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2596,7 +2758,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2619,7 +2781,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2642,7 +2804,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2665,7 +2827,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2688,7 +2850,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2711,7 +2873,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2734,7 +2896,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2757,7 +2919,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2780,7 +2942,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2803,7 +2965,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2826,7 +2988,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2849,7 +3011,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2872,7 +3034,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2895,7 +3057,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2918,7 +3080,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2941,7 +3103,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2964,7 +3126,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2987,7 +3149,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3010,7 +3172,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3033,7 +3195,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -3056,7 +3218,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3079,7 +3241,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3102,7 +3264,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3125,7 +3287,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -3148,7 +3310,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3171,7 +3333,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3194,7 +3356,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -3217,7 +3379,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3240,7 +3402,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3263,7 +3425,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -3286,7 +3448,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3309,7 +3471,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3332,7 +3494,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3355,7 +3517,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3378,7 +3540,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -3401,7 +3563,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3424,7 +3586,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -3447,7 +3609,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3470,7 +3632,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3493,7 +3655,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3516,7 +3678,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -3539,7 +3701,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3562,7 +3724,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3585,7 +3747,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3608,7 +3770,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3631,7 +3793,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -3654,7 +3816,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3677,7 +3839,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3700,7 +3862,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3723,7 +3885,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3746,7 +3908,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -3769,7 +3931,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3792,7 +3954,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3815,7 +3977,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3838,7 +4000,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3861,7 +4023,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -3884,7 +4046,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -3907,7 +4069,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -3930,7 +4092,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3953,7 +4115,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -3976,7 +4138,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3999,7 +4161,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4022,7 +4184,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4045,7 +4207,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4068,7 +4230,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4091,7 +4253,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4114,7 +4276,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4137,7 +4299,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -4160,7 +4322,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -4183,7 +4345,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4206,7 +4368,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4229,7 +4391,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -4252,7 +4414,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -4275,7 +4437,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -4298,7 +4460,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4321,7 +4483,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -4344,7 +4506,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -4367,7 +4529,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -4390,7 +4552,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -4413,7 +4575,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4436,7 +4598,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4459,7 +4621,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4482,7 +4644,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -4505,7 +4667,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -4528,7 +4690,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -4551,7 +4713,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -4574,7 +4736,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -4597,7 +4759,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -4620,7 +4782,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -4643,7 +4805,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -4666,7 +4828,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -4689,7 +4851,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -4712,7 +4874,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -4735,7 +4897,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -4758,7 +4920,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -4781,7 +4943,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -4804,7 +4966,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -4827,7 +4989,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -4850,7 +5012,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -4873,7 +5035,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -4896,7 +5058,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -4919,7 +5081,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -4942,7 +5104,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -4965,7 +5127,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -4988,7 +5150,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -5011,7 +5173,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5034,7 +5196,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -5057,7 +5219,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -5080,7 +5242,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -5103,7 +5265,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -5126,7 +5288,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -5149,7 +5311,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -5172,7 +5334,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -5195,7 +5357,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -5218,7 +5380,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -5241,7 +5403,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -5264,7 +5426,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -5287,7 +5449,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -5310,7 +5472,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -5333,7 +5495,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -5356,7 +5518,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -5379,7 +5541,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -5402,7 +5564,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -5425,7 +5587,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -5448,7 +5610,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -5471,7 +5633,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -5494,7 +5656,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -5517,7 +5679,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -5540,7 +5702,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -5563,7 +5725,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -5586,7 +5748,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -5609,7 +5771,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -5632,7 +5794,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -5655,7 +5817,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -5678,7 +5840,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -5701,7 +5863,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -5724,7 +5886,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -5747,7 +5909,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -5770,7 +5932,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -5793,7 +5955,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -5816,7 +5978,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -5839,7 +6001,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -5862,7 +6024,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -5885,7 +6047,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -5908,7 +6070,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -5931,7 +6093,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -5954,7 +6116,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -5977,7 +6139,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -6000,7 +6162,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -6018,12 +6180,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -6041,12 +6203,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -6064,12 +6226,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -6087,12 +6249,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -6110,12 +6272,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -6133,12 +6295,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -6155,13 +6317,16 @@
       <c r="G182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="H182" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -6178,13 +6343,16 @@
       <c r="G183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:7">
+      <c r="H183" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -6201,13 +6369,16 @@
       <c r="G184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="H184" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -6224,13 +6395,16 @@
       <c r="G185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="H185" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -6247,13 +6421,16 @@
       <c r="G186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="H186" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -6270,13 +6447,16 @@
       <c r="G187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:7">
+      <c r="H187" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -6293,13 +6473,16 @@
       <c r="G188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:7">
+      <c r="H188" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -6316,13 +6499,16 @@
       <c r="G189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:7">
+      <c r="H189" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -6339,13 +6525,16 @@
       <c r="G190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:7">
+      <c r="H190" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -6362,13 +6551,16 @@
       <c r="G191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:7">
+      <c r="H191" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -6385,13 +6577,16 @@
       <c r="G192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:7">
+      <c r="H192" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -6408,13 +6603,16 @@
       <c r="G193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:7">
+      <c r="H193" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -6431,13 +6629,16 @@
       <c r="G194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:7">
+      <c r="H194" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -6454,13 +6655,16 @@
       <c r="G195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:7">
+      <c r="H195" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -6477,13 +6681,16 @@
       <c r="G196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:7">
+      <c r="H196" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -6500,13 +6707,16 @@
       <c r="G197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:7">
+      <c r="H197" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -6523,13 +6733,16 @@
       <c r="G198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:7">
+      <c r="H198" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -6546,13 +6759,16 @@
       <c r="G199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:7">
+      <c r="H199" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -6569,13 +6785,16 @@
       <c r="G200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:7">
+      <c r="H200" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -6592,13 +6811,16 @@
       <c r="G201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:7">
+      <c r="H201" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -6615,13 +6837,16 @@
       <c r="G202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:7">
+      <c r="H202" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -6638,13 +6863,16 @@
       <c r="G203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:7">
+      <c r="H203" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -6661,13 +6889,16 @@
       <c r="G204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:7">
+      <c r="H204" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -6684,13 +6915,16 @@
       <c r="G205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:7">
+      <c r="H205" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -6707,13 +6941,16 @@
       <c r="G206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:7">
+      <c r="H206" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -6730,13 +6967,16 @@
       <c r="G207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:7">
+      <c r="H207" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -6753,13 +6993,16 @@
       <c r="G208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:7">
+      <c r="H208" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -6776,13 +7019,16 @@
       <c r="G209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:7">
+      <c r="H209" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -6799,13 +7045,16 @@
       <c r="G210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:7">
+      <c r="H210" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -6822,13 +7071,16 @@
       <c r="G211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:7">
+      <c r="H211" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -6845,13 +7097,16 @@
       <c r="G212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:7">
+      <c r="H212" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -6868,13 +7123,16 @@
       <c r="G213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:7">
+      <c r="H213" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -6891,13 +7149,16 @@
       <c r="G214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:7">
+      <c r="H214" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -6914,13 +7175,16 @@
       <c r="G215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:7">
+      <c r="H215" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -6937,13 +7201,16 @@
       <c r="G216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:7">
+      <c r="H216" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -6960,13 +7227,16 @@
       <c r="G217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:7">
+      <c r="H217" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -6983,13 +7253,16 @@
       <c r="G218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:7">
+      <c r="H218" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -7006,13 +7279,16 @@
       <c r="G219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:7">
+      <c r="H219" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -7029,13 +7305,16 @@
       <c r="G220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:7">
+      <c r="H220" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -7052,13 +7331,16 @@
       <c r="G221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:7">
+      <c r="H221" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -7075,13 +7357,16 @@
       <c r="G222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:7">
+      <c r="H222" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -7098,13 +7383,16 @@
       <c r="G223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:7">
+      <c r="H223" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -7121,13 +7409,16 @@
       <c r="G224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:7">
+      <c r="H224" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -7144,13 +7435,16 @@
       <c r="G225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:7">
+      <c r="H225" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -7167,13 +7461,16 @@
       <c r="G226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:7">
+      <c r="H226" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -7190,13 +7487,16 @@
       <c r="G227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:7">
+      <c r="H227" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -7213,13 +7513,16 @@
       <c r="G228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:7">
+      <c r="H228" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -7236,13 +7539,16 @@
       <c r="G229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:7">
+      <c r="H229" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -7259,13 +7565,16 @@
       <c r="G230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:7">
+      <c r="H230" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -7282,13 +7591,16 @@
       <c r="G231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:7">
+      <c r="H231" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -7305,13 +7617,16 @@
       <c r="G232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:7">
+      <c r="H232" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -7328,13 +7643,16 @@
       <c r="G233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:7">
+      <c r="H233" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -7351,13 +7669,16 @@
       <c r="G234">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:7">
+      <c r="H234" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -7374,13 +7695,16 @@
       <c r="G235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:7">
+      <c r="H235" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -7397,13 +7721,16 @@
       <c r="G236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:7">
+      <c r="H236" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -7420,13 +7747,16 @@
       <c r="G237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:7">
+      <c r="H237" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -7443,13 +7773,16 @@
       <c r="G238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:7">
+      <c r="H238" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -7466,13 +7799,16 @@
       <c r="G239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:7">
+      <c r="H239" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -7489,13 +7825,16 @@
       <c r="G240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:7">
+      <c r="H240" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -7512,13 +7851,16 @@
       <c r="G241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:7">
+      <c r="H241" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -7535,13 +7877,16 @@
       <c r="G242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:7">
+      <c r="H242" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -7558,13 +7903,16 @@
       <c r="G243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:7">
+      <c r="H243" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -7581,13 +7929,16 @@
       <c r="G244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:7">
+      <c r="H244" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -7604,13 +7955,16 @@
       <c r="G245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:7">
+      <c r="H245" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -7627,13 +7981,16 @@
       <c r="G246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:7">
+      <c r="H246" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" s="1">
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -7650,13 +8007,16 @@
       <c r="G247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:7">
+      <c r="H247" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -7673,13 +8033,16 @@
       <c r="G248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:7">
+      <c r="H248" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249" s="1">
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -7696,13 +8059,16 @@
       <c r="G249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:7">
+      <c r="H249" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" s="1">
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -7719,13 +8085,16 @@
       <c r="G250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:7">
+      <c r="H250" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251" s="1">
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -7742,13 +8111,16 @@
       <c r="G251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:7">
+      <c r="H251" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252" s="1">
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -7765,13 +8137,16 @@
       <c r="G252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:7">
+      <c r="H252" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253" s="1">
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -7788,13 +8163,16 @@
       <c r="G253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:7">
+      <c r="H253" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" s="1">
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -7811,13 +8189,16 @@
       <c r="G254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:7">
+      <c r="H254" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255" s="1">
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -7834,13 +8215,16 @@
       <c r="G255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:7">
+      <c r="H255" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -7857,13 +8241,16 @@
       <c r="G256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:7">
+      <c r="H256" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -7880,13 +8267,16 @@
       <c r="G257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:7">
+      <c r="H257" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258" s="1">
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -7903,13 +8293,16 @@
       <c r="G258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:7">
+      <c r="H258" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" s="1">
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -7926,13 +8319,16 @@
       <c r="G259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:7">
+      <c r="H259" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260" s="1">
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -7949,13 +8345,16 @@
       <c r="G260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:7">
+      <c r="H260" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261" s="1">
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -7972,13 +8371,16 @@
       <c r="G261">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:7">
+      <c r="H261" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262" s="1">
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -7995,13 +8397,16 @@
       <c r="G262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:7">
+      <c r="H262" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263" s="1">
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -8018,13 +8423,16 @@
       <c r="G263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:7">
+      <c r="H263" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264" s="1">
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -8041,13 +8449,16 @@
       <c r="G264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:7">
+      <c r="H264" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265" s="1">
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -8064,13 +8475,16 @@
       <c r="G265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:7">
+      <c r="H265" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266" s="1">
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -8087,13 +8501,16 @@
       <c r="G266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:7">
+      <c r="H266" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267" s="1">
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -8110,13 +8527,16 @@
       <c r="G267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:7">
+      <c r="H267" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268" s="1">
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -8133,13 +8553,16 @@
       <c r="G268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:7">
+      <c r="H268" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269" s="1">
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -8156,13 +8579,16 @@
       <c r="G269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:7">
+      <c r="H269" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270" s="1">
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -8179,13 +8605,16 @@
       <c r="G270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:7">
+      <c r="H270" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271" s="1">
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -8202,13 +8631,16 @@
       <c r="G271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:7">
+      <c r="H271" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272" s="1">
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -8225,13 +8657,16 @@
       <c r="G272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:7">
+      <c r="H272" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273" s="1">
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -8248,13 +8683,16 @@
       <c r="G273">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:7">
+      <c r="H273" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274" s="1">
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -8271,13 +8709,16 @@
       <c r="G274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:7">
+      <c r="H274" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275" s="1">
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -8294,13 +8735,16 @@
       <c r="G275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:7">
+      <c r="H275" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276" s="1">
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -8317,13 +8761,16 @@
       <c r="G276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:7">
+      <c r="H276" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277" s="1">
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -8340,13 +8787,16 @@
       <c r="G277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:7">
+      <c r="H277" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278" s="1">
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -8363,13 +8813,16 @@
       <c r="G278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:7">
+      <c r="H278" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279" s="1">
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -8386,13 +8839,16 @@
       <c r="G279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:7">
+      <c r="H279" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280" s="1">
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -8409,13 +8865,16 @@
       <c r="G280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:7">
+      <c r="H280" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281" s="1">
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -8432,13 +8891,16 @@
       <c r="G281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:7">
+      <c r="H281" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282" s="1">
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C282">
         <v>1</v>
@@ -8455,13 +8917,16 @@
       <c r="G282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:7">
+      <c r="H282" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
       <c r="A283" s="1">
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -8478,13 +8943,16 @@
       <c r="G283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:7">
+      <c r="H283" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284" s="1">
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C284">
         <v>1</v>
@@ -8501,13 +8969,16 @@
       <c r="G284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:7">
+      <c r="H284" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285" s="1">
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -8524,13 +8995,16 @@
       <c r="G285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:7">
+      <c r="H285" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286" s="1">
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -8547,13 +9021,16 @@
       <c r="G286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:7">
+      <c r="H286" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287" s="1">
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -8570,13 +9047,16 @@
       <c r="G287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:7">
+      <c r="H287" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288" s="1">
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -8593,13 +9073,16 @@
       <c r="G288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:7">
+      <c r="H288" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289" s="1">
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -8616,13 +9099,16 @@
       <c r="G289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:7">
+      <c r="H289" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290" s="1">
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -8639,13 +9125,16 @@
       <c r="G290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:7">
+      <c r="H290" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291" s="1">
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -8662,13 +9151,16 @@
       <c r="G291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:7">
+      <c r="H291" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292" s="1">
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -8685,13 +9177,16 @@
       <c r="G292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:7">
+      <c r="H292" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293" s="1">
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -8708,13 +9203,16 @@
       <c r="G293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:7">
+      <c r="H293" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294" s="1">
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -8731,13 +9229,16 @@
       <c r="G294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:7">
+      <c r="H294" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295" s="1">
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -8754,13 +9255,16 @@
       <c r="G295">
         <v>0.4666666666666666</v>
       </c>
-    </row>
-    <row r="296" spans="1:7">
+      <c r="H295" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296" s="1">
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -8777,13 +9281,16 @@
       <c r="G296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:7">
+      <c r="H296" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297" s="1">
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -8800,13 +9307,16 @@
       <c r="G297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:7">
+      <c r="H297" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298" s="1">
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -8823,13 +9333,16 @@
       <c r="G298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:7">
+      <c r="H298" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299" s="1">
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -8846,13 +9359,16 @@
       <c r="G299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:7">
+      <c r="H299" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300" s="1">
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -8869,13 +9385,16 @@
       <c r="G300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:7">
+      <c r="H300" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301" s="1">
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -8892,13 +9411,16 @@
       <c r="G301">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:7">
+      <c r="H301" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302" s="1">
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C302">
         <v>1</v>
@@ -8915,13 +9437,16 @@
       <c r="G302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:7">
+      <c r="H302" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303" s="1">
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -8938,13 +9463,16 @@
       <c r="G303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:7">
+      <c r="H303" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
       <c r="A304" s="1">
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -8961,13 +9489,16 @@
       <c r="G304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:7">
+      <c r="H304" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305" s="1">
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C305">
         <v>1</v>
@@ -8984,13 +9515,16 @@
       <c r="G305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:7">
+      <c r="H305" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306" s="1">
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C306">
         <v>1</v>
@@ -9007,13 +9541,16 @@
       <c r="G306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:7">
+      <c r="H306" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307" s="1">
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -9030,13 +9567,16 @@
       <c r="G307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:7">
+      <c r="H307" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308" s="1">
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -9053,13 +9593,16 @@
       <c r="G308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:7">
+      <c r="H308" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
       <c r="A309" s="1">
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -9076,13 +9619,16 @@
       <c r="G309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:7">
+      <c r="H309" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310" s="1">
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -9099,13 +9645,16 @@
       <c r="G310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:7">
+      <c r="H310" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311" s="1">
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -9122,13 +9671,16 @@
       <c r="G311">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:7">
+      <c r="H311" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312" s="1">
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -9145,13 +9697,16 @@
       <c r="G312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:7">
+      <c r="H312" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313" s="1">
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -9168,13 +9723,16 @@
       <c r="G313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:7">
+      <c r="H313" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314" s="1">
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C314">
         <v>1</v>
@@ -9191,13 +9749,16 @@
       <c r="G314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:7">
+      <c r="H314" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315" s="1">
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -9214,13 +9775,16 @@
       <c r="G315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:7">
+      <c r="H315" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316" s="1">
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -9237,13 +9801,16 @@
       <c r="G316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:7">
+      <c r="H316" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317" s="1">
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C317">
         <v>1</v>
@@ -9260,13 +9827,16 @@
       <c r="G317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:7">
+      <c r="H317" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318" s="1">
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -9283,13 +9853,16 @@
       <c r="G318">
         <v>0.5653002550708918</v>
       </c>
-    </row>
-    <row r="319" spans="1:7">
+      <c r="H318" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319" s="1">
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -9306,13 +9879,16 @@
       <c r="G319">
         <v>0.5200419117488183</v>
       </c>
-    </row>
-    <row r="320" spans="1:7">
+      <c r="H319" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320" s="1">
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -9329,13 +9905,16 @@
       <c r="G320">
         <v>0.545669087606208</v>
       </c>
-    </row>
-    <row r="321" spans="1:7">
+      <c r="H320" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321" s="1">
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -9352,13 +9931,16 @@
       <c r="G321">
         <v>0.3833333333333334</v>
       </c>
-    </row>
-    <row r="322" spans="1:7">
+      <c r="H321" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322" s="1">
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C322">
         <v>1</v>
@@ -9375,13 +9957,16 @@
       <c r="G322">
         <v>0.425</v>
       </c>
-    </row>
-    <row r="323" spans="1:7">
+      <c r="H322" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323" s="1">
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C323">
         <v>1</v>
@@ -9398,13 +9983,16 @@
       <c r="G323">
         <v>0.4833333333333333</v>
       </c>
-    </row>
-    <row r="324" spans="1:7">
+      <c r="H323" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324" s="1">
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -9421,13 +10009,16 @@
       <c r="G324">
         <v>0.5333333333333333</v>
       </c>
-    </row>
-    <row r="325" spans="1:7">
+      <c r="H324" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325" s="1">
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C325">
         <v>1</v>
@@ -9444,13 +10035,16 @@
       <c r="G325">
         <v>0.7333333333333333</v>
       </c>
-    </row>
-    <row r="326" spans="1:7">
+      <c r="H325" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326" s="1">
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C326">
         <v>1</v>
@@ -9467,13 +10061,16 @@
       <c r="G326">
         <v>0.4166666666666667</v>
       </c>
-    </row>
-    <row r="327" spans="1:7">
+      <c r="H326" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327" s="1">
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C327">
         <v>1</v>
@@ -9490,13 +10087,16 @@
       <c r="G327">
         <v>0.5833333333333334</v>
       </c>
-    </row>
-    <row r="328" spans="1:7">
+      <c r="H327" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
       <c r="A328" s="1">
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -9513,13 +10113,16 @@
       <c r="G328">
         <v>0.6583333333333333</v>
       </c>
-    </row>
-    <row r="329" spans="1:7">
+      <c r="H328" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329" s="1">
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -9536,13 +10139,16 @@
       <c r="G329">
         <v>0.475</v>
       </c>
-    </row>
-    <row r="330" spans="1:7">
+      <c r="H329" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
       <c r="A330" s="1">
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -9559,13 +10165,16 @@
       <c r="G330">
         <v>0.5166666666666667</v>
       </c>
-    </row>
-    <row r="331" spans="1:7">
+      <c r="H330" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331" s="1">
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -9582,13 +10191,16 @@
       <c r="G331">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="332" spans="1:7">
+      <c r="H331" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332" s="1">
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C332">
         <v>1</v>
@@ -9606,12 +10218,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:8">
       <c r="A333" s="1">
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C333">
         <v>1</v>
@@ -9629,12 +10241,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:8">
       <c r="A334" s="1">
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -9651,13 +10263,16 @@
       <c r="G334">
         <v>0.4833333333333333</v>
       </c>
-    </row>
-    <row r="335" spans="1:7">
+      <c r="H334" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335" s="1">
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -9674,13 +10289,16 @@
       <c r="G335">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="336" spans="1:7">
+      <c r="H335" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
       <c r="A336" s="1">
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -9697,13 +10315,16 @@
       <c r="G336">
         <v>0.6166666666666667</v>
       </c>
-    </row>
-    <row r="337" spans="1:7">
+      <c r="H336" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
       <c r="A337" s="1">
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C337">
         <v>1</v>
@@ -9720,13 +10341,16 @@
       <c r="G337">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="338" spans="1:7">
+      <c r="H337" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
       <c r="A338" s="1">
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C338">
         <v>0</v>
@@ -9743,13 +10367,16 @@
       <c r="G338">
         <v>0.4833333333333333</v>
       </c>
-    </row>
-    <row r="339" spans="1:7">
+      <c r="H338" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
       <c r="A339" s="1">
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C339">
         <v>1</v>
@@ -9766,13 +10393,16 @@
       <c r="G339">
         <v>0.3583333333333333</v>
       </c>
-    </row>
-    <row r="340" spans="1:7">
+      <c r="H339" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
       <c r="A340" s="1">
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C340">
         <v>1</v>
@@ -9789,13 +10419,16 @@
       <c r="G340">
         <v>0.4333333333333333</v>
       </c>
-    </row>
-    <row r="341" spans="1:7">
+      <c r="H340" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341" s="1">
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C341">
         <v>1</v>
@@ -9812,13 +10445,16 @@
       <c r="G341">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="342" spans="1:7">
+      <c r="H341" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
       <c r="A342" s="1">
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -9835,13 +10471,16 @@
       <c r="G342">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="343" spans="1:7">
+      <c r="H342" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
       <c r="A343" s="1">
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C343">
         <v>1</v>
@@ -9858,13 +10497,16 @@
       <c r="G343">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="344" spans="1:7">
+      <c r="H343" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344" s="1">
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C344">
         <v>1</v>
@@ -9881,13 +10523,16 @@
       <c r="G344">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="345" spans="1:7">
+      <c r="H344" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
       <c r="A345" s="1">
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -9904,13 +10549,16 @@
       <c r="G345">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="346" spans="1:7">
+      <c r="H345" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346" s="1">
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -9927,13 +10575,16 @@
       <c r="G346">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="347" spans="1:7">
+      <c r="H346" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347" s="1">
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C347">
         <v>1</v>
@@ -9950,13 +10601,16 @@
       <c r="G347">
         <v>0.5166666666666667</v>
       </c>
-    </row>
-    <row r="348" spans="1:7">
+      <c r="H347" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348" s="1">
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -9973,13 +10627,16 @@
       <c r="G348">
         <v>0.5333333333333333</v>
       </c>
-    </row>
-    <row r="349" spans="1:7">
+      <c r="H348" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
       <c r="A349" s="1">
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C349">
         <v>1</v>
@@ -9996,13 +10653,16 @@
       <c r="G349">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="350" spans="1:7">
+      <c r="H349" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
       <c r="A350" s="1">
         <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -10019,13 +10679,16 @@
       <c r="G350">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="351" spans="1:7">
+      <c r="H350" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351" s="1">
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C351">
         <v>1</v>
@@ -10042,13 +10705,16 @@
       <c r="G351">
         <v>0.5166666666666667</v>
       </c>
-    </row>
-    <row r="352" spans="1:7">
+      <c r="H351" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
       <c r="A352" s="1">
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -10065,13 +10731,16 @@
       <c r="G352">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="353" spans="1:7">
+      <c r="H352" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
       <c r="A353" s="1">
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C353">
         <v>1</v>
@@ -10088,13 +10757,16 @@
       <c r="G353">
         <v>0.4166666666666667</v>
       </c>
-    </row>
-    <row r="354" spans="1:7">
+      <c r="H353" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
       <c r="A354" s="1">
         <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -10111,13 +10783,16 @@
       <c r="G354">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="355" spans="1:7">
+      <c r="H354" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
       <c r="A355" s="1">
         <v>353</v>
       </c>
       <c r="B355" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -10134,13 +10809,16 @@
       <c r="G355">
         <v>0.4333333333333333</v>
       </c>
-    </row>
-    <row r="356" spans="1:7">
+      <c r="H355" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
       <c r="A356" s="1">
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -10157,13 +10835,16 @@
       <c r="G356">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="357" spans="1:7">
+      <c r="H356" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
       <c r="A357" s="1">
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -10180,13 +10861,16 @@
       <c r="G357">
         <v>0.2333333333333333</v>
       </c>
-    </row>
-    <row r="358" spans="1:7">
+      <c r="H357" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
       <c r="A358" s="1">
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C358">
         <v>1</v>
@@ -10203,13 +10887,16 @@
       <c r="G358">
         <v>0.2833333333333333</v>
       </c>
-    </row>
-    <row r="359" spans="1:7">
+      <c r="H358" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
       <c r="A359" s="1">
         <v>357</v>
       </c>
       <c r="B359" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -10226,13 +10913,16 @@
       <c r="G359">
         <v>0.3666666666666666</v>
       </c>
-    </row>
-    <row r="360" spans="1:7">
+      <c r="H359" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
       <c r="A360" s="1">
         <v>358</v>
       </c>
       <c r="B360" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -10249,13 +10939,16 @@
       <c r="G360">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="361" spans="1:7">
+      <c r="H360" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
       <c r="A361" s="1">
         <v>359</v>
       </c>
       <c r="B361" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C361">
         <v>0</v>
@@ -10272,13 +10965,16 @@
       <c r="G361">
         <v>0.2666666666666667</v>
       </c>
-    </row>
-    <row r="362" spans="1:7">
+      <c r="H361" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
       <c r="A362" s="1">
         <v>360</v>
       </c>
       <c r="B362" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -10295,13 +10991,16 @@
       <c r="G362">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="363" spans="1:7">
+      <c r="H362" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
       <c r="A363" s="1">
         <v>361</v>
       </c>
       <c r="B363" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -10318,13 +11017,16 @@
       <c r="G363">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="364" spans="1:7">
+      <c r="H363" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
       <c r="A364" s="1">
         <v>362</v>
       </c>
       <c r="B364" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -10341,13 +11043,16 @@
       <c r="G364">
         <v>0.3333333333333333</v>
       </c>
-    </row>
-    <row r="365" spans="1:7">
+      <c r="H364" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
       <c r="A365" s="1">
         <v>363</v>
       </c>
       <c r="B365" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C365">
         <v>1</v>
@@ -10364,13 +11069,16 @@
       <c r="G365">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="366" spans="1:7">
+      <c r="H365" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
       <c r="A366" s="1">
         <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C366">
         <v>1</v>
@@ -10387,13 +11095,16 @@
       <c r="G366">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="367" spans="1:7">
+      <c r="H366" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
       <c r="A367" s="1">
         <v>365</v>
       </c>
       <c r="B367" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -10410,13 +11121,16 @@
       <c r="G367">
         <v>0.5666666666666667</v>
       </c>
-    </row>
-    <row r="368" spans="1:7">
+      <c r="H367" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
       <c r="A368" s="1">
         <v>366</v>
       </c>
       <c r="B368" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C368">
         <v>0</v>
@@ -10433,13 +11147,16 @@
       <c r="G368">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="369" spans="1:7">
+      <c r="H368" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
       <c r="A369" s="1">
         <v>367</v>
       </c>
       <c r="B369" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -10456,13 +11173,16 @@
       <c r="G369">
         <v>0.5833333333333334</v>
       </c>
-    </row>
-    <row r="370" spans="1:7">
+      <c r="H369" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
       <c r="A370" s="1">
         <v>368</v>
       </c>
       <c r="B370" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -10479,13 +11199,16 @@
       <c r="G370">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="371" spans="1:7">
+      <c r="H370" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
       <c r="A371" s="1">
         <v>369</v>
       </c>
       <c r="B371" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C371">
         <v>0</v>
@@ -10502,13 +11225,16 @@
       <c r="G371">
         <v>0.4333333333333333</v>
       </c>
-    </row>
-    <row r="372" spans="1:7">
+      <c r="H371" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
       <c r="A372" s="1">
         <v>370</v>
       </c>
       <c r="B372" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C372">
         <v>1</v>
@@ -10525,13 +11251,16 @@
       <c r="G372">
         <v>0.5333333333333333</v>
       </c>
-    </row>
-    <row r="373" spans="1:7">
+      <c r="H372" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
       <c r="A373" s="1">
         <v>371</v>
       </c>
       <c r="B373" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C373">
         <v>1</v>
@@ -10548,13 +11277,16 @@
       <c r="G373">
         <v>0.4666666666666666</v>
       </c>
-    </row>
-    <row r="374" spans="1:7">
+      <c r="H373" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
       <c r="A374" s="1">
         <v>372</v>
       </c>
       <c r="B374" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C374">
         <v>1</v>
@@ -10571,13 +11303,16 @@
       <c r="G374">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="375" spans="1:7">
+      <c r="H374" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
       <c r="A375" s="1">
         <v>373</v>
       </c>
       <c r="B375" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C375">
         <v>1</v>
@@ -10594,13 +11329,16 @@
       <c r="G375">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="376" spans="1:7">
+      <c r="H375" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
       <c r="A376" s="1">
         <v>374</v>
       </c>
       <c r="B376" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C376">
         <v>1</v>
@@ -10617,13 +11355,16 @@
       <c r="G376">
         <v>0.5333333333333333</v>
       </c>
-    </row>
-    <row r="377" spans="1:7">
+      <c r="H376" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
       <c r="A377" s="1">
         <v>375</v>
       </c>
       <c r="B377" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -10640,13 +11381,16 @@
       <c r="G377">
         <v>0.6666666666666665</v>
       </c>
-    </row>
-    <row r="378" spans="1:7">
+      <c r="H377" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
       <c r="A378" s="1">
         <v>376</v>
       </c>
       <c r="B378" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -10663,13 +11407,16 @@
       <c r="G378">
         <v>0.4666666666666666</v>
       </c>
-    </row>
-    <row r="379" spans="1:7">
+      <c r="H378" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
       <c r="A379" s="1">
         <v>377</v>
       </c>
       <c r="B379" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C379">
         <v>0</v>
@@ -10686,13 +11433,16 @@
       <c r="G379">
         <v>0.5666666666666667</v>
       </c>
-    </row>
-    <row r="380" spans="1:7">
+      <c r="H379" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
       <c r="A380" s="1">
         <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C380">
         <v>1</v>
@@ -10709,13 +11459,16 @@
       <c r="G380">
         <v>0.5833333333333334</v>
       </c>
-    </row>
-    <row r="381" spans="1:7">
+      <c r="H380" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
       <c r="A381" s="1">
         <v>379</v>
       </c>
       <c r="B381" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C381">
         <v>1</v>
@@ -10732,13 +11485,16 @@
       <c r="G381">
         <v>0.4166666666666667</v>
       </c>
-    </row>
-    <row r="382" spans="1:7">
+      <c r="H381" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
       <c r="A382" s="1">
         <v>380</v>
       </c>
       <c r="B382" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C382">
         <v>1</v>
@@ -10755,13 +11511,16 @@
       <c r="G382">
         <v>0.3833333333333334</v>
       </c>
-    </row>
-    <row r="383" spans="1:7">
+      <c r="H382" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
       <c r="A383" s="1">
         <v>381</v>
       </c>
       <c r="B383" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -10778,13 +11537,16 @@
       <c r="G383">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="384" spans="1:7">
+      <c r="H383" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
       <c r="A384" s="1">
         <v>382</v>
       </c>
       <c r="B384" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C384">
         <v>0</v>
@@ -10801,13 +11563,16 @@
       <c r="G384">
         <v>0.6666666666666665</v>
       </c>
-    </row>
-    <row r="385" spans="1:7">
+      <c r="H384" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
       <c r="A385" s="1">
         <v>383</v>
       </c>
       <c r="B385" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -10824,13 +11589,16 @@
       <c r="G385">
         <v>0.5833333333333334</v>
       </c>
-    </row>
-    <row r="386" spans="1:7">
+      <c r="H385" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
       <c r="A386" s="1">
         <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C386">
         <v>0</v>
@@ -10847,13 +11615,16 @@
       <c r="G386">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="387" spans="1:7">
+      <c r="H386" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
       <c r="A387" s="1">
         <v>385</v>
       </c>
       <c r="B387" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C387">
         <v>0</v>
@@ -10870,13 +11641,16 @@
       <c r="G387">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="388" spans="1:7">
+      <c r="H387" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
       <c r="A388" s="1">
         <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C388">
         <v>1</v>
@@ -10893,13 +11667,16 @@
       <c r="G388">
         <v>0.5166666666666667</v>
       </c>
-    </row>
-    <row r="389" spans="1:7">
+      <c r="H388" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
       <c r="A389" s="1">
         <v>387</v>
       </c>
       <c r="B389" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C389">
         <v>0</v>
@@ -10916,13 +11693,16 @@
       <c r="G389">
         <v>0.4833333333333333</v>
       </c>
-    </row>
-    <row r="390" spans="1:7">
+      <c r="H389" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
       <c r="A390" s="1">
         <v>388</v>
       </c>
       <c r="B390" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C390">
         <v>0</v>
@@ -10939,13 +11719,16 @@
       <c r="G390">
         <v>0.2333333333333333</v>
       </c>
-    </row>
-    <row r="391" spans="1:7">
+      <c r="H390" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
       <c r="A391" s="1">
         <v>389</v>
       </c>
       <c r="B391" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C391">
         <v>1</v>
@@ -10962,13 +11745,16 @@
       <c r="G391">
         <v>0.5333333333333333</v>
       </c>
-    </row>
-    <row r="392" spans="1:7">
+      <c r="H391" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
       <c r="A392" s="1">
         <v>390</v>
       </c>
       <c r="B392" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C392">
         <v>1</v>
@@ -10985,13 +11771,16 @@
       <c r="G392">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="393" spans="1:7">
+      <c r="H392" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
       <c r="A393" s="1">
         <v>391</v>
       </c>
       <c r="B393" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C393">
         <v>0</v>
@@ -11008,13 +11797,16 @@
       <c r="G393">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="394" spans="1:7">
+      <c r="H393" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
       <c r="A394" s="1">
         <v>392</v>
       </c>
       <c r="B394" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C394">
         <v>0</v>
@@ -11031,13 +11823,16 @@
       <c r="G394">
         <v>0.5666666666666667</v>
       </c>
-    </row>
-    <row r="395" spans="1:7">
+      <c r="H394" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
       <c r="A395" s="1">
         <v>393</v>
       </c>
       <c r="B395" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C395">
         <v>1</v>
@@ -11054,13 +11849,16 @@
       <c r="G395">
         <v>0.5166666666666667</v>
       </c>
-    </row>
-    <row r="396" spans="1:7">
+      <c r="H395" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
       <c r="A396" s="1">
         <v>394</v>
       </c>
       <c r="B396" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C396">
         <v>1</v>
@@ -11077,13 +11875,16 @@
       <c r="G396">
         <v>0.6166666666666667</v>
       </c>
-    </row>
-    <row r="397" spans="1:7">
+      <c r="H396" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8">
       <c r="A397" s="1">
         <v>395</v>
       </c>
       <c r="B397" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C397">
         <v>1</v>
@@ -11100,13 +11901,16 @@
       <c r="G397">
         <v>0.5833333333333334</v>
       </c>
-    </row>
-    <row r="398" spans="1:7">
+      <c r="H397" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
       <c r="A398" s="1">
         <v>396</v>
       </c>
       <c r="B398" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C398">
         <v>1</v>
@@ -11123,13 +11927,16 @@
       <c r="G398">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="399" spans="1:7">
+      <c r="H398" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
       <c r="A399" s="1">
         <v>397</v>
       </c>
       <c r="B399" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C399">
         <v>0</v>
@@ -11146,13 +11953,16 @@
       <c r="G399">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="400" spans="1:7">
+      <c r="H399" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8">
       <c r="A400" s="1">
         <v>398</v>
       </c>
       <c r="B400" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C400">
         <v>1</v>
@@ -11169,13 +11979,16 @@
       <c r="G400">
         <v>0.4833333333333333</v>
       </c>
-    </row>
-    <row r="401" spans="1:7">
+      <c r="H400" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
       <c r="A401" s="1">
         <v>399</v>
       </c>
       <c r="B401" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -11192,13 +12005,16 @@
       <c r="G401">
         <v>0.5333333333333333</v>
       </c>
-    </row>
-    <row r="402" spans="1:7">
+      <c r="H401" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8">
       <c r="A402" s="1">
         <v>400</v>
       </c>
       <c r="B402" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -11215,13 +12031,16 @@
       <c r="G402">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="403" spans="1:7">
+      <c r="H402" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
       <c r="A403" s="1">
         <v>401</v>
       </c>
       <c r="B403" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C403">
         <v>1</v>
@@ -11238,13 +12057,16 @@
       <c r="G403">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="404" spans="1:7">
+      <c r="H403" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
       <c r="A404" s="1">
         <v>402</v>
       </c>
       <c r="B404" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C404">
         <v>0</v>
@@ -11261,13 +12083,16 @@
       <c r="G404">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="405" spans="1:7">
+      <c r="H404" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
       <c r="A405" s="1">
         <v>403</v>
       </c>
       <c r="B405" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -11284,13 +12109,16 @@
       <c r="G405">
         <v>0.4666666666666666</v>
       </c>
-    </row>
-    <row r="406" spans="1:7">
+      <c r="H405" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
       <c r="A406" s="1">
         <v>404</v>
       </c>
       <c r="B406" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C406">
         <v>1</v>
@@ -11307,13 +12135,16 @@
       <c r="G406">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="407" spans="1:7">
+      <c r="H406" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8">
       <c r="A407" s="1">
         <v>405</v>
       </c>
       <c r="B407" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -11330,13 +12161,16 @@
       <c r="G407">
         <v>0.5666666666666667</v>
       </c>
-    </row>
-    <row r="408" spans="1:7">
+      <c r="H407" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8">
       <c r="A408" s="1">
         <v>406</v>
       </c>
       <c r="B408" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C408">
         <v>1</v>
@@ -11353,13 +12187,16 @@
       <c r="G408">
         <v>0.5333333333333333</v>
       </c>
-    </row>
-    <row r="409" spans="1:7">
+      <c r="H408" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8">
       <c r="A409" s="1">
         <v>407</v>
       </c>
       <c r="B409" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -11376,13 +12213,16 @@
       <c r="G409">
         <v>0.5333333333333333</v>
       </c>
-    </row>
-    <row r="410" spans="1:7">
+      <c r="H409" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8">
       <c r="A410" s="1">
         <v>408</v>
       </c>
       <c r="B410" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -11399,13 +12239,16 @@
       <c r="G410">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="411" spans="1:7">
+      <c r="H410" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8">
       <c r="A411" s="1">
         <v>409</v>
       </c>
       <c r="B411" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -11422,13 +12265,16 @@
       <c r="G411">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="412" spans="1:7">
+      <c r="H411" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8">
       <c r="A412" s="1">
         <v>410</v>
       </c>
       <c r="B412" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -11445,13 +12291,16 @@
       <c r="G412">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="413" spans="1:7">
+      <c r="H412" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
       <c r="A413" s="1">
         <v>411</v>
       </c>
       <c r="B413" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C413">
         <v>1</v>
@@ -11468,13 +12317,16 @@
       <c r="G413">
         <v>0.4833333333333333</v>
       </c>
-    </row>
-    <row r="414" spans="1:7">
+      <c r="H413" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
       <c r="A414" s="1">
         <v>412</v>
       </c>
       <c r="B414" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C414">
         <v>1</v>
@@ -11491,13 +12343,16 @@
       <c r="G414">
         <v>0.4666666666666666</v>
       </c>
-    </row>
-    <row r="415" spans="1:7">
+      <c r="H414" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8">
       <c r="A415" s="1">
         <v>413</v>
       </c>
       <c r="B415" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C415">
         <v>1</v>
@@ -11514,13 +12369,16 @@
       <c r="G415">
         <v>0.3833333333333334</v>
       </c>
-    </row>
-    <row r="416" spans="1:7">
+      <c r="H415" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8">
       <c r="A416" s="1">
         <v>414</v>
       </c>
       <c r="B416" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C416">
         <v>0</v>
@@ -11537,13 +12395,16 @@
       <c r="G416">
         <v>0.4833333333333333</v>
       </c>
-    </row>
-    <row r="417" spans="1:7">
+      <c r="H416" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
       <c r="A417" s="1">
         <v>415</v>
       </c>
       <c r="B417" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C417">
         <v>1</v>
@@ -11560,13 +12421,16 @@
       <c r="G417">
         <v>0.2833333333333333</v>
       </c>
-    </row>
-    <row r="418" spans="1:7">
+      <c r="H417" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8">
       <c r="A418" s="1">
         <v>416</v>
       </c>
       <c r="B418" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C418">
         <v>1</v>
@@ -11583,13 +12447,16 @@
       <c r="G418">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="419" spans="1:7">
+      <c r="H418" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8">
       <c r="A419" s="1">
         <v>417</v>
       </c>
       <c r="B419" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -11606,13 +12473,16 @@
       <c r="G419">
         <v>0.3833333333333334</v>
       </c>
-    </row>
-    <row r="420" spans="1:7">
+      <c r="H419" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8">
       <c r="A420" s="1">
         <v>418</v>
       </c>
       <c r="B420" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C420">
         <v>1</v>
@@ -11629,13 +12499,16 @@
       <c r="G420">
         <v>0.4666666666666666</v>
       </c>
-    </row>
-    <row r="421" spans="1:7">
+      <c r="H420" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8">
       <c r="A421" s="1">
         <v>419</v>
       </c>
       <c r="B421" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -11652,13 +12525,16 @@
       <c r="G421">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="422" spans="1:7">
+      <c r="H421" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8">
       <c r="A422" s="1">
         <v>420</v>
       </c>
       <c r="B422" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C422">
         <v>1</v>
@@ -11675,13 +12551,16 @@
       <c r="G422">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="423" spans="1:7">
+      <c r="H422" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
       <c r="A423" s="1">
         <v>421</v>
       </c>
       <c r="B423" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -11698,13 +12577,16 @@
       <c r="G423">
         <v>0.3333333333333333</v>
       </c>
-    </row>
-    <row r="424" spans="1:7">
+      <c r="H423" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
       <c r="A424" s="1">
         <v>422</v>
       </c>
       <c r="B424" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C424">
         <v>1</v>
@@ -11721,13 +12603,16 @@
       <c r="G424">
         <v>0.5166666666666667</v>
       </c>
-    </row>
-    <row r="425" spans="1:7">
+      <c r="H424" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
       <c r="A425" s="1">
         <v>423</v>
       </c>
       <c r="B425" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C425">
         <v>1</v>
@@ -11744,13 +12629,16 @@
       <c r="G425">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="426" spans="1:7">
+      <c r="H425" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
       <c r="A426" s="1">
         <v>424</v>
       </c>
       <c r="B426" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C426">
         <v>0</v>
@@ -11767,13 +12655,16 @@
       <c r="G426">
         <v>0.6333333333333333</v>
       </c>
-    </row>
-    <row r="427" spans="1:7">
+      <c r="H426" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
       <c r="A427" s="1">
         <v>425</v>
       </c>
       <c r="B427" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -11790,13 +12681,16 @@
       <c r="G427">
         <v>0.5666666666666667</v>
       </c>
-    </row>
-    <row r="428" spans="1:7">
+      <c r="H427" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
       <c r="A428" s="1">
         <v>426</v>
       </c>
       <c r="B428" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -11813,13 +12707,16 @@
       <c r="G428">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="429" spans="1:7">
+      <c r="H428" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
       <c r="A429" s="1">
         <v>427</v>
       </c>
       <c r="B429" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C429">
         <v>1</v>
@@ -11836,13 +12733,16 @@
       <c r="G429">
         <v>0.6666666666666665</v>
       </c>
-    </row>
-    <row r="430" spans="1:7">
+      <c r="H429" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
       <c r="A430" s="1">
         <v>428</v>
       </c>
       <c r="B430" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C430">
         <v>1</v>
@@ -11859,13 +12759,16 @@
       <c r="G430">
         <v>0.5666666666666667</v>
       </c>
-    </row>
-    <row r="431" spans="1:7">
+      <c r="H430" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
       <c r="A431" s="1">
         <v>429</v>
       </c>
       <c r="B431" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -11882,13 +12785,16 @@
       <c r="G431">
         <v>0.7833333333333333</v>
       </c>
-    </row>
-    <row r="432" spans="1:7">
+      <c r="H431" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
       <c r="A432" s="1">
         <v>430</v>
       </c>
       <c r="B432" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C432">
         <v>1</v>
@@ -11905,13 +12811,16 @@
       <c r="G432">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="433" spans="1:7">
+      <c r="H432" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
       <c r="A433" s="1">
         <v>431</v>
       </c>
       <c r="B433" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C433">
         <v>1</v>
@@ -11928,13 +12837,16 @@
       <c r="G433">
         <v>0.6166666666666667</v>
       </c>
-    </row>
-    <row r="434" spans="1:7">
+      <c r="H433" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
       <c r="A434" s="1">
         <v>432</v>
       </c>
       <c r="B434" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -11951,13 +12863,16 @@
       <c r="G434">
         <v>0.7166666666666667</v>
       </c>
-    </row>
-    <row r="435" spans="1:7">
+      <c r="H434" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
       <c r="A435" s="1">
         <v>433</v>
       </c>
       <c r="B435" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -11974,13 +12889,16 @@
       <c r="G435">
         <v>0.4833333333333333</v>
       </c>
-    </row>
-    <row r="436" spans="1:7">
+      <c r="H435" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
       <c r="A436" s="1">
         <v>434</v>
       </c>
       <c r="B436" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C436">
         <v>0</v>
@@ -11997,13 +12915,16 @@
       <c r="G436">
         <v>0.4833333333333333</v>
       </c>
-    </row>
-    <row r="437" spans="1:7">
+      <c r="H436" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
       <c r="A437" s="1">
         <v>435</v>
       </c>
       <c r="B437" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C437">
         <v>0</v>
@@ -12020,13 +12941,16 @@
       <c r="G437">
         <v>0.4333333333333333</v>
       </c>
-    </row>
-    <row r="438" spans="1:7">
+      <c r="H437" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
       <c r="A438" s="1">
         <v>436</v>
       </c>
       <c r="B438" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C438">
         <v>0</v>
@@ -12043,13 +12967,16 @@
       <c r="G438">
         <v>0.5666666666666667</v>
       </c>
-    </row>
-    <row r="439" spans="1:7">
+      <c r="H438" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
       <c r="A439" s="1">
         <v>437</v>
       </c>
       <c r="B439" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C439">
         <v>0</v>
@@ -12066,13 +12993,16 @@
       <c r="G439">
         <v>0.5833333333333334</v>
       </c>
-    </row>
-    <row r="440" spans="1:7">
+      <c r="H439" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8">
       <c r="A440" s="1">
         <v>438</v>
       </c>
       <c r="B440" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C440">
         <v>1</v>
@@ -12089,13 +13019,16 @@
       <c r="G440">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="441" spans="1:7">
+      <c r="H440" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8">
       <c r="A441" s="1">
         <v>439</v>
       </c>
       <c r="B441" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C441">
         <v>0</v>
@@ -12112,13 +13045,16 @@
       <c r="G441">
         <v>0.5166666666666667</v>
       </c>
-    </row>
-    <row r="442" spans="1:7">
+      <c r="H441" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
       <c r="A442" s="1">
         <v>440</v>
       </c>
       <c r="B442" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C442">
         <v>0</v>
@@ -12135,13 +13071,16 @@
       <c r="G442">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="443" spans="1:7">
+      <c r="H442" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
       <c r="A443" s="1">
         <v>441</v>
       </c>
       <c r="B443" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C443">
         <v>1</v>
@@ -12158,13 +13097,16 @@
       <c r="G443">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="444" spans="1:7">
+      <c r="H443" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8">
       <c r="A444" s="1">
         <v>442</v>
       </c>
       <c r="B444" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -12181,13 +13123,16 @@
       <c r="G444">
         <v>0.5166666666666667</v>
       </c>
-    </row>
-    <row r="445" spans="1:7">
+      <c r="H444" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
       <c r="A445" s="1">
         <v>443</v>
       </c>
       <c r="B445" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C445">
         <v>1</v>
@@ -12204,13 +13149,16 @@
       <c r="G445">
         <v>0.7166666666666667</v>
       </c>
-    </row>
-    <row r="446" spans="1:7">
+      <c r="H445" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
       <c r="A446" s="1">
         <v>444</v>
       </c>
       <c r="B446" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C446">
         <v>0</v>
@@ -12227,13 +13175,16 @@
       <c r="G446">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="447" spans="1:7">
+      <c r="H446" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8">
       <c r="A447" s="1">
         <v>445</v>
       </c>
       <c r="B447" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -12250,13 +13201,16 @@
       <c r="G447">
         <v>0.5833333333333334</v>
       </c>
-    </row>
-    <row r="448" spans="1:7">
+      <c r="H447" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
       <c r="A448" s="1">
         <v>446</v>
       </c>
       <c r="B448" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C448">
         <v>0</v>
@@ -12273,13 +13227,16 @@
       <c r="G448">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="449" spans="1:7">
+      <c r="H448" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
       <c r="A449" s="1">
         <v>447</v>
       </c>
       <c r="B449" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C449">
         <v>0</v>
@@ -12296,13 +13253,16 @@
       <c r="G449">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="450" spans="1:7">
+      <c r="H449" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8">
       <c r="A450" s="1">
         <v>448</v>
       </c>
       <c r="B450" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C450">
         <v>1</v>
@@ -12319,13 +13279,16 @@
       <c r="G450">
         <v>0.4666666666666666</v>
       </c>
-    </row>
-    <row r="451" spans="1:7">
+      <c r="H450" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8">
       <c r="A451" s="1">
         <v>449</v>
       </c>
       <c r="B451" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C451">
         <v>1</v>
@@ -12342,13 +13305,16 @@
       <c r="G451">
         <v>0.3833333333333334</v>
       </c>
-    </row>
-    <row r="452" spans="1:7">
+      <c r="H451" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8">
       <c r="A452" s="1">
         <v>450</v>
       </c>
       <c r="B452" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C452">
         <v>0</v>
@@ -12365,13 +13331,16 @@
       <c r="G452">
         <v>0.6833333333333332</v>
       </c>
-    </row>
-    <row r="453" spans="1:7">
+      <c r="H452" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8">
       <c r="A453" s="1">
         <v>451</v>
       </c>
       <c r="B453" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C453">
         <v>1</v>
@@ -12388,13 +13357,16 @@
       <c r="G453">
         <v>0.7166666666666667</v>
       </c>
-    </row>
-    <row r="454" spans="1:7">
+      <c r="H453" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8">
       <c r="A454" s="1">
         <v>452</v>
       </c>
       <c r="B454" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C454">
         <v>1</v>
@@ -12411,13 +13383,16 @@
       <c r="G454">
         <v>0.6333333333333333</v>
       </c>
-    </row>
-    <row r="455" spans="1:7">
+      <c r="H454" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8">
       <c r="A455" s="1">
         <v>453</v>
       </c>
       <c r="B455" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C455">
         <v>1</v>
@@ -12434,13 +13409,16 @@
       <c r="G455">
         <v>0.7833333333333333</v>
       </c>
-    </row>
-    <row r="456" spans="1:7">
+      <c r="H455" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8">
       <c r="A456" s="1">
         <v>454</v>
       </c>
       <c r="B456" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C456">
         <v>1</v>
@@ -12457,13 +13435,16 @@
       <c r="G456">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="457" spans="1:7">
+      <c r="H456" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
       <c r="A457" s="1">
         <v>455</v>
       </c>
       <c r="B457" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C457">
         <v>1</v>
@@ -12480,13 +13461,16 @@
       <c r="G457">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="458" spans="1:7">
+      <c r="H457" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8">
       <c r="A458" s="1">
         <v>456</v>
       </c>
       <c r="B458" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C458">
         <v>0</v>
@@ -12503,13 +13487,16 @@
       <c r="G458">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="459" spans="1:7">
+      <c r="H458" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
       <c r="A459" s="1">
         <v>457</v>
       </c>
       <c r="B459" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C459">
         <v>0</v>
@@ -12526,13 +13513,16 @@
       <c r="G459">
         <v>0.5166666666666667</v>
       </c>
-    </row>
-    <row r="460" spans="1:7">
+      <c r="H459" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
       <c r="A460" s="1">
         <v>458</v>
       </c>
       <c r="B460" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C460">
         <v>0</v>
@@ -12549,13 +13539,16 @@
       <c r="G460">
         <v>0.4166666666666667</v>
       </c>
-    </row>
-    <row r="461" spans="1:7">
+      <c r="H460" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
       <c r="A461" s="1">
         <v>459</v>
       </c>
       <c r="B461" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C461">
         <v>1</v>
@@ -12572,13 +13565,16 @@
       <c r="G461">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="462" spans="1:7">
+      <c r="H461" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8">
       <c r="A462" s="1">
         <v>460</v>
       </c>
       <c r="B462" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C462">
         <v>1</v>
@@ -12595,13 +13591,16 @@
       <c r="G462">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="463" spans="1:7">
+      <c r="H462" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
       <c r="A463" s="1">
         <v>461</v>
       </c>
       <c r="B463" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C463">
         <v>1</v>
@@ -12618,13 +13617,16 @@
       <c r="G463">
         <v>0.6666666666666665</v>
       </c>
-    </row>
-    <row r="464" spans="1:7">
+      <c r="H463" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
       <c r="A464" s="1">
         <v>462</v>
       </c>
       <c r="B464" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C464">
         <v>0</v>
@@ -12641,13 +13643,16 @@
       <c r="G464">
         <v>0.6333333333333333</v>
       </c>
-    </row>
-    <row r="465" spans="1:7">
+      <c r="H464" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
       <c r="A465" s="1">
         <v>463</v>
       </c>
       <c r="B465" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C465">
         <v>0</v>
@@ -12664,13 +13669,16 @@
       <c r="G465">
         <v>0.5666666666666667</v>
       </c>
-    </row>
-    <row r="466" spans="1:7">
+      <c r="H465" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
       <c r="A466" s="1">
         <v>464</v>
       </c>
       <c r="B466" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C466">
         <v>1</v>
@@ -12687,13 +13695,16 @@
       <c r="G466">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="467" spans="1:7">
+      <c r="H466" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
       <c r="A467" s="1">
         <v>465</v>
       </c>
       <c r="B467" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C467">
         <v>0</v>
@@ -12710,13 +13721,16 @@
       <c r="G467">
         <v>0.4666666666666666</v>
       </c>
-    </row>
-    <row r="468" spans="1:7">
+      <c r="H467" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
       <c r="A468" s="1">
         <v>466</v>
       </c>
       <c r="B468" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C468">
         <v>1</v>
@@ -12733,13 +13747,16 @@
       <c r="G468">
         <v>0.6166666666666667</v>
       </c>
-    </row>
-    <row r="469" spans="1:7">
+      <c r="H468" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
       <c r="A469" s="1">
         <v>467</v>
       </c>
       <c r="B469" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C469">
         <v>0</v>
@@ -12756,13 +13773,16 @@
       <c r="G469">
         <v>0.5833333333333334</v>
       </c>
-    </row>
-    <row r="470" spans="1:7">
+      <c r="H469" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
       <c r="A470" s="1">
         <v>468</v>
       </c>
       <c r="B470" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C470">
         <v>1</v>
@@ -12779,13 +13799,16 @@
       <c r="G470">
         <v>0.5833333333333334</v>
       </c>
-    </row>
-    <row r="471" spans="1:7">
+      <c r="H470" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
       <c r="A471" s="1">
         <v>469</v>
       </c>
       <c r="B471" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -12802,13 +13825,16 @@
       <c r="G471">
         <v>0.6833333333333332</v>
       </c>
-    </row>
-    <row r="472" spans="1:7">
+      <c r="H471" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
       <c r="A472" s="1">
         <v>470</v>
       </c>
       <c r="B472" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C472">
         <v>0</v>
@@ -12825,13 +13851,16 @@
       <c r="G472">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="473" spans="1:7">
+      <c r="H472" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8">
       <c r="A473" s="1">
         <v>471</v>
       </c>
       <c r="B473" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C473">
         <v>0</v>
@@ -12848,13 +13877,16 @@
       <c r="G473">
         <v>0.3666666666666666</v>
       </c>
-    </row>
-    <row r="474" spans="1:7">
+      <c r="H473" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8">
       <c r="A474" s="1">
         <v>472</v>
       </c>
       <c r="B474" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C474">
         <v>0</v>
@@ -12871,13 +13903,16 @@
       <c r="G474">
         <v>0.3166666666666667</v>
       </c>
-    </row>
-    <row r="475" spans="1:7">
+      <c r="H474" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
       <c r="A475" s="1">
         <v>473</v>
       </c>
       <c r="B475" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C475">
         <v>0</v>
@@ -12894,13 +13929,16 @@
       <c r="G475">
         <v>0.1333333333333333</v>
       </c>
-    </row>
-    <row r="476" spans="1:7">
+      <c r="H475" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
       <c r="A476" s="1">
         <v>474</v>
       </c>
       <c r="B476" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C476">
         <v>1</v>
@@ -12917,13 +13955,16 @@
       <c r="G476">
         <v>0.3833333333333334</v>
       </c>
-    </row>
-    <row r="477" spans="1:7">
+      <c r="H476" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8">
       <c r="A477" s="1">
         <v>475</v>
       </c>
       <c r="B477" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -12940,13 +13981,16 @@
       <c r="G477">
         <v>0.2666666666666667</v>
       </c>
-    </row>
-    <row r="478" spans="1:7">
+      <c r="H477" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8">
       <c r="A478" s="1">
         <v>476</v>
       </c>
       <c r="B478" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C478">
         <v>1</v>
@@ -12963,13 +14007,16 @@
       <c r="G478">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="479" spans="1:7">
+      <c r="H478" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8">
       <c r="A479" s="1">
         <v>477</v>
       </c>
       <c r="B479" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C479">
         <v>1</v>
@@ -12986,13 +14033,16 @@
       <c r="G479">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="480" spans="1:7">
+      <c r="H479" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8">
       <c r="A480" s="1">
         <v>478</v>
       </c>
       <c r="B480" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C480">
         <v>0</v>
@@ -13009,13 +14059,16 @@
       <c r="G480">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="481" spans="1:7">
+      <c r="H480" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8">
       <c r="A481" s="1">
         <v>479</v>
       </c>
       <c r="B481" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C481">
         <v>1</v>
@@ -13032,13 +14085,16 @@
       <c r="G481">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="482" spans="1:7">
+      <c r="H481" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
       <c r="A482" s="1">
         <v>480</v>
       </c>
       <c r="B482" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C482">
         <v>1</v>
@@ -13055,13 +14111,16 @@
       <c r="G482">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="483" spans="1:7">
+      <c r="H482" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
       <c r="A483" s="1">
         <v>481</v>
       </c>
       <c r="B483" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C483">
         <v>0</v>
@@ -13078,13 +14137,16 @@
       <c r="G483">
         <v>0.5666666666666667</v>
       </c>
-    </row>
-    <row r="484" spans="1:7">
+      <c r="H483" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
       <c r="A484" s="1">
         <v>482</v>
       </c>
       <c r="B484" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C484">
         <v>1</v>
@@ -13101,13 +14163,16 @@
       <c r="G484">
         <v>0.5666666666666667</v>
       </c>
-    </row>
-    <row r="485" spans="1:7">
+      <c r="H484" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
       <c r="A485" s="1">
         <v>483</v>
       </c>
       <c r="B485" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C485">
         <v>1</v>
@@ -13124,13 +14189,16 @@
       <c r="G485">
         <v>0.5666666666666667</v>
       </c>
-    </row>
-    <row r="486" spans="1:7">
+      <c r="H485" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
       <c r="A486" s="1">
         <v>484</v>
       </c>
       <c r="B486" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C486">
         <v>1</v>
@@ -13147,13 +14215,16 @@
       <c r="G486">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="487" spans="1:7">
+      <c r="H486" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
       <c r="A487" s="1">
         <v>485</v>
       </c>
       <c r="B487" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C487">
         <v>1</v>
@@ -13170,13 +14241,16 @@
       <c r="G487">
         <v>0.6833333333333332</v>
       </c>
-    </row>
-    <row r="488" spans="1:7">
+      <c r="H487" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
       <c r="A488" s="1">
         <v>486</v>
       </c>
       <c r="B488" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C488">
         <v>0</v>
@@ -13193,13 +14267,16 @@
       <c r="G488">
         <v>0.8166666666666668</v>
       </c>
-    </row>
-    <row r="489" spans="1:7">
+      <c r="H488" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8">
       <c r="A489" s="1">
         <v>487</v>
       </c>
       <c r="B489" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -13216,13 +14293,16 @@
       <c r="G489">
         <v>0.7333333333333333</v>
       </c>
-    </row>
-    <row r="490" spans="1:7">
+      <c r="H489" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
       <c r="A490" s="1">
         <v>488</v>
       </c>
       <c r="B490" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C490">
         <v>1</v>
@@ -13239,13 +14319,16 @@
       <c r="G490">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="491" spans="1:7">
+      <c r="H490" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
       <c r="A491" s="1">
         <v>489</v>
       </c>
       <c r="B491" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C491">
         <v>1</v>
@@ -13262,13 +14345,16 @@
       <c r="G491">
         <v>0.6833333333333332</v>
       </c>
-    </row>
-    <row r="492" spans="1:7">
+      <c r="H491" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
       <c r="A492" s="1">
         <v>490</v>
       </c>
       <c r="B492" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C492">
         <v>0</v>
@@ -13285,13 +14371,16 @@
       <c r="G492">
         <v>0.7333333333333333</v>
       </c>
-    </row>
-    <row r="493" spans="1:7">
+      <c r="H492" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
       <c r="A493" s="1">
         <v>491</v>
       </c>
       <c r="B493" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C493">
         <v>1</v>
@@ -13308,13 +14397,16 @@
       <c r="G493">
         <v>0.5166666666666667</v>
       </c>
-    </row>
-    <row r="494" spans="1:7">
+      <c r="H493" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8">
       <c r="A494" s="1">
         <v>492</v>
       </c>
       <c r="B494" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C494">
         <v>1</v>
@@ -13331,13 +14423,16 @@
       <c r="G494">
         <v>0.3333333333333333</v>
       </c>
-    </row>
-    <row r="495" spans="1:7">
+      <c r="H494" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
       <c r="A495" s="1">
         <v>493</v>
       </c>
       <c r="B495" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C495">
         <v>1</v>
@@ -13354,13 +14449,16 @@
       <c r="G495">
         <v>0.5833333333333334</v>
       </c>
-    </row>
-    <row r="496" spans="1:7">
+      <c r="H495" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
       <c r="A496" s="1">
         <v>494</v>
       </c>
       <c r="B496" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C496">
         <v>0</v>
@@ -13377,13 +14475,16 @@
       <c r="G496">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="497" spans="1:7">
+      <c r="H496" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
       <c r="A497" s="1">
         <v>495</v>
       </c>
       <c r="B497" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C497">
         <v>0</v>
@@ -13400,13 +14501,16 @@
       <c r="G497">
         <v>0.5333333333333333</v>
       </c>
-    </row>
-    <row r="498" spans="1:7">
+      <c r="H497" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
       <c r="A498" s="1">
         <v>496</v>
       </c>
       <c r="B498" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C498">
         <v>1</v>
@@ -13423,13 +14527,16 @@
       <c r="G498">
         <v>0.5166666666666667</v>
       </c>
-    </row>
-    <row r="499" spans="1:7">
+      <c r="H498" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
       <c r="A499" s="1">
         <v>497</v>
       </c>
       <c r="B499" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C499">
         <v>1</v>
@@ -13446,13 +14553,16 @@
       <c r="G499">
         <v>0.4666666666666666</v>
       </c>
-    </row>
-    <row r="500" spans="1:7">
+      <c r="H499" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
       <c r="A500" s="1">
         <v>498</v>
       </c>
       <c r="B500" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C500">
         <v>1</v>
@@ -13469,13 +14579,16 @@
       <c r="G500">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="501" spans="1:7">
+      <c r="H500" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8">
       <c r="A501" s="1">
         <v>499</v>
       </c>
       <c r="B501" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -13492,13 +14605,16 @@
       <c r="G501">
         <v>0.5166666666666667</v>
       </c>
-    </row>
-    <row r="502" spans="1:7">
+      <c r="H501" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8">
       <c r="A502" s="1">
         <v>500</v>
       </c>
       <c r="B502" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C502">
         <v>0</v>
@@ -13515,13 +14631,16 @@
       <c r="G502">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="503" spans="1:7">
+      <c r="H502" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8">
       <c r="A503" s="1">
         <v>501</v>
       </c>
       <c r="B503" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C503">
         <v>1</v>
@@ -13538,13 +14657,16 @@
       <c r="G503">
         <v>0.5833333333333334</v>
       </c>
-    </row>
-    <row r="504" spans="1:7">
+      <c r="H503" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
       <c r="A504" s="1">
         <v>502</v>
       </c>
       <c r="B504" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C504">
         <v>1</v>
@@ -13561,13 +14683,16 @@
       <c r="G504">
         <v>0.5833333333333334</v>
       </c>
-    </row>
-    <row r="505" spans="1:7">
+      <c r="H504" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
       <c r="A505" s="1">
         <v>503</v>
       </c>
       <c r="B505" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C505">
         <v>1</v>
@@ -13584,13 +14709,16 @@
       <c r="G505">
         <v>0.6333333333333333</v>
       </c>
-    </row>
-    <row r="506" spans="1:7">
+      <c r="H505" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8">
       <c r="A506" s="1">
         <v>504</v>
       </c>
       <c r="B506" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -13607,13 +14735,16 @@
       <c r="G506">
         <v>0.3833333333333334</v>
       </c>
-    </row>
-    <row r="507" spans="1:7">
+      <c r="H506" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8">
       <c r="A507" s="1">
         <v>505</v>
       </c>
       <c r="B507" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C507">
         <v>0</v>
@@ -13630,13 +14761,16 @@
       <c r="G507">
         <v>0.4666666666666666</v>
       </c>
-    </row>
-    <row r="508" spans="1:7">
+      <c r="H507" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8">
       <c r="A508" s="1">
         <v>506</v>
       </c>
       <c r="B508" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C508">
         <v>1</v>
@@ -13653,13 +14787,16 @@
       <c r="G508">
         <v>0.4833333333333333</v>
       </c>
-    </row>
-    <row r="509" spans="1:7">
+      <c r="H508" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8">
       <c r="A509" s="1">
         <v>507</v>
       </c>
       <c r="B509" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C509">
         <v>0</v>
@@ -13676,13 +14813,16 @@
       <c r="G509">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="510" spans="1:7">
+      <c r="H509" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8">
       <c r="A510" s="1">
         <v>508</v>
       </c>
       <c r="B510" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C510">
         <v>1</v>
@@ -13699,13 +14839,16 @@
       <c r="G510">
         <v>0.3666666666666666</v>
       </c>
-    </row>
-    <row r="511" spans="1:7">
+      <c r="H510" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8">
       <c r="A511" s="1">
         <v>509</v>
       </c>
       <c r="B511" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C511">
         <v>0</v>
@@ -13722,13 +14865,16 @@
       <c r="G511">
         <v>0.7333333333333333</v>
       </c>
-    </row>
-    <row r="512" spans="1:7">
+      <c r="H511" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8">
       <c r="A512" s="1">
         <v>510</v>
       </c>
       <c r="B512" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C512">
         <v>1</v>
@@ -13745,13 +14891,16 @@
       <c r="G512">
         <v>0.5166666666666667</v>
       </c>
-    </row>
-    <row r="513" spans="1:7">
+      <c r="H512" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8">
       <c r="A513" s="1">
         <v>511</v>
       </c>
       <c r="B513" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -13768,13 +14917,16 @@
       <c r="G513">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="514" spans="1:7">
+      <c r="H513" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8">
       <c r="A514" s="1">
         <v>512</v>
       </c>
       <c r="B514" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C514">
         <v>1</v>
@@ -13791,13 +14943,16 @@
       <c r="G514">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="515" spans="1:7">
+      <c r="H514" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8">
       <c r="A515" s="1">
         <v>513</v>
       </c>
       <c r="B515" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -13814,13 +14969,16 @@
       <c r="G515">
         <v>0.6333333333333333</v>
       </c>
-    </row>
-    <row r="516" spans="1:7">
+      <c r="H515" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8">
       <c r="A516" s="1">
         <v>514</v>
       </c>
       <c r="B516" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -13837,13 +14995,16 @@
       <c r="G516">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="517" spans="1:7">
+      <c r="H516" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8">
       <c r="A517" s="1">
         <v>515</v>
       </c>
       <c r="B517" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C517">
         <v>0</v>
@@ -13860,13 +15021,16 @@
       <c r="G517">
         <v>0.2833333333333333</v>
       </c>
-    </row>
-    <row r="518" spans="1:7">
+      <c r="H517" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8">
       <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C518">
         <v>1</v>
@@ -13883,13 +15047,16 @@
       <c r="G518">
         <v>0.2833333333333333</v>
       </c>
-    </row>
-    <row r="519" spans="1:7">
+      <c r="H518" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8">
       <c r="A519" s="1">
         <v>517</v>
       </c>
       <c r="B519" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C519">
         <v>1</v>
@@ -13906,13 +15073,16 @@
       <c r="G519">
         <v>0.5666666666666667</v>
       </c>
-    </row>
-    <row r="520" spans="1:7">
+      <c r="H519" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8">
       <c r="A520" s="1">
         <v>518</v>
       </c>
       <c r="B520" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C520">
         <v>0</v>
@@ -13929,13 +15099,16 @@
       <c r="G520">
         <v>0.4666666666666666</v>
       </c>
-    </row>
-    <row r="521" spans="1:7">
+      <c r="H520" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8">
       <c r="A521" s="1">
         <v>519</v>
       </c>
       <c r="B521" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C521">
         <v>1</v>
@@ -13952,13 +15125,16 @@
       <c r="G521">
         <v>0.4333333333333333</v>
       </c>
-    </row>
-    <row r="522" spans="1:7">
+      <c r="H521" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8">
       <c r="A522" s="1">
         <v>520</v>
       </c>
       <c r="B522" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C522">
         <v>1</v>
@@ -13975,13 +15151,16 @@
       <c r="G522">
         <v>0.6166666666666667</v>
       </c>
-    </row>
-    <row r="523" spans="1:7">
+      <c r="H522" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8">
       <c r="A523" s="1">
         <v>521</v>
       </c>
       <c r="B523" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C523">
         <v>1</v>
@@ -13998,13 +15177,16 @@
       <c r="G523">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="524" spans="1:7">
+      <c r="H523" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8">
       <c r="A524" s="1">
         <v>522</v>
       </c>
       <c r="B524" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C524">
         <v>1</v>
@@ -14021,13 +15203,16 @@
       <c r="G524">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="525" spans="1:7">
+      <c r="H524" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8">
       <c r="A525" s="1">
         <v>523</v>
       </c>
       <c r="B525" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C525">
         <v>1</v>
@@ -14044,13 +15229,16 @@
       <c r="G525">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="526" spans="1:7">
+      <c r="H525" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8">
       <c r="A526" s="1">
         <v>524</v>
       </c>
       <c r="B526" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C526">
         <v>1</v>
@@ -14067,22 +15255,522 @@
       <c r="G526">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="527" spans="1:7">
+      <c r="H526" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8">
       <c r="A527" s="1">
         <v>525</v>
       </c>
       <c r="B527" t="s">
-        <v>531</v>
+        <v>532</v>
+      </c>
+      <c r="C527">
+        <v>0</v>
       </c>
       <c r="D527">
         <v>1</v>
+      </c>
+      <c r="E527">
+        <v>0</v>
       </c>
       <c r="F527">
         <v>0.2833333333333333</v>
       </c>
       <c r="G527">
         <v>0.7166666666666667</v>
+      </c>
+      <c r="H527" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8">
+      <c r="A528" s="1">
+        <v>526</v>
+      </c>
+      <c r="B528" t="s">
+        <v>533</v>
+      </c>
+      <c r="C528">
+        <v>0</v>
+      </c>
+      <c r="D528">
+        <v>1</v>
+      </c>
+      <c r="E528">
+        <v>0</v>
+      </c>
+      <c r="F528">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="G528">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="H528" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8">
+      <c r="A529" s="1">
+        <v>527</v>
+      </c>
+      <c r="B529" t="s">
+        <v>534</v>
+      </c>
+      <c r="C529">
+        <v>1</v>
+      </c>
+      <c r="D529">
+        <v>0</v>
+      </c>
+      <c r="E529">
+        <v>0</v>
+      </c>
+      <c r="F529">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="G529">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="H529" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8">
+      <c r="A530" s="1">
+        <v>528</v>
+      </c>
+      <c r="B530" t="s">
+        <v>535</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+      <c r="D530">
+        <v>1</v>
+      </c>
+      <c r="E530">
+        <v>1</v>
+      </c>
+      <c r="F530">
+        <v>0.4</v>
+      </c>
+      <c r="G530">
+        <v>0.6</v>
+      </c>
+      <c r="H530" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8">
+      <c r="A531" s="1">
+        <v>529</v>
+      </c>
+      <c r="B531" t="s">
+        <v>536</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+      <c r="D531">
+        <v>1</v>
+      </c>
+      <c r="E531">
+        <v>1</v>
+      </c>
+      <c r="F531">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="G531">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="H531" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8">
+      <c r="A532" s="1">
+        <v>530</v>
+      </c>
+      <c r="B532" t="s">
+        <v>537</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+      <c r="D532">
+        <v>1</v>
+      </c>
+      <c r="E532">
+        <v>1</v>
+      </c>
+      <c r="F532">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G532">
+        <v>0.6666666666666665</v>
+      </c>
+      <c r="H532" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8">
+      <c r="A533" s="1">
+        <v>531</v>
+      </c>
+      <c r="B533" t="s">
+        <v>538</v>
+      </c>
+      <c r="C533">
+        <v>0</v>
+      </c>
+      <c r="D533">
+        <v>1</v>
+      </c>
+      <c r="E533">
+        <v>0</v>
+      </c>
+      <c r="F533">
+        <v>0.3166666666666667</v>
+      </c>
+      <c r="G533">
+        <v>0.6833333333333332</v>
+      </c>
+      <c r="H533" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534" t="s">
+        <v>539</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+      <c r="D534">
+        <v>1</v>
+      </c>
+      <c r="E534">
+        <v>1</v>
+      </c>
+      <c r="F534">
+        <v>0.4833333333333333</v>
+      </c>
+      <c r="G534">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="H534" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535" t="s">
+        <v>540</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+      <c r="D535">
+        <v>1</v>
+      </c>
+      <c r="E535">
+        <v>1</v>
+      </c>
+      <c r="F535">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="G535">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="H535" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536" t="s">
+        <v>541</v>
+      </c>
+      <c r="C536">
+        <v>0</v>
+      </c>
+      <c r="D536">
+        <v>1</v>
+      </c>
+      <c r="E536">
+        <v>0</v>
+      </c>
+      <c r="F536">
+        <v>0.25</v>
+      </c>
+      <c r="G536">
+        <v>0.75</v>
+      </c>
+      <c r="H536" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537" t="s">
+        <v>542</v>
+      </c>
+      <c r="C537">
+        <v>0</v>
+      </c>
+      <c r="D537">
+        <v>1</v>
+      </c>
+      <c r="E537">
+        <v>0</v>
+      </c>
+      <c r="F537">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="G537">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="H537" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538" t="s">
+        <v>543</v>
+      </c>
+      <c r="C538">
+        <v>0</v>
+      </c>
+      <c r="D538">
+        <v>0</v>
+      </c>
+      <c r="E538">
+        <v>1</v>
+      </c>
+      <c r="F538">
+        <v>0.6666666666666665</v>
+      </c>
+      <c r="G538">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H538" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539" t="s">
+        <v>544</v>
+      </c>
+      <c r="C539">
+        <v>1</v>
+      </c>
+      <c r="D539">
+        <v>0</v>
+      </c>
+      <c r="E539">
+        <v>0</v>
+      </c>
+      <c r="F539">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="G539">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="H539" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540" t="s">
+        <v>545</v>
+      </c>
+      <c r="C540">
+        <v>0</v>
+      </c>
+      <c r="D540">
+        <v>1</v>
+      </c>
+      <c r="E540">
+        <v>0</v>
+      </c>
+      <c r="F540">
+        <v>0.4833333333333333</v>
+      </c>
+      <c r="G540">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="H540" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541" t="s">
+        <v>546</v>
+      </c>
+      <c r="C541">
+        <v>1</v>
+      </c>
+      <c r="D541">
+        <v>0</v>
+      </c>
+      <c r="E541">
+        <v>0</v>
+      </c>
+      <c r="F541">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="G541">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="H541" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542" t="s">
+        <v>547</v>
+      </c>
+      <c r="C542">
+        <v>0</v>
+      </c>
+      <c r="D542">
+        <v>1</v>
+      </c>
+      <c r="E542">
+        <v>0</v>
+      </c>
+      <c r="F542">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="G542">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H542" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543" t="s">
+        <v>548</v>
+      </c>
+      <c r="C543">
+        <v>0</v>
+      </c>
+      <c r="D543">
+        <v>0</v>
+      </c>
+      <c r="E543">
+        <v>1</v>
+      </c>
+      <c r="F543">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="G543">
+        <v>0.3833333333333334</v>
+      </c>
+      <c r="H543" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544" t="s">
+        <v>549</v>
+      </c>
+      <c r="C544">
+        <v>0</v>
+      </c>
+      <c r="D544">
+        <v>0</v>
+      </c>
+      <c r="E544">
+        <v>1</v>
+      </c>
+      <c r="F544">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="G544">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="H544" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
+      <c r="A545" s="1">
+        <v>543</v>
+      </c>
+      <c r="B545" t="s">
+        <v>550</v>
+      </c>
+      <c r="C545">
+        <v>0</v>
+      </c>
+      <c r="D545">
+        <v>0</v>
+      </c>
+      <c r="E545">
+        <v>1</v>
+      </c>
+      <c r="F545">
+        <v>0.6833333333333332</v>
+      </c>
+      <c r="G545">
+        <v>0.3166666666666667</v>
+      </c>
+      <c r="H545" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
+      <c r="A546" s="1">
+        <v>544</v>
+      </c>
+      <c r="B546" t="s">
+        <v>551</v>
+      </c>
+      <c r="D546">
+        <v>0</v>
+      </c>
+      <c r="F546">
+        <v>0.6666666666666665</v>
+      </c>
+      <c r="G546">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H546" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyVOC.xlsx
+++ b/firebase_data_from_spyVOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="590">
   <si>
     <t>date</t>
   </si>
@@ -1670,6 +1670,24 @@
   </si>
   <si>
     <t>2025-08-01</t>
+  </si>
+  <si>
+    <t>2025-08-04</t>
+  </si>
+  <si>
+    <t>2025-08-05</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>2025-08-07</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
   </si>
   <si>
     <t>50</t>
@@ -2123,7 +2141,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H546"/>
+  <dimension ref="A1:H552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2267,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6318,7 +6336,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6344,7 +6362,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6370,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6396,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6422,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6448,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6474,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6500,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6526,7 +6544,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6552,7 +6570,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6578,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6604,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6630,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6656,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6682,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6708,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6734,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6760,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6786,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6812,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6838,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6864,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6890,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6916,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6942,7 +6960,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6968,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6994,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7020,7 +7038,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7046,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7072,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7098,7 +7116,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7124,7 +7142,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7150,7 +7168,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7176,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7202,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7228,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7254,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7280,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7306,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7332,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7358,7 +7376,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7384,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7410,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7436,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7462,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7488,7 +7506,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7514,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7540,7 +7558,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7566,7 +7584,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7592,7 +7610,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7618,7 +7636,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7644,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7670,7 +7688,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7696,7 +7714,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7722,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7748,7 +7766,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7774,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7800,7 +7818,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7826,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7852,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7878,7 +7896,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7904,7 +7922,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7930,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7956,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7982,7 +8000,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8008,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8034,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8060,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8086,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8112,7 +8130,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8138,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8164,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8190,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8216,7 +8234,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8242,7 +8260,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8268,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8294,7 +8312,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8320,7 +8338,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8346,7 +8364,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8372,7 +8390,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8398,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8424,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8450,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8476,7 +8494,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8502,7 +8520,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8528,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8554,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8580,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8606,7 +8624,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8632,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8658,7 +8676,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8684,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8710,7 +8728,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8736,7 +8754,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8762,7 +8780,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8788,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8814,7 +8832,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8840,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8866,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8892,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8918,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8944,7 +8962,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8970,7 +8988,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8996,7 +9014,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9022,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9048,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9074,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9100,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9126,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9152,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9178,7 +9196,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9204,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9230,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9256,7 +9274,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H295" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9282,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9308,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9334,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9360,7 +9378,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9386,7 +9404,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9412,7 +9430,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9438,7 +9456,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9464,7 +9482,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9490,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9516,7 +9534,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9542,7 +9560,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9568,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9594,7 +9612,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9620,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9646,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9672,7 +9690,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9698,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9724,7 +9742,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9750,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9776,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9802,7 +9820,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9828,7 +9846,7 @@
         <v>1</v>
       </c>
       <c r="H317" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9854,7 +9872,7 @@
         <v>0.5653002550708918</v>
       </c>
       <c r="H318" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9880,7 +9898,7 @@
         <v>0.5200419117488183</v>
       </c>
       <c r="H319" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9906,7 +9924,7 @@
         <v>0.545669087606208</v>
       </c>
       <c r="H320" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9932,7 +9950,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H321" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9958,7 +9976,7 @@
         <v>0.425</v>
       </c>
       <c r="H322" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9984,7 +10002,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H323" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10010,7 +10028,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H324" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10036,7 +10054,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H325" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10062,7 +10080,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H326" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10088,7 +10106,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H327" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10114,7 +10132,7 @@
         <v>0.6583333333333333</v>
       </c>
       <c r="H328" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10140,7 +10158,7 @@
         <v>0.475</v>
       </c>
       <c r="H329" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10166,7 +10184,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H330" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10192,7 +10210,7 @@
         <v>0.45</v>
       </c>
       <c r="H331" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10264,7 +10282,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H334" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10290,7 +10308,7 @@
         <v>0.5</v>
       </c>
       <c r="H335" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10316,7 +10334,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H336" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10342,7 +10360,7 @@
         <v>0.5</v>
       </c>
       <c r="H337" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10368,7 +10386,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H338" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10394,7 +10412,7 @@
         <v>0.3583333333333333</v>
       </c>
       <c r="H339" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10420,7 +10438,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H340" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10446,7 +10464,7 @@
         <v>0.55</v>
       </c>
       <c r="H341" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10472,7 +10490,7 @@
         <v>0.55</v>
       </c>
       <c r="H342" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10498,7 +10516,7 @@
         <v>0.55</v>
       </c>
       <c r="H343" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10524,7 +10542,7 @@
         <v>0.6</v>
       </c>
       <c r="H344" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10550,7 +10568,7 @@
         <v>0.75</v>
       </c>
       <c r="H345" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10576,7 +10594,7 @@
         <v>0.65</v>
       </c>
       <c r="H346" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10602,7 +10620,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H347" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10628,7 +10646,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H348" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10654,7 +10672,7 @@
         <v>0.5</v>
       </c>
       <c r="H349" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10680,7 +10698,7 @@
         <v>0.65</v>
       </c>
       <c r="H350" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10706,7 +10724,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H351" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10732,7 +10750,7 @@
         <v>0.65</v>
       </c>
       <c r="H352" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10758,7 +10776,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H353" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10784,7 +10802,7 @@
         <v>0.65</v>
       </c>
       <c r="H354" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10810,7 +10828,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H355" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10836,7 +10854,7 @@
         <v>0.4</v>
       </c>
       <c r="H356" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10862,7 +10880,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H357" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10888,7 +10906,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H358" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10914,7 +10932,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H359" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10940,7 +10958,7 @@
         <v>0.4</v>
       </c>
       <c r="H360" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -10966,7 +10984,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H361" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10992,7 +11010,7 @@
         <v>0.15</v>
       </c>
       <c r="H362" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11018,7 +11036,7 @@
         <v>0.15</v>
       </c>
       <c r="H363" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11044,7 +11062,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H364" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11070,7 +11088,7 @@
         <v>0.55</v>
       </c>
       <c r="H365" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11096,7 +11114,7 @@
         <v>0.5</v>
       </c>
       <c r="H366" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11122,7 +11140,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H367" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11148,7 +11166,7 @@
         <v>0.4</v>
       </c>
       <c r="H368" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11174,7 +11192,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H369" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11200,7 +11218,7 @@
         <v>0.35</v>
       </c>
       <c r="H370" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11226,7 +11244,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H371" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11252,7 +11270,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H372" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11278,7 +11296,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H373" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11304,7 +11322,7 @@
         <v>0.55</v>
       </c>
       <c r="H374" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11330,7 +11348,7 @@
         <v>0.4</v>
       </c>
       <c r="H375" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11356,7 +11374,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H376" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11382,7 +11400,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H377" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11408,7 +11426,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H378" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11434,7 +11452,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H379" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11460,7 +11478,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H380" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11486,7 +11504,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H381" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11512,7 +11530,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H382" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11538,7 +11556,7 @@
         <v>0.6</v>
       </c>
       <c r="H383" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11564,7 +11582,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H384" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11590,7 +11608,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H385" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11616,7 +11634,7 @@
         <v>0.45</v>
       </c>
       <c r="H386" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11642,7 +11660,7 @@
         <v>0.75</v>
       </c>
       <c r="H387" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11668,7 +11686,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H388" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11694,7 +11712,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H389" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11720,7 +11738,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H390" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11746,7 +11764,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H391" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11772,7 +11790,7 @@
         <v>0.5</v>
       </c>
       <c r="H392" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11798,7 +11816,7 @@
         <v>0.6</v>
       </c>
       <c r="H393" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11824,7 +11842,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H394" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11850,7 +11868,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H395" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11876,7 +11894,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H396" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -11902,7 +11920,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H397" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -11928,7 +11946,7 @@
         <v>0.65</v>
       </c>
       <c r="H398" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -11954,7 +11972,7 @@
         <v>0.5</v>
       </c>
       <c r="H399" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -11980,7 +11998,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H400" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12006,7 +12024,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H401" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12032,7 +12050,7 @@
         <v>0.6</v>
       </c>
       <c r="H402" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12058,7 +12076,7 @@
         <v>0.55</v>
       </c>
       <c r="H403" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12084,7 +12102,7 @@
         <v>0.65</v>
       </c>
       <c r="H404" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12110,7 +12128,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H405" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12136,7 +12154,7 @@
         <v>0.35</v>
       </c>
       <c r="H406" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12162,7 +12180,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H407" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12188,7 +12206,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H408" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12214,7 +12232,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H409" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12240,7 +12258,7 @@
         <v>0.6</v>
       </c>
       <c r="H410" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12266,7 +12284,7 @@
         <v>0.45</v>
       </c>
       <c r="H411" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12292,7 +12310,7 @@
         <v>0.55</v>
       </c>
       <c r="H412" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12318,7 +12336,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H413" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12344,7 +12362,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H414" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12370,7 +12388,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H415" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12396,7 +12414,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H416" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12422,7 +12440,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H417" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12448,7 +12466,7 @@
         <v>0.45</v>
       </c>
       <c r="H418" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12474,7 +12492,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H419" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12500,7 +12518,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H420" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12526,7 +12544,7 @@
         <v>0.55</v>
       </c>
       <c r="H421" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12552,7 +12570,7 @@
         <v>0.55</v>
       </c>
       <c r="H422" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12578,7 +12596,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H423" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12604,7 +12622,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H424" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -12630,7 +12648,7 @@
         <v>0.5</v>
       </c>
       <c r="H425" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12656,7 +12674,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H426" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -12682,7 +12700,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H427" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12708,7 +12726,7 @@
         <v>0.6</v>
       </c>
       <c r="H428" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -12734,7 +12752,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H429" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -12760,7 +12778,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H430" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -12786,7 +12804,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H431" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -12812,7 +12830,7 @@
         <v>0.6</v>
       </c>
       <c r="H432" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -12838,7 +12856,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H433" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -12864,7 +12882,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H434" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -12890,7 +12908,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H435" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -12916,7 +12934,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H436" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -12942,7 +12960,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H437" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -12968,7 +12986,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H438" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -12994,7 +13012,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H439" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13020,7 +13038,7 @@
         <v>0.6</v>
       </c>
       <c r="H440" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13046,7 +13064,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H441" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13072,7 +13090,7 @@
         <v>0.6</v>
       </c>
       <c r="H442" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13098,7 +13116,7 @@
         <v>0.6</v>
       </c>
       <c r="H443" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13124,7 +13142,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H444" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13150,7 +13168,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H445" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13176,7 +13194,7 @@
         <v>0.65</v>
       </c>
       <c r="H446" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13202,7 +13220,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H447" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13228,7 +13246,7 @@
         <v>0.45</v>
       </c>
       <c r="H448" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13254,7 +13272,7 @@
         <v>0.35</v>
       </c>
       <c r="H449" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13280,7 +13298,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H450" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13306,7 +13324,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H451" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13332,7 +13350,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H452" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13358,7 +13376,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H453" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13384,7 +13402,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H454" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13410,7 +13428,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H455" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13436,7 +13454,7 @@
         <v>0.75</v>
       </c>
       <c r="H456" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13462,7 +13480,7 @@
         <v>0.65</v>
       </c>
       <c r="H457" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13488,7 +13506,7 @@
         <v>0.7</v>
       </c>
       <c r="H458" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13514,7 +13532,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H459" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -13540,7 +13558,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H460" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13566,7 +13584,7 @@
         <v>0.55</v>
       </c>
       <c r="H461" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -13592,7 +13610,7 @@
         <v>0.65</v>
       </c>
       <c r="H462" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -13618,7 +13636,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H463" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -13644,7 +13662,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H464" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -13670,7 +13688,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H465" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -13696,7 +13714,7 @@
         <v>0.3</v>
       </c>
       <c r="H466" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -13722,7 +13740,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H467" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -13748,7 +13766,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H468" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -13774,7 +13792,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H469" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -13800,7 +13818,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H470" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -13826,7 +13844,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H471" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -13852,7 +13870,7 @@
         <v>0.5</v>
       </c>
       <c r="H472" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -13878,7 +13896,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H473" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -13904,7 +13922,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H474" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -13930,7 +13948,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="H475" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -13956,7 +13974,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H476" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -13982,7 +14000,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H477" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14008,7 +14026,7 @@
         <v>0.35</v>
       </c>
       <c r="H478" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14034,7 +14052,7 @@
         <v>0.4</v>
       </c>
       <c r="H479" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14060,7 +14078,7 @@
         <v>0.6</v>
       </c>
       <c r="H480" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14086,7 +14104,7 @@
         <v>0.55</v>
       </c>
       <c r="H481" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14112,7 +14130,7 @@
         <v>0.65</v>
       </c>
       <c r="H482" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14138,7 +14156,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H483" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14164,7 +14182,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H484" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14190,7 +14208,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H485" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14216,7 +14234,7 @@
         <v>0.6</v>
       </c>
       <c r="H486" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14242,7 +14260,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H487" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14268,7 +14286,7 @@
         <v>0.8166666666666668</v>
       </c>
       <c r="H488" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14294,7 +14312,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H489" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14320,7 +14338,7 @@
         <v>0.75</v>
       </c>
       <c r="H490" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14346,7 +14364,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H491" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14372,7 +14390,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H492" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14398,7 +14416,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H493" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14424,7 +14442,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H494" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14450,7 +14468,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H495" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14476,7 +14494,7 @@
         <v>0.7</v>
       </c>
       <c r="H496" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14502,7 +14520,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H497" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -14528,7 +14546,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H498" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -14554,7 +14572,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H499" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -14580,7 +14598,7 @@
         <v>0.4</v>
       </c>
       <c r="H500" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -14606,7 +14624,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H501" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -14632,7 +14650,7 @@
         <v>0.6</v>
       </c>
       <c r="H502" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -14658,7 +14676,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H503" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -14684,7 +14702,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H504" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -14710,7 +14728,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H505" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -14736,7 +14754,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H506" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -14762,7 +14780,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H507" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -14788,7 +14806,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H508" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -14814,7 +14832,7 @@
         <v>0.6</v>
       </c>
       <c r="H509" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -14840,7 +14858,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H510" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -14866,7 +14884,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H511" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -14892,7 +14910,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H512" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -14918,7 +14936,7 @@
         <v>0.6</v>
       </c>
       <c r="H513" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -14944,7 +14962,7 @@
         <v>0.65</v>
       </c>
       <c r="H514" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -14970,7 +14988,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H515" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -14996,7 +15014,7 @@
         <v>0.55</v>
       </c>
       <c r="H516" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15022,7 +15040,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H517" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15048,7 +15066,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H518" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15074,7 +15092,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H519" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15100,7 +15118,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H520" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15126,7 +15144,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H521" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15152,7 +15170,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H522" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15178,7 +15196,7 @@
         <v>0.55</v>
       </c>
       <c r="H523" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15204,7 +15222,7 @@
         <v>0.6</v>
       </c>
       <c r="H524" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15230,7 +15248,7 @@
         <v>0.45</v>
       </c>
       <c r="H525" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15256,7 +15274,7 @@
         <v>0.65</v>
       </c>
       <c r="H526" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15282,7 +15300,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H527" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15308,7 +15326,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H528" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15334,7 +15352,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H529" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15360,7 +15378,7 @@
         <v>0.6</v>
       </c>
       <c r="H530" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15386,7 +15404,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H531" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15412,7 +15430,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H532" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15438,7 +15456,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H533" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -15464,7 +15482,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H534" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -15490,7 +15508,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H535" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -15516,7 +15534,7 @@
         <v>0.75</v>
       </c>
       <c r="H536" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -15542,7 +15560,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H537" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -15568,7 +15586,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H538" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -15594,7 +15612,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H539" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -15620,7 +15638,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H540" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -15646,7 +15664,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H541" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -15672,7 +15690,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H542" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -15698,7 +15716,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H543" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -15724,7 +15742,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H544" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -15750,7 +15768,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H545" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -15760,8 +15778,14 @@
       <c r="B546" t="s">
         <v>551</v>
       </c>
+      <c r="C546">
+        <v>0</v>
+      </c>
       <c r="D546">
         <v>0</v>
+      </c>
+      <c r="E546">
+        <v>1</v>
       </c>
       <c r="F546">
         <v>0.6666666666666665</v>
@@ -15770,7 +15794,157 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H546" t="s">
-        <v>578</v>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547" t="s">
+        <v>552</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+      <c r="D547">
+        <v>0</v>
+      </c>
+      <c r="E547">
+        <v>0</v>
+      </c>
+      <c r="F547">
+        <v>0.7</v>
+      </c>
+      <c r="G547">
+        <v>0.3</v>
+      </c>
+      <c r="H547" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8">
+      <c r="A548" s="1">
+        <v>546</v>
+      </c>
+      <c r="B548" t="s">
+        <v>553</v>
+      </c>
+      <c r="C548">
+        <v>0</v>
+      </c>
+      <c r="D548">
+        <v>0</v>
+      </c>
+      <c r="E548">
+        <v>1</v>
+      </c>
+      <c r="F548">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="G548">
+        <v>0.2833333333333333</v>
+      </c>
+      <c r="H548" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8">
+      <c r="A549" s="1">
+        <v>547</v>
+      </c>
+      <c r="B549" t="s">
+        <v>554</v>
+      </c>
+      <c r="C549">
+        <v>1</v>
+      </c>
+      <c r="D549">
+        <v>0</v>
+      </c>
+      <c r="E549">
+        <v>0</v>
+      </c>
+      <c r="F549">
+        <v>0.6</v>
+      </c>
+      <c r="G549">
+        <v>0.4</v>
+      </c>
+      <c r="H549" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8">
+      <c r="A550" s="1">
+        <v>548</v>
+      </c>
+      <c r="B550" t="s">
+        <v>555</v>
+      </c>
+      <c r="C550">
+        <v>0</v>
+      </c>
+      <c r="D550">
+        <v>0</v>
+      </c>
+      <c r="E550">
+        <v>1</v>
+      </c>
+      <c r="F550">
+        <v>0.6</v>
+      </c>
+      <c r="G550">
+        <v>0.4</v>
+      </c>
+      <c r="H550" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8">
+      <c r="A551" s="1">
+        <v>549</v>
+      </c>
+      <c r="B551" t="s">
+        <v>556</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+      <c r="D551">
+        <v>0</v>
+      </c>
+      <c r="E551">
+        <v>0</v>
+      </c>
+      <c r="F551">
+        <v>0.55</v>
+      </c>
+      <c r="G551">
+        <v>0.45</v>
+      </c>
+      <c r="H551" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8">
+      <c r="A552" s="1">
+        <v>550</v>
+      </c>
+      <c r="B552" t="s">
+        <v>557</v>
+      </c>
+      <c r="D552">
+        <v>0</v>
+      </c>
+      <c r="F552">
+        <v>0.6</v>
+      </c>
+      <c r="G552">
+        <v>0.4</v>
+      </c>
+      <c r="H552" t="s">
+        <v>577</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyVOC.xlsx
+++ b/firebase_data_from_spyVOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="594">
   <si>
     <t>date</t>
   </si>
@@ -1690,6 +1690,15 @@
     <t>2025-08-11</t>
   </si>
   <si>
+    <t>2025-08-12</t>
+  </si>
+  <si>
+    <t>2025-08-13</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
+  </si>
+  <si>
     <t>50</t>
   </si>
   <si>
@@ -1784,6 +1793,9 @@
   </si>
   <si>
     <t>81.67</t>
+  </si>
+  <si>
+    <t>80.00</t>
   </si>
 </sst>
 </file>
@@ -2141,7 +2153,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H552"/>
+  <dimension ref="A1:H555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2285,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6336,7 +6348,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6362,7 +6374,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6388,7 +6400,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6414,7 +6426,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6440,7 +6452,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6466,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6492,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6518,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6544,7 +6556,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6570,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6596,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6622,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6648,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6674,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6700,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6726,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6752,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6778,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6804,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6830,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6856,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6882,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6908,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6934,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6960,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6986,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7012,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7038,7 +7050,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7064,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7090,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7116,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7142,7 +7154,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7168,7 +7180,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7194,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7220,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7246,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7272,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7298,7 +7310,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7324,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7350,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7376,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7402,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7428,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7454,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7480,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7506,7 +7518,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7532,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7558,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7584,7 +7596,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7610,7 +7622,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7636,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7662,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7688,7 +7700,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7714,7 +7726,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7740,7 +7752,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7766,7 +7778,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7792,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7818,7 +7830,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7844,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7870,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7896,7 +7908,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7922,7 +7934,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7948,7 +7960,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7974,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8000,7 +8012,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8026,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8052,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8078,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8104,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8130,7 +8142,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8156,7 +8168,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8182,7 +8194,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8208,7 +8220,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8234,7 +8246,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8260,7 +8272,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8286,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8312,7 +8324,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8338,7 +8350,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8364,7 +8376,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8390,7 +8402,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8416,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8442,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8468,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8494,7 +8506,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8520,7 +8532,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8546,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8572,7 +8584,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8598,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8624,7 +8636,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8650,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8676,7 +8688,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8702,7 +8714,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8728,7 +8740,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8754,7 +8766,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8780,7 +8792,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8806,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8832,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8858,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8884,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8910,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8936,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8962,7 +8974,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8988,7 +9000,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9014,7 +9026,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9040,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9066,7 +9078,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9092,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9118,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9144,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9170,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9196,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9222,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9248,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9274,7 +9286,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H295" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9300,7 +9312,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9326,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9352,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9378,7 +9390,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9404,7 +9416,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9430,7 +9442,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9456,7 +9468,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9482,7 +9494,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9508,7 +9520,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9534,7 +9546,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9560,7 +9572,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9586,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9612,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9638,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9664,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9690,7 +9702,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9716,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9742,7 +9754,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9768,7 +9780,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9794,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9820,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9846,7 +9858,7 @@
         <v>1</v>
       </c>
       <c r="H317" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9872,7 +9884,7 @@
         <v>0.5653002550708918</v>
       </c>
       <c r="H318" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9898,7 +9910,7 @@
         <v>0.5200419117488183</v>
       </c>
       <c r="H319" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9924,7 +9936,7 @@
         <v>0.545669087606208</v>
       </c>
       <c r="H320" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9950,7 +9962,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H321" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9976,7 +9988,7 @@
         <v>0.425</v>
       </c>
       <c r="H322" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10002,7 +10014,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H323" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10028,7 +10040,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H324" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10054,7 +10066,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H325" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10080,7 +10092,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H326" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10106,7 +10118,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H327" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10132,7 +10144,7 @@
         <v>0.6583333333333333</v>
       </c>
       <c r="H328" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10158,7 +10170,7 @@
         <v>0.475</v>
       </c>
       <c r="H329" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10184,7 +10196,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H330" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10210,7 +10222,7 @@
         <v>0.45</v>
       </c>
       <c r="H331" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10282,7 +10294,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H334" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10308,7 +10320,7 @@
         <v>0.5</v>
       </c>
       <c r="H335" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10334,7 +10346,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H336" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10360,7 +10372,7 @@
         <v>0.5</v>
       </c>
       <c r="H337" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10386,7 +10398,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H338" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10412,7 +10424,7 @@
         <v>0.3583333333333333</v>
       </c>
       <c r="H339" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10438,7 +10450,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H340" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10464,7 +10476,7 @@
         <v>0.55</v>
       </c>
       <c r="H341" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10490,7 +10502,7 @@
         <v>0.55</v>
       </c>
       <c r="H342" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10516,7 +10528,7 @@
         <v>0.55</v>
       </c>
       <c r="H343" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10542,7 +10554,7 @@
         <v>0.6</v>
       </c>
       <c r="H344" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10568,7 +10580,7 @@
         <v>0.75</v>
       </c>
       <c r="H345" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10594,7 +10606,7 @@
         <v>0.65</v>
       </c>
       <c r="H346" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10620,7 +10632,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H347" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10646,7 +10658,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H348" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10672,7 +10684,7 @@
         <v>0.5</v>
       </c>
       <c r="H349" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10698,7 +10710,7 @@
         <v>0.65</v>
       </c>
       <c r="H350" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10724,7 +10736,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H351" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10750,7 +10762,7 @@
         <v>0.65</v>
       </c>
       <c r="H352" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10776,7 +10788,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H353" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10802,7 +10814,7 @@
         <v>0.65</v>
       </c>
       <c r="H354" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10828,7 +10840,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H355" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10854,7 +10866,7 @@
         <v>0.4</v>
       </c>
       <c r="H356" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10880,7 +10892,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H357" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10906,7 +10918,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H358" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10932,7 +10944,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H359" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10958,7 +10970,7 @@
         <v>0.4</v>
       </c>
       <c r="H360" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -10984,7 +10996,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H361" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11010,7 +11022,7 @@
         <v>0.15</v>
       </c>
       <c r="H362" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11036,7 +11048,7 @@
         <v>0.15</v>
       </c>
       <c r="H363" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11062,7 +11074,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H364" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11088,7 +11100,7 @@
         <v>0.55</v>
       </c>
       <c r="H365" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11114,7 +11126,7 @@
         <v>0.5</v>
       </c>
       <c r="H366" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11140,7 +11152,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H367" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11166,7 +11178,7 @@
         <v>0.4</v>
       </c>
       <c r="H368" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11192,7 +11204,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H369" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11218,7 +11230,7 @@
         <v>0.35</v>
       </c>
       <c r="H370" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11244,7 +11256,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H371" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11270,7 +11282,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H372" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11296,7 +11308,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H373" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11322,7 +11334,7 @@
         <v>0.55</v>
       </c>
       <c r="H374" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11348,7 +11360,7 @@
         <v>0.4</v>
       </c>
       <c r="H375" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11374,7 +11386,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H376" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11400,7 +11412,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H377" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11426,7 +11438,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H378" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11452,7 +11464,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H379" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11478,7 +11490,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H380" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11504,7 +11516,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H381" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11530,7 +11542,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H382" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11556,7 +11568,7 @@
         <v>0.6</v>
       </c>
       <c r="H383" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11582,7 +11594,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H384" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11608,7 +11620,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H385" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11634,7 +11646,7 @@
         <v>0.45</v>
       </c>
       <c r="H386" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11660,7 +11672,7 @@
         <v>0.75</v>
       </c>
       <c r="H387" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11686,7 +11698,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H388" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11712,7 +11724,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H389" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11738,7 +11750,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H390" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11764,7 +11776,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H391" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11790,7 +11802,7 @@
         <v>0.5</v>
       </c>
       <c r="H392" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11816,7 +11828,7 @@
         <v>0.6</v>
       </c>
       <c r="H393" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11842,7 +11854,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H394" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11868,7 +11880,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H395" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11894,7 +11906,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H396" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -11920,7 +11932,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H397" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -11946,7 +11958,7 @@
         <v>0.65</v>
       </c>
       <c r="H398" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -11972,7 +11984,7 @@
         <v>0.5</v>
       </c>
       <c r="H399" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -11998,7 +12010,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H400" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12024,7 +12036,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H401" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12050,7 +12062,7 @@
         <v>0.6</v>
       </c>
       <c r="H402" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12076,7 +12088,7 @@
         <v>0.55</v>
       </c>
       <c r="H403" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12102,7 +12114,7 @@
         <v>0.65</v>
       </c>
       <c r="H404" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12128,7 +12140,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H405" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12154,7 +12166,7 @@
         <v>0.35</v>
       </c>
       <c r="H406" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12180,7 +12192,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H407" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12206,7 +12218,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H408" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12232,7 +12244,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H409" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12258,7 +12270,7 @@
         <v>0.6</v>
       </c>
       <c r="H410" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12284,7 +12296,7 @@
         <v>0.45</v>
       </c>
       <c r="H411" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12310,7 +12322,7 @@
         <v>0.55</v>
       </c>
       <c r="H412" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12336,7 +12348,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H413" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12362,7 +12374,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H414" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12388,7 +12400,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H415" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12414,7 +12426,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H416" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12440,7 +12452,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H417" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12466,7 +12478,7 @@
         <v>0.45</v>
       </c>
       <c r="H418" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12492,7 +12504,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H419" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12518,7 +12530,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H420" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12544,7 +12556,7 @@
         <v>0.55</v>
       </c>
       <c r="H421" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12570,7 +12582,7 @@
         <v>0.55</v>
       </c>
       <c r="H422" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12596,7 +12608,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H423" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12622,7 +12634,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H424" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -12648,7 +12660,7 @@
         <v>0.5</v>
       </c>
       <c r="H425" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12674,7 +12686,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H426" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -12700,7 +12712,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H427" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12726,7 +12738,7 @@
         <v>0.6</v>
       </c>
       <c r="H428" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -12752,7 +12764,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H429" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -12778,7 +12790,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H430" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -12804,7 +12816,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H431" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -12830,7 +12842,7 @@
         <v>0.6</v>
       </c>
       <c r="H432" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -12856,7 +12868,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H433" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -12882,7 +12894,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H434" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -12908,7 +12920,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H435" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -12934,7 +12946,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H436" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -12960,7 +12972,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H437" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -12986,7 +12998,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H438" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13012,7 +13024,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H439" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13038,7 +13050,7 @@
         <v>0.6</v>
       </c>
       <c r="H440" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13064,7 +13076,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H441" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13090,7 +13102,7 @@
         <v>0.6</v>
       </c>
       <c r="H442" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13116,7 +13128,7 @@
         <v>0.6</v>
       </c>
       <c r="H443" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13142,7 +13154,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H444" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13168,7 +13180,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H445" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13194,7 +13206,7 @@
         <v>0.65</v>
       </c>
       <c r="H446" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13220,7 +13232,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H447" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13246,7 +13258,7 @@
         <v>0.45</v>
       </c>
       <c r="H448" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13272,7 +13284,7 @@
         <v>0.35</v>
       </c>
       <c r="H449" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13298,7 +13310,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H450" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13324,7 +13336,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H451" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13350,7 +13362,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H452" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13376,7 +13388,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H453" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13402,7 +13414,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H454" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13428,7 +13440,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H455" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13454,7 +13466,7 @@
         <v>0.75</v>
       </c>
       <c r="H456" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13480,7 +13492,7 @@
         <v>0.65</v>
       </c>
       <c r="H457" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13506,7 +13518,7 @@
         <v>0.7</v>
       </c>
       <c r="H458" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13532,7 +13544,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H459" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -13558,7 +13570,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H460" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13584,7 +13596,7 @@
         <v>0.55</v>
       </c>
       <c r="H461" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -13610,7 +13622,7 @@
         <v>0.65</v>
       </c>
       <c r="H462" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -13636,7 +13648,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H463" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -13662,7 +13674,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H464" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -13688,7 +13700,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H465" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -13714,7 +13726,7 @@
         <v>0.3</v>
       </c>
       <c r="H466" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -13740,7 +13752,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H467" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -13766,7 +13778,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H468" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -13792,7 +13804,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H469" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -13818,7 +13830,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H470" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -13844,7 +13856,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H471" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -13870,7 +13882,7 @@
         <v>0.5</v>
       </c>
       <c r="H472" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -13896,7 +13908,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H473" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -13922,7 +13934,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H474" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -13948,7 +13960,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="H475" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -13974,7 +13986,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H476" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14000,7 +14012,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H477" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14026,7 +14038,7 @@
         <v>0.35</v>
       </c>
       <c r="H478" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14052,7 +14064,7 @@
         <v>0.4</v>
       </c>
       <c r="H479" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14078,7 +14090,7 @@
         <v>0.6</v>
       </c>
       <c r="H480" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14104,7 +14116,7 @@
         <v>0.55</v>
       </c>
       <c r="H481" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14130,7 +14142,7 @@
         <v>0.65</v>
       </c>
       <c r="H482" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14156,7 +14168,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H483" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14182,7 +14194,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H484" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14208,7 +14220,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H485" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14234,7 +14246,7 @@
         <v>0.6</v>
       </c>
       <c r="H486" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14260,7 +14272,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H487" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14286,7 +14298,7 @@
         <v>0.8166666666666668</v>
       </c>
       <c r="H488" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14312,7 +14324,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H489" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14338,7 +14350,7 @@
         <v>0.75</v>
       </c>
       <c r="H490" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14364,7 +14376,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H491" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14390,7 +14402,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H492" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14416,7 +14428,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H493" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14442,7 +14454,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H494" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14468,7 +14480,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H495" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14494,7 +14506,7 @@
         <v>0.7</v>
       </c>
       <c r="H496" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14520,7 +14532,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H497" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -14546,7 +14558,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H498" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -14572,7 +14584,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H499" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -14598,7 +14610,7 @@
         <v>0.4</v>
       </c>
       <c r="H500" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -14624,7 +14636,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H501" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -14650,7 +14662,7 @@
         <v>0.6</v>
       </c>
       <c r="H502" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -14676,7 +14688,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H503" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -14702,7 +14714,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H504" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -14728,7 +14740,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H505" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -14754,7 +14766,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H506" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -14780,7 +14792,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H507" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -14806,7 +14818,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H508" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -14832,7 +14844,7 @@
         <v>0.6</v>
       </c>
       <c r="H509" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -14858,7 +14870,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H510" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -14884,7 +14896,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H511" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -14910,7 +14922,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H512" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -14936,7 +14948,7 @@
         <v>0.6</v>
       </c>
       <c r="H513" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -14962,7 +14974,7 @@
         <v>0.65</v>
       </c>
       <c r="H514" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -14988,7 +15000,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H515" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15014,7 +15026,7 @@
         <v>0.55</v>
       </c>
       <c r="H516" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15040,7 +15052,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H517" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15066,7 +15078,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H518" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15092,7 +15104,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H519" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15118,7 +15130,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H520" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15144,7 +15156,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H521" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15170,7 +15182,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H522" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15196,7 +15208,7 @@
         <v>0.55</v>
       </c>
       <c r="H523" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15222,7 +15234,7 @@
         <v>0.6</v>
       </c>
       <c r="H524" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15248,7 +15260,7 @@
         <v>0.45</v>
       </c>
       <c r="H525" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15274,7 +15286,7 @@
         <v>0.65</v>
       </c>
       <c r="H526" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15300,7 +15312,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H527" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15326,7 +15338,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H528" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15352,7 +15364,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H529" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15378,7 +15390,7 @@
         <v>0.6</v>
       </c>
       <c r="H530" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15404,7 +15416,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H531" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15430,7 +15442,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H532" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15456,7 +15468,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H533" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -15482,7 +15494,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H534" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -15508,7 +15520,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H535" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -15534,7 +15546,7 @@
         <v>0.75</v>
       </c>
       <c r="H536" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -15560,7 +15572,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H537" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -15586,7 +15598,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H538" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -15612,7 +15624,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H539" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -15638,7 +15650,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H540" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -15664,7 +15676,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H541" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -15690,7 +15702,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H542" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -15716,7 +15728,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H543" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -15742,7 +15754,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H544" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -15768,7 +15780,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H545" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -15794,7 +15806,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H546" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -15820,7 +15832,7 @@
         <v>0.3</v>
       </c>
       <c r="H547" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -15846,7 +15858,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H548" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -15872,7 +15884,7 @@
         <v>0.4</v>
       </c>
       <c r="H549" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -15898,7 +15910,7 @@
         <v>0.4</v>
       </c>
       <c r="H550" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -15924,7 +15936,7 @@
         <v>0.45</v>
       </c>
       <c r="H551" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -15934,8 +15946,14 @@
       <c r="B552" t="s">
         <v>557</v>
       </c>
+      <c r="C552">
+        <v>0</v>
+      </c>
       <c r="D552">
         <v>0</v>
+      </c>
+      <c r="E552">
+        <v>1</v>
       </c>
       <c r="F552">
         <v>0.6</v>
@@ -15944,7 +15962,79 @@
         <v>0.4</v>
       </c>
       <c r="H552" t="s">
-        <v>577</v>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8">
+      <c r="A553" s="1">
+        <v>551</v>
+      </c>
+      <c r="B553" t="s">
+        <v>558</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+      <c r="D553">
+        <v>0</v>
+      </c>
+      <c r="E553">
+        <v>0</v>
+      </c>
+      <c r="F553">
+        <v>0.6</v>
+      </c>
+      <c r="G553">
+        <v>0.4</v>
+      </c>
+      <c r="H553" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8">
+      <c r="A554" s="1">
+        <v>552</v>
+      </c>
+      <c r="B554" t="s">
+        <v>559</v>
+      </c>
+      <c r="C554">
+        <v>0</v>
+      </c>
+      <c r="D554">
+        <v>0</v>
+      </c>
+      <c r="E554">
+        <v>1</v>
+      </c>
+      <c r="F554">
+        <v>0.8</v>
+      </c>
+      <c r="G554">
+        <v>0.2</v>
+      </c>
+      <c r="H554" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8">
+      <c r="A555" s="1">
+        <v>553</v>
+      </c>
+      <c r="B555" t="s">
+        <v>560</v>
+      </c>
+      <c r="D555">
+        <v>0</v>
+      </c>
+      <c r="F555">
+        <v>0.75</v>
+      </c>
+      <c r="G555">
+        <v>0.25</v>
+      </c>
+      <c r="H555" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyVOC.xlsx
+++ b/firebase_data_from_spyVOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="596">
   <si>
     <t>date</t>
   </si>
@@ -1697,6 +1697,12 @@
   </si>
   <si>
     <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
   </si>
   <si>
     <t>50</t>
@@ -2153,7 +2159,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H555"/>
+  <dimension ref="A1:H557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2297,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6348,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6374,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6400,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6426,7 +6432,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6452,7 +6458,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6478,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6504,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6530,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6556,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6582,7 +6588,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6608,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6634,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6660,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6686,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6712,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6738,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6764,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6790,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6816,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6842,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6868,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6894,7 +6900,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6920,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6946,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6972,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6998,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7024,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7050,7 +7056,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7076,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7102,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7128,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7154,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7180,7 +7186,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7206,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7232,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7258,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7284,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7310,7 +7316,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7336,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7362,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7388,7 +7394,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7414,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7440,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7466,7 +7472,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7492,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7518,7 +7524,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7544,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7570,7 +7576,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7596,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7622,7 +7628,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7648,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7674,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7700,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7726,7 +7732,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7752,7 +7758,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7778,7 +7784,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7804,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7830,7 +7836,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7856,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7882,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7908,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7934,7 +7940,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7960,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7986,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8012,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8038,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8064,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8090,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8116,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8142,7 +8148,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8168,7 +8174,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8194,7 +8200,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8220,7 +8226,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8246,7 +8252,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8272,7 +8278,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8298,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8324,7 +8330,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8350,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8376,7 +8382,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8402,7 +8408,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8428,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8454,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8480,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8506,7 +8512,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8532,7 +8538,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8558,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8584,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8610,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8636,7 +8642,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8662,7 +8668,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8688,7 +8694,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8714,7 +8720,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8740,7 +8746,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8766,7 +8772,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8792,7 +8798,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8818,7 +8824,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8844,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8870,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8896,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8922,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8948,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8974,7 +8980,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9000,7 +9006,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9026,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9052,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9078,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9104,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9130,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9156,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9182,7 +9188,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9208,7 +9214,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9234,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9260,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9286,7 +9292,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H295" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9312,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9338,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9364,7 +9370,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9390,7 +9396,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9416,7 +9422,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9442,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9468,7 +9474,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9494,7 +9500,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9520,7 +9526,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9546,7 +9552,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9572,7 +9578,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9598,7 +9604,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9624,7 +9630,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9650,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9676,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9702,7 +9708,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9728,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9754,7 +9760,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9780,7 +9786,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9806,7 +9812,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9832,7 +9838,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9858,7 +9864,7 @@
         <v>1</v>
       </c>
       <c r="H317" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9884,7 +9890,7 @@
         <v>0.5653002550708918</v>
       </c>
       <c r="H318" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9910,7 +9916,7 @@
         <v>0.5200419117488183</v>
       </c>
       <c r="H319" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9936,7 +9942,7 @@
         <v>0.545669087606208</v>
       </c>
       <c r="H320" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9962,7 +9968,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H321" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9988,7 +9994,7 @@
         <v>0.425</v>
       </c>
       <c r="H322" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10014,7 +10020,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H323" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10040,7 +10046,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H324" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10066,7 +10072,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H325" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10092,7 +10098,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H326" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10118,7 +10124,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H327" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10144,7 +10150,7 @@
         <v>0.6583333333333333</v>
       </c>
       <c r="H328" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10170,7 +10176,7 @@
         <v>0.475</v>
       </c>
       <c r="H329" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10196,7 +10202,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H330" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10222,7 +10228,7 @@
         <v>0.45</v>
       </c>
       <c r="H331" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10294,7 +10300,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H334" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10320,7 +10326,7 @@
         <v>0.5</v>
       </c>
       <c r="H335" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10346,7 +10352,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H336" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10372,7 +10378,7 @@
         <v>0.5</v>
       </c>
       <c r="H337" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10398,7 +10404,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H338" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10424,7 +10430,7 @@
         <v>0.3583333333333333</v>
       </c>
       <c r="H339" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10450,7 +10456,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H340" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10476,7 +10482,7 @@
         <v>0.55</v>
       </c>
       <c r="H341" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10502,7 +10508,7 @@
         <v>0.55</v>
       </c>
       <c r="H342" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10528,7 +10534,7 @@
         <v>0.55</v>
       </c>
       <c r="H343" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10554,7 +10560,7 @@
         <v>0.6</v>
       </c>
       <c r="H344" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10580,7 +10586,7 @@
         <v>0.75</v>
       </c>
       <c r="H345" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10606,7 +10612,7 @@
         <v>0.65</v>
       </c>
       <c r="H346" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10632,7 +10638,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H347" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10658,7 +10664,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H348" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10684,7 +10690,7 @@
         <v>0.5</v>
       </c>
       <c r="H349" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10710,7 +10716,7 @@
         <v>0.65</v>
       </c>
       <c r="H350" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10736,7 +10742,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H351" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10762,7 +10768,7 @@
         <v>0.65</v>
       </c>
       <c r="H352" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10788,7 +10794,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H353" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10814,7 +10820,7 @@
         <v>0.65</v>
       </c>
       <c r="H354" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10840,7 +10846,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H355" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10866,7 +10872,7 @@
         <v>0.4</v>
       </c>
       <c r="H356" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10892,7 +10898,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H357" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10918,7 +10924,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H358" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10944,7 +10950,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H359" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10970,7 +10976,7 @@
         <v>0.4</v>
       </c>
       <c r="H360" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -10996,7 +11002,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H361" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11022,7 +11028,7 @@
         <v>0.15</v>
       </c>
       <c r="H362" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11048,7 +11054,7 @@
         <v>0.15</v>
       </c>
       <c r="H363" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11074,7 +11080,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H364" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11100,7 +11106,7 @@
         <v>0.55</v>
       </c>
       <c r="H365" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11126,7 +11132,7 @@
         <v>0.5</v>
       </c>
       <c r="H366" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11152,7 +11158,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H367" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11178,7 +11184,7 @@
         <v>0.4</v>
       </c>
       <c r="H368" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11204,7 +11210,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H369" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11230,7 +11236,7 @@
         <v>0.35</v>
       </c>
       <c r="H370" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11256,7 +11262,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H371" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11282,7 +11288,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H372" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11308,7 +11314,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H373" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11334,7 +11340,7 @@
         <v>0.55</v>
       </c>
       <c r="H374" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11360,7 +11366,7 @@
         <v>0.4</v>
       </c>
       <c r="H375" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11386,7 +11392,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H376" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11412,7 +11418,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H377" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11438,7 +11444,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H378" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11464,7 +11470,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H379" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11490,7 +11496,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H380" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11516,7 +11522,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H381" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11542,7 +11548,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H382" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11568,7 +11574,7 @@
         <v>0.6</v>
       </c>
       <c r="H383" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11594,7 +11600,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H384" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11620,7 +11626,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H385" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11646,7 +11652,7 @@
         <v>0.45</v>
       </c>
       <c r="H386" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11672,7 +11678,7 @@
         <v>0.75</v>
       </c>
       <c r="H387" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11698,7 +11704,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H388" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11724,7 +11730,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H389" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11750,7 +11756,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H390" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11776,7 +11782,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H391" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11802,7 +11808,7 @@
         <v>0.5</v>
       </c>
       <c r="H392" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11828,7 +11834,7 @@
         <v>0.6</v>
       </c>
       <c r="H393" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11854,7 +11860,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H394" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11880,7 +11886,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H395" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11906,7 +11912,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H396" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -11932,7 +11938,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H397" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -11958,7 +11964,7 @@
         <v>0.65</v>
       </c>
       <c r="H398" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -11984,7 +11990,7 @@
         <v>0.5</v>
       </c>
       <c r="H399" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12010,7 +12016,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H400" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12036,7 +12042,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H401" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12062,7 +12068,7 @@
         <v>0.6</v>
       </c>
       <c r="H402" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12088,7 +12094,7 @@
         <v>0.55</v>
       </c>
       <c r="H403" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12114,7 +12120,7 @@
         <v>0.65</v>
       </c>
       <c r="H404" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12140,7 +12146,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H405" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12166,7 +12172,7 @@
         <v>0.35</v>
       </c>
       <c r="H406" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12192,7 +12198,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H407" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12218,7 +12224,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H408" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12244,7 +12250,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H409" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12270,7 +12276,7 @@
         <v>0.6</v>
       </c>
       <c r="H410" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12296,7 +12302,7 @@
         <v>0.45</v>
       </c>
       <c r="H411" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12322,7 +12328,7 @@
         <v>0.55</v>
       </c>
       <c r="H412" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12348,7 +12354,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H413" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12374,7 +12380,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H414" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12400,7 +12406,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H415" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12426,7 +12432,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H416" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12452,7 +12458,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H417" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12478,7 +12484,7 @@
         <v>0.45</v>
       </c>
       <c r="H418" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12504,7 +12510,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H419" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12530,7 +12536,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H420" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12556,7 +12562,7 @@
         <v>0.55</v>
       </c>
       <c r="H421" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12582,7 +12588,7 @@
         <v>0.55</v>
       </c>
       <c r="H422" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12608,7 +12614,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H423" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12634,7 +12640,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H424" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -12660,7 +12666,7 @@
         <v>0.5</v>
       </c>
       <c r="H425" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12686,7 +12692,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H426" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -12712,7 +12718,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H427" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12738,7 +12744,7 @@
         <v>0.6</v>
       </c>
       <c r="H428" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -12764,7 +12770,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H429" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -12790,7 +12796,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H430" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -12816,7 +12822,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H431" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -12842,7 +12848,7 @@
         <v>0.6</v>
       </c>
       <c r="H432" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -12868,7 +12874,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H433" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -12894,7 +12900,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H434" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -12920,7 +12926,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H435" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -12946,7 +12952,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H436" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -12972,7 +12978,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H437" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -12998,7 +13004,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H438" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13024,7 +13030,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H439" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13050,7 +13056,7 @@
         <v>0.6</v>
       </c>
       <c r="H440" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13076,7 +13082,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H441" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13102,7 +13108,7 @@
         <v>0.6</v>
       </c>
       <c r="H442" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13128,7 +13134,7 @@
         <v>0.6</v>
       </c>
       <c r="H443" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13154,7 +13160,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H444" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13180,7 +13186,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H445" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13206,7 +13212,7 @@
         <v>0.65</v>
       </c>
       <c r="H446" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13232,7 +13238,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H447" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13258,7 +13264,7 @@
         <v>0.45</v>
       </c>
       <c r="H448" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13284,7 +13290,7 @@
         <v>0.35</v>
       </c>
       <c r="H449" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13310,7 +13316,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H450" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13336,7 +13342,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H451" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13362,7 +13368,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H452" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13388,7 +13394,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H453" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13414,7 +13420,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H454" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13440,7 +13446,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H455" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13466,7 +13472,7 @@
         <v>0.75</v>
       </c>
       <c r="H456" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13492,7 +13498,7 @@
         <v>0.65</v>
       </c>
       <c r="H457" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13518,7 +13524,7 @@
         <v>0.7</v>
       </c>
       <c r="H458" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13544,7 +13550,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H459" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -13570,7 +13576,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H460" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13596,7 +13602,7 @@
         <v>0.55</v>
       </c>
       <c r="H461" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -13622,7 +13628,7 @@
         <v>0.65</v>
       </c>
       <c r="H462" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -13648,7 +13654,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H463" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -13674,7 +13680,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H464" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -13700,7 +13706,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H465" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -13726,7 +13732,7 @@
         <v>0.3</v>
       </c>
       <c r="H466" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -13752,7 +13758,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H467" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -13778,7 +13784,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H468" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -13804,7 +13810,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H469" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -13830,7 +13836,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H470" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -13856,7 +13862,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H471" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -13882,7 +13888,7 @@
         <v>0.5</v>
       </c>
       <c r="H472" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -13908,7 +13914,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H473" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -13934,7 +13940,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H474" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -13960,7 +13966,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="H475" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -13986,7 +13992,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H476" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14012,7 +14018,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H477" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14038,7 +14044,7 @@
         <v>0.35</v>
       </c>
       <c r="H478" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14064,7 +14070,7 @@
         <v>0.4</v>
       </c>
       <c r="H479" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14090,7 +14096,7 @@
         <v>0.6</v>
       </c>
       <c r="H480" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14116,7 +14122,7 @@
         <v>0.55</v>
       </c>
       <c r="H481" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14142,7 +14148,7 @@
         <v>0.65</v>
       </c>
       <c r="H482" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14168,7 +14174,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H483" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14194,7 +14200,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H484" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14220,7 +14226,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H485" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14246,7 +14252,7 @@
         <v>0.6</v>
       </c>
       <c r="H486" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14272,7 +14278,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H487" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14298,7 +14304,7 @@
         <v>0.8166666666666668</v>
       </c>
       <c r="H488" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14324,7 +14330,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H489" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14350,7 +14356,7 @@
         <v>0.75</v>
       </c>
       <c r="H490" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14376,7 +14382,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H491" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14402,7 +14408,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H492" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14428,7 +14434,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H493" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14454,7 +14460,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H494" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14480,7 +14486,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H495" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14506,7 +14512,7 @@
         <v>0.7</v>
       </c>
       <c r="H496" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14532,7 +14538,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H497" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -14558,7 +14564,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H498" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -14584,7 +14590,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H499" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -14610,7 +14616,7 @@
         <v>0.4</v>
       </c>
       <c r="H500" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -14636,7 +14642,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H501" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -14662,7 +14668,7 @@
         <v>0.6</v>
       </c>
       <c r="H502" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -14688,7 +14694,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H503" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -14714,7 +14720,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H504" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -14740,7 +14746,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H505" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -14766,7 +14772,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H506" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -14792,7 +14798,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H507" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -14818,7 +14824,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H508" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -14844,7 +14850,7 @@
         <v>0.6</v>
       </c>
       <c r="H509" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -14870,7 +14876,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H510" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -14896,7 +14902,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H511" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -14922,7 +14928,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H512" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -14948,7 +14954,7 @@
         <v>0.6</v>
       </c>
       <c r="H513" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -14974,7 +14980,7 @@
         <v>0.65</v>
       </c>
       <c r="H514" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15000,7 +15006,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H515" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15026,7 +15032,7 @@
         <v>0.55</v>
       </c>
       <c r="H516" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15052,7 +15058,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H517" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15078,7 +15084,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H518" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15104,7 +15110,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H519" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15130,7 +15136,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H520" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15156,7 +15162,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H521" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15182,7 +15188,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H522" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15208,7 +15214,7 @@
         <v>0.55</v>
       </c>
       <c r="H523" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15234,7 +15240,7 @@
         <v>0.6</v>
       </c>
       <c r="H524" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15260,7 +15266,7 @@
         <v>0.45</v>
       </c>
       <c r="H525" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15286,7 +15292,7 @@
         <v>0.65</v>
       </c>
       <c r="H526" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15312,7 +15318,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H527" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15338,7 +15344,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H528" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15364,7 +15370,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H529" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15390,7 +15396,7 @@
         <v>0.6</v>
       </c>
       <c r="H530" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15416,7 +15422,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H531" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15442,7 +15448,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H532" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15468,7 +15474,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H533" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -15494,7 +15500,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H534" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -15520,7 +15526,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H535" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -15546,7 +15552,7 @@
         <v>0.75</v>
       </c>
       <c r="H536" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -15572,7 +15578,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H537" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -15598,7 +15604,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H538" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -15624,7 +15630,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H539" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -15650,7 +15656,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H540" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -15676,7 +15682,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H541" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -15702,7 +15708,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H542" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -15728,7 +15734,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H543" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -15754,7 +15760,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H544" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -15780,7 +15786,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H545" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -15806,7 +15812,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H546" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -15832,7 +15838,7 @@
         <v>0.3</v>
       </c>
       <c r="H547" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -15858,7 +15864,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H548" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -15884,7 +15890,7 @@
         <v>0.4</v>
       </c>
       <c r="H549" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -15910,7 +15916,7 @@
         <v>0.4</v>
       </c>
       <c r="H550" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -15936,7 +15942,7 @@
         <v>0.45</v>
       </c>
       <c r="H551" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -15962,7 +15968,7 @@
         <v>0.4</v>
       </c>
       <c r="H552" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -15988,7 +15994,7 @@
         <v>0.4</v>
       </c>
       <c r="H553" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16014,7 +16020,7 @@
         <v>0.2</v>
       </c>
       <c r="H554" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16024,7 +16030,13 @@
       <c r="B555" t="s">
         <v>560</v>
       </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
       <c r="D555">
+        <v>0</v>
+      </c>
+      <c r="E555">
         <v>0</v>
       </c>
       <c r="F555">
@@ -16034,7 +16046,53 @@
         <v>0.25</v>
       </c>
       <c r="H555" t="s">
-        <v>581</v>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
+      <c r="A556" s="1">
+        <v>554</v>
+      </c>
+      <c r="B556" t="s">
+        <v>561</v>
+      </c>
+      <c r="C556">
+        <v>0</v>
+      </c>
+      <c r="D556">
+        <v>0</v>
+      </c>
+      <c r="E556">
+        <v>1</v>
+      </c>
+      <c r="F556">
+        <v>0.6666666666666665</v>
+      </c>
+      <c r="G556">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H556" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8">
+      <c r="A557" s="1">
+        <v>555</v>
+      </c>
+      <c r="B557" t="s">
+        <v>562</v>
+      </c>
+      <c r="D557">
+        <v>0</v>
+      </c>
+      <c r="F557">
+        <v>0.6833333333333332</v>
+      </c>
+      <c r="G557">
+        <v>0.3166666666666667</v>
+      </c>
+      <c r="H557" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyVOC.xlsx
+++ b/firebase_data_from_spyVOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="604">
   <si>
     <t>date</t>
   </si>
@@ -1718,6 +1718,12 @@
   </si>
   <si>
     <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
   </si>
   <si>
     <t>50</t>
@@ -2177,7 +2183,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H562"/>
+  <dimension ref="A1:H564"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2321,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6372,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6398,7 +6404,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6424,7 +6430,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6450,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6476,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6502,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6528,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6554,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6580,7 +6586,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6606,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6632,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6658,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6684,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6710,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6736,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6762,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6788,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6814,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6840,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6866,7 +6872,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6892,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6918,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6944,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6970,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6996,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7022,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7048,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7074,7 +7080,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7100,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7126,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7152,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7178,7 +7184,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7204,7 +7210,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7230,7 +7236,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7256,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7282,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7308,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7334,7 +7340,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7360,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7386,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7412,7 +7418,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7438,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7464,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7490,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7516,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7542,7 +7548,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7568,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7594,7 +7600,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7620,7 +7626,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7646,7 +7652,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7672,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7698,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7724,7 +7730,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7750,7 +7756,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7776,7 +7782,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7802,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7828,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7854,7 +7860,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7880,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7906,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7932,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7958,7 +7964,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7984,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8010,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8036,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8062,7 +8068,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8088,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8114,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8140,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8166,7 +8172,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8192,7 +8198,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8218,7 +8224,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8244,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8270,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8296,7 +8302,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8322,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8348,7 +8354,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8374,7 +8380,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8400,7 +8406,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8426,7 +8432,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8452,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8478,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8504,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8530,7 +8536,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8556,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8582,7 +8588,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8608,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8634,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8660,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8686,7 +8692,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8712,7 +8718,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8738,7 +8744,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8764,7 +8770,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8790,7 +8796,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8816,7 +8822,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8842,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8868,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8894,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8920,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8946,7 +8952,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8972,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8998,7 +9004,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9024,7 +9030,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9050,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9076,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9102,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9128,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9154,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9180,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9206,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9232,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9258,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9284,7 +9290,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9310,7 +9316,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H295" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9336,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9362,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9388,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9414,7 +9420,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9440,7 +9446,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9466,7 +9472,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9492,7 +9498,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9518,7 +9524,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9544,7 +9550,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9570,7 +9576,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9596,7 +9602,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9622,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9648,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9674,7 +9680,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9700,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9726,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9752,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9778,7 +9784,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9804,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9830,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9856,7 +9862,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9882,7 +9888,7 @@
         <v>1</v>
       </c>
       <c r="H317" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9908,7 +9914,7 @@
         <v>0.5653002550708918</v>
       </c>
       <c r="H318" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9934,7 +9940,7 @@
         <v>0.5200419117488183</v>
       </c>
       <c r="H319" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9960,7 +9966,7 @@
         <v>0.545669087606208</v>
       </c>
       <c r="H320" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9986,7 +9992,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H321" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10012,7 +10018,7 @@
         <v>0.425</v>
       </c>
       <c r="H322" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10038,7 +10044,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H323" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10064,7 +10070,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H324" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10090,7 +10096,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H325" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10116,7 +10122,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H326" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10142,7 +10148,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H327" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10168,7 +10174,7 @@
         <v>0.6583333333333333</v>
       </c>
       <c r="H328" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10194,7 +10200,7 @@
         <v>0.475</v>
       </c>
       <c r="H329" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10220,7 +10226,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H330" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10246,7 +10252,7 @@
         <v>0.45</v>
       </c>
       <c r="H331" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10318,7 +10324,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H334" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10344,7 +10350,7 @@
         <v>0.5</v>
       </c>
       <c r="H335" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10370,7 +10376,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H336" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10396,7 +10402,7 @@
         <v>0.5</v>
       </c>
       <c r="H337" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10422,7 +10428,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H338" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10448,7 +10454,7 @@
         <v>0.3583333333333333</v>
       </c>
       <c r="H339" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10474,7 +10480,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H340" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10500,7 +10506,7 @@
         <v>0.55</v>
       </c>
       <c r="H341" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10526,7 +10532,7 @@
         <v>0.55</v>
       </c>
       <c r="H342" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10552,7 +10558,7 @@
         <v>0.55</v>
       </c>
       <c r="H343" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10578,7 +10584,7 @@
         <v>0.6</v>
       </c>
       <c r="H344" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10604,7 +10610,7 @@
         <v>0.75</v>
       </c>
       <c r="H345" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10630,7 +10636,7 @@
         <v>0.65</v>
       </c>
       <c r="H346" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10656,7 +10662,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H347" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10682,7 +10688,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H348" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10708,7 +10714,7 @@
         <v>0.5</v>
       </c>
       <c r="H349" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10734,7 +10740,7 @@
         <v>0.65</v>
       </c>
       <c r="H350" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10760,7 +10766,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H351" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10786,7 +10792,7 @@
         <v>0.65</v>
       </c>
       <c r="H352" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10812,7 +10818,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H353" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10838,7 +10844,7 @@
         <v>0.65</v>
       </c>
       <c r="H354" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10864,7 +10870,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H355" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10890,7 +10896,7 @@
         <v>0.4</v>
       </c>
       <c r="H356" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10916,7 +10922,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H357" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10942,7 +10948,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H358" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10968,7 +10974,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H359" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10994,7 +11000,7 @@
         <v>0.4</v>
       </c>
       <c r="H360" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11020,7 +11026,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H361" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11046,7 +11052,7 @@
         <v>0.15</v>
       </c>
       <c r="H362" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11072,7 +11078,7 @@
         <v>0.15</v>
       </c>
       <c r="H363" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11098,7 +11104,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H364" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11124,7 +11130,7 @@
         <v>0.55</v>
       </c>
       <c r="H365" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11150,7 +11156,7 @@
         <v>0.5</v>
       </c>
       <c r="H366" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11176,7 +11182,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H367" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11202,7 +11208,7 @@
         <v>0.4</v>
       </c>
       <c r="H368" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11228,7 +11234,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H369" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11254,7 +11260,7 @@
         <v>0.35</v>
       </c>
       <c r="H370" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11280,7 +11286,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H371" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11306,7 +11312,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H372" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11332,7 +11338,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H373" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11358,7 +11364,7 @@
         <v>0.55</v>
       </c>
       <c r="H374" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11384,7 +11390,7 @@
         <v>0.4</v>
       </c>
       <c r="H375" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11410,7 +11416,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H376" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11436,7 +11442,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H377" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11462,7 +11468,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H378" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11488,7 +11494,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H379" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11514,7 +11520,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H380" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11540,7 +11546,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H381" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11566,7 +11572,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H382" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11592,7 +11598,7 @@
         <v>0.6</v>
       </c>
       <c r="H383" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11618,7 +11624,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H384" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11644,7 +11650,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H385" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11670,7 +11676,7 @@
         <v>0.45</v>
       </c>
       <c r="H386" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11696,7 +11702,7 @@
         <v>0.75</v>
       </c>
       <c r="H387" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11722,7 +11728,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H388" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11748,7 +11754,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H389" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11774,7 +11780,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H390" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11800,7 +11806,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H391" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11826,7 +11832,7 @@
         <v>0.5</v>
       </c>
       <c r="H392" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11852,7 +11858,7 @@
         <v>0.6</v>
       </c>
       <c r="H393" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11878,7 +11884,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H394" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11904,7 +11910,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H395" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11930,7 +11936,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H396" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -11956,7 +11962,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H397" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -11982,7 +11988,7 @@
         <v>0.65</v>
       </c>
       <c r="H398" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12008,7 +12014,7 @@
         <v>0.5</v>
       </c>
       <c r="H399" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12034,7 +12040,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H400" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12060,7 +12066,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H401" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12086,7 +12092,7 @@
         <v>0.6</v>
       </c>
       <c r="H402" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12112,7 +12118,7 @@
         <v>0.55</v>
       </c>
       <c r="H403" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12138,7 +12144,7 @@
         <v>0.65</v>
       </c>
       <c r="H404" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12164,7 +12170,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H405" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12190,7 +12196,7 @@
         <v>0.35</v>
       </c>
       <c r="H406" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12216,7 +12222,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H407" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12242,7 +12248,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H408" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12268,7 +12274,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H409" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12294,7 +12300,7 @@
         <v>0.6</v>
       </c>
       <c r="H410" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12320,7 +12326,7 @@
         <v>0.45</v>
       </c>
       <c r="H411" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12346,7 +12352,7 @@
         <v>0.55</v>
       </c>
       <c r="H412" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12372,7 +12378,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H413" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12398,7 +12404,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H414" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12424,7 +12430,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H415" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12450,7 +12456,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H416" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12476,7 +12482,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H417" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12502,7 +12508,7 @@
         <v>0.45</v>
       </c>
       <c r="H418" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12528,7 +12534,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H419" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12554,7 +12560,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H420" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12580,7 +12586,7 @@
         <v>0.55</v>
       </c>
       <c r="H421" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12606,7 +12612,7 @@
         <v>0.55</v>
       </c>
       <c r="H422" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12632,7 +12638,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H423" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12658,7 +12664,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H424" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -12684,7 +12690,7 @@
         <v>0.5</v>
       </c>
       <c r="H425" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12710,7 +12716,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H426" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -12736,7 +12742,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H427" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12762,7 +12768,7 @@
         <v>0.6</v>
       </c>
       <c r="H428" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -12788,7 +12794,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H429" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -12814,7 +12820,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H430" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -12840,7 +12846,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H431" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -12866,7 +12872,7 @@
         <v>0.6</v>
       </c>
       <c r="H432" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -12892,7 +12898,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H433" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -12918,7 +12924,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H434" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -12944,7 +12950,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H435" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -12970,7 +12976,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H436" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -12996,7 +13002,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H437" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13022,7 +13028,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H438" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13048,7 +13054,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H439" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13074,7 +13080,7 @@
         <v>0.6</v>
       </c>
       <c r="H440" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13100,7 +13106,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H441" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13126,7 +13132,7 @@
         <v>0.6</v>
       </c>
       <c r="H442" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13152,7 +13158,7 @@
         <v>0.6</v>
       </c>
       <c r="H443" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13178,7 +13184,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H444" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13204,7 +13210,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H445" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13230,7 +13236,7 @@
         <v>0.65</v>
       </c>
       <c r="H446" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13256,7 +13262,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H447" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13282,7 +13288,7 @@
         <v>0.45</v>
       </c>
       <c r="H448" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13308,7 +13314,7 @@
         <v>0.35</v>
       </c>
       <c r="H449" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13334,7 +13340,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H450" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13360,7 +13366,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H451" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13386,7 +13392,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H452" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13412,7 +13418,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H453" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13438,7 +13444,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H454" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13464,7 +13470,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H455" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13490,7 +13496,7 @@
         <v>0.75</v>
       </c>
       <c r="H456" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13516,7 +13522,7 @@
         <v>0.65</v>
       </c>
       <c r="H457" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13542,7 +13548,7 @@
         <v>0.7</v>
       </c>
       <c r="H458" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13568,7 +13574,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H459" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -13594,7 +13600,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H460" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13620,7 +13626,7 @@
         <v>0.55</v>
       </c>
       <c r="H461" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -13646,7 +13652,7 @@
         <v>0.65</v>
       </c>
       <c r="H462" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -13672,7 +13678,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H463" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -13698,7 +13704,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H464" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -13724,7 +13730,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H465" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -13750,7 +13756,7 @@
         <v>0.3</v>
       </c>
       <c r="H466" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -13776,7 +13782,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H467" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -13802,7 +13808,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H468" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -13828,7 +13834,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H469" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -13854,7 +13860,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H470" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -13880,7 +13886,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H471" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -13906,7 +13912,7 @@
         <v>0.5</v>
       </c>
       <c r="H472" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -13932,7 +13938,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H473" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -13958,7 +13964,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H474" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -13984,7 +13990,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="H475" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14010,7 +14016,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H476" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14036,7 +14042,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H477" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14062,7 +14068,7 @@
         <v>0.35</v>
       </c>
       <c r="H478" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14088,7 +14094,7 @@
         <v>0.4</v>
       </c>
       <c r="H479" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14114,7 +14120,7 @@
         <v>0.6</v>
       </c>
       <c r="H480" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14140,7 +14146,7 @@
         <v>0.55</v>
       </c>
       <c r="H481" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14166,7 +14172,7 @@
         <v>0.65</v>
       </c>
       <c r="H482" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14192,7 +14198,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H483" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14218,7 +14224,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H484" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14244,7 +14250,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H485" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14270,7 +14276,7 @@
         <v>0.6</v>
       </c>
       <c r="H486" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14296,7 +14302,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H487" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14322,7 +14328,7 @@
         <v>0.8166666666666668</v>
       </c>
       <c r="H488" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14348,7 +14354,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H489" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14374,7 +14380,7 @@
         <v>0.75</v>
       </c>
       <c r="H490" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14400,7 +14406,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H491" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14426,7 +14432,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H492" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14452,7 +14458,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H493" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14478,7 +14484,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H494" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14504,7 +14510,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H495" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14530,7 +14536,7 @@
         <v>0.7</v>
       </c>
       <c r="H496" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14556,7 +14562,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H497" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -14582,7 +14588,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H498" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -14608,7 +14614,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H499" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -14634,7 +14640,7 @@
         <v>0.4</v>
       </c>
       <c r="H500" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -14660,7 +14666,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H501" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -14686,7 +14692,7 @@
         <v>0.6</v>
       </c>
       <c r="H502" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -14712,7 +14718,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H503" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -14738,7 +14744,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H504" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -14764,7 +14770,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H505" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -14790,7 +14796,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H506" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -14816,7 +14822,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H507" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -14842,7 +14848,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H508" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -14868,7 +14874,7 @@
         <v>0.6</v>
       </c>
       <c r="H509" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -14894,7 +14900,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H510" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -14920,7 +14926,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H511" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -14946,7 +14952,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H512" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -14972,7 +14978,7 @@
         <v>0.6</v>
       </c>
       <c r="H513" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -14998,7 +15004,7 @@
         <v>0.65</v>
       </c>
       <c r="H514" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15024,7 +15030,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H515" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15050,7 +15056,7 @@
         <v>0.55</v>
       </c>
       <c r="H516" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15076,7 +15082,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H517" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15102,7 +15108,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H518" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15128,7 +15134,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H519" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15154,7 +15160,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H520" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15180,7 +15186,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H521" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15206,7 +15212,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H522" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15232,7 +15238,7 @@
         <v>0.55</v>
       </c>
       <c r="H523" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15258,7 +15264,7 @@
         <v>0.6</v>
       </c>
       <c r="H524" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15284,7 +15290,7 @@
         <v>0.45</v>
       </c>
       <c r="H525" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15310,7 +15316,7 @@
         <v>0.65</v>
       </c>
       <c r="H526" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15336,7 +15342,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H527" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15362,7 +15368,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H528" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15388,7 +15394,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H529" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15414,7 +15420,7 @@
         <v>0.6</v>
       </c>
       <c r="H530" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15440,7 +15446,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H531" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15466,7 +15472,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H532" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15492,7 +15498,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H533" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -15518,7 +15524,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H534" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -15544,7 +15550,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H535" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -15570,7 +15576,7 @@
         <v>0.75</v>
       </c>
       <c r="H536" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -15596,7 +15602,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H537" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -15622,7 +15628,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H538" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -15648,7 +15654,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H539" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -15674,7 +15680,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H540" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -15700,7 +15706,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H541" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -15726,7 +15732,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H542" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -15752,7 +15758,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H543" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -15778,7 +15784,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H544" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -15804,7 +15810,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H545" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -15830,7 +15836,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H546" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -15856,7 +15862,7 @@
         <v>0.3</v>
       </c>
       <c r="H547" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -15882,7 +15888,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H548" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -15908,7 +15914,7 @@
         <v>0.4</v>
       </c>
       <c r="H549" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -15934,7 +15940,7 @@
         <v>0.4</v>
       </c>
       <c r="H550" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -15960,7 +15966,7 @@
         <v>0.45</v>
       </c>
       <c r="H551" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -15986,7 +15992,7 @@
         <v>0.4</v>
       </c>
       <c r="H552" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16012,7 +16018,7 @@
         <v>0.4</v>
       </c>
       <c r="H553" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16038,7 +16044,7 @@
         <v>0.2</v>
       </c>
       <c r="H554" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16064,7 +16070,7 @@
         <v>0.25</v>
       </c>
       <c r="H555" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16090,7 +16096,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H556" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16116,7 +16122,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H557" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16142,7 +16148,7 @@
         <v>0.35</v>
       </c>
       <c r="H558" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16168,7 +16174,7 @@
         <v>0.3</v>
       </c>
       <c r="H559" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16194,7 +16200,7 @@
         <v>0.1666666666666666</v>
       </c>
       <c r="H560" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16220,7 +16226,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H561" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16230,8 +16236,14 @@
       <c r="B562" t="s">
         <v>567</v>
       </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
       <c r="D562">
         <v>0</v>
+      </c>
+      <c r="E562">
+        <v>1</v>
       </c>
       <c r="F562">
         <v>0.5</v>
@@ -16240,7 +16252,53 @@
         <v>0.5</v>
       </c>
       <c r="H562" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563" t="s">
+        <v>568</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+      <c r="D563">
+        <v>0</v>
+      </c>
+      <c r="E563">
+        <v>0</v>
+      </c>
+      <c r="F563">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="G563">
+        <v>0.4833333333333333</v>
+      </c>
+      <c r="H563" t="s">
         <v>584</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564" t="s">
+        <v>569</v>
+      </c>
+      <c r="D564">
+        <v>0</v>
+      </c>
+      <c r="F564">
+        <v>0.6833333333333332</v>
+      </c>
+      <c r="G564">
+        <v>0.3166666666666667</v>
+      </c>
+      <c r="H564" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyVOC.xlsx
+++ b/firebase_data_from_spyVOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="606">
   <si>
     <t>date</t>
   </si>
@@ -1724,6 +1724,12 @@
   </si>
   <si>
     <t>2025-08-27</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
   </si>
   <si>
     <t>50</t>
@@ -2183,7 +2189,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H564"/>
+  <dimension ref="A1:H566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2327,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6378,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6404,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6430,7 +6436,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6456,7 +6462,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6482,7 +6488,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6508,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6534,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6560,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6586,7 +6592,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6612,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6638,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6664,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6690,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6716,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6742,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6768,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6794,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6820,7 +6826,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6846,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6872,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6898,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6924,7 +6930,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6950,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6976,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7002,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7028,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7054,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7080,7 +7086,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7106,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7132,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7158,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7184,7 +7190,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7210,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7236,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7262,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7288,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7314,7 +7320,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7340,7 +7346,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7366,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7392,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7418,7 +7424,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7444,7 +7450,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7470,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7496,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7522,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7548,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7574,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7600,7 +7606,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7626,7 +7632,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7652,7 +7658,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7678,7 +7684,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7704,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7730,7 +7736,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7756,7 +7762,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7782,7 +7788,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7808,7 +7814,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7834,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7860,7 +7866,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7886,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7912,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7938,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7964,7 +7970,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7990,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8016,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8042,7 +8048,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8068,7 +8074,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8094,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8120,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8146,7 +8152,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8172,7 +8178,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8198,7 +8204,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8224,7 +8230,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8250,7 +8256,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8276,7 +8282,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8302,7 +8308,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8328,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8354,7 +8360,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8380,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8406,7 +8412,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8432,7 +8438,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8458,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8484,7 +8490,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8510,7 +8516,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8536,7 +8542,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8562,7 +8568,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8588,7 +8594,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8614,7 +8620,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8640,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8666,7 +8672,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8692,7 +8698,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8718,7 +8724,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8744,7 +8750,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8770,7 +8776,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8796,7 +8802,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8822,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8848,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8874,7 +8880,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8900,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8926,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8952,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8978,7 +8984,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9004,7 +9010,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9030,7 +9036,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9056,7 +9062,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9082,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9108,7 +9114,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9134,7 +9140,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9160,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9186,7 +9192,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9212,7 +9218,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9238,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9264,7 +9270,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9290,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9316,7 +9322,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H295" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9342,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9368,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9394,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9420,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9446,7 +9452,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9472,7 +9478,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9498,7 +9504,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9524,7 +9530,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9550,7 +9556,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9576,7 +9582,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9602,7 +9608,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9628,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9654,7 +9660,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9680,7 +9686,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9706,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9732,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9758,7 +9764,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9784,7 +9790,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9810,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9836,7 +9842,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9862,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9888,7 +9894,7 @@
         <v>1</v>
       </c>
       <c r="H317" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9914,7 +9920,7 @@
         <v>0.5653002550708918</v>
       </c>
       <c r="H318" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9940,7 +9946,7 @@
         <v>0.5200419117488183</v>
       </c>
       <c r="H319" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9966,7 +9972,7 @@
         <v>0.545669087606208</v>
       </c>
       <c r="H320" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9992,7 +9998,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H321" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10018,7 +10024,7 @@
         <v>0.425</v>
       </c>
       <c r="H322" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10044,7 +10050,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H323" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10070,7 +10076,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H324" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10096,7 +10102,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H325" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10122,7 +10128,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H326" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10148,7 +10154,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H327" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10174,7 +10180,7 @@
         <v>0.6583333333333333</v>
       </c>
       <c r="H328" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10200,7 +10206,7 @@
         <v>0.475</v>
       </c>
       <c r="H329" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10226,7 +10232,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H330" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10252,7 +10258,7 @@
         <v>0.45</v>
       </c>
       <c r="H331" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10324,7 +10330,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H334" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10350,7 +10356,7 @@
         <v>0.5</v>
       </c>
       <c r="H335" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10376,7 +10382,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H336" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10402,7 +10408,7 @@
         <v>0.5</v>
       </c>
       <c r="H337" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10428,7 +10434,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H338" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10454,7 +10460,7 @@
         <v>0.3583333333333333</v>
       </c>
       <c r="H339" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10480,7 +10486,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H340" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10506,7 +10512,7 @@
         <v>0.55</v>
       </c>
       <c r="H341" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10532,7 +10538,7 @@
         <v>0.55</v>
       </c>
       <c r="H342" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10558,7 +10564,7 @@
         <v>0.55</v>
       </c>
       <c r="H343" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10584,7 +10590,7 @@
         <v>0.6</v>
       </c>
       <c r="H344" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10610,7 +10616,7 @@
         <v>0.75</v>
       </c>
       <c r="H345" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10636,7 +10642,7 @@
         <v>0.65</v>
       </c>
       <c r="H346" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10662,7 +10668,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H347" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10688,7 +10694,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H348" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10714,7 +10720,7 @@
         <v>0.5</v>
       </c>
       <c r="H349" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10740,7 +10746,7 @@
         <v>0.65</v>
       </c>
       <c r="H350" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10766,7 +10772,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H351" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10792,7 +10798,7 @@
         <v>0.65</v>
       </c>
       <c r="H352" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10818,7 +10824,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H353" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10844,7 +10850,7 @@
         <v>0.65</v>
       </c>
       <c r="H354" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10870,7 +10876,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H355" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10896,7 +10902,7 @@
         <v>0.4</v>
       </c>
       <c r="H356" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10922,7 +10928,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H357" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10948,7 +10954,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H358" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10974,7 +10980,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H359" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11000,7 +11006,7 @@
         <v>0.4</v>
       </c>
       <c r="H360" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11026,7 +11032,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H361" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11052,7 +11058,7 @@
         <v>0.15</v>
       </c>
       <c r="H362" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11078,7 +11084,7 @@
         <v>0.15</v>
       </c>
       <c r="H363" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11104,7 +11110,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H364" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11130,7 +11136,7 @@
         <v>0.55</v>
       </c>
       <c r="H365" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11156,7 +11162,7 @@
         <v>0.5</v>
       </c>
       <c r="H366" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11182,7 +11188,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H367" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11208,7 +11214,7 @@
         <v>0.4</v>
       </c>
       <c r="H368" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11234,7 +11240,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H369" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11260,7 +11266,7 @@
         <v>0.35</v>
       </c>
       <c r="H370" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11286,7 +11292,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H371" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11312,7 +11318,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H372" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11338,7 +11344,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H373" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11364,7 +11370,7 @@
         <v>0.55</v>
       </c>
       <c r="H374" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11390,7 +11396,7 @@
         <v>0.4</v>
       </c>
       <c r="H375" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11416,7 +11422,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H376" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11442,7 +11448,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H377" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11468,7 +11474,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H378" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11494,7 +11500,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H379" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11520,7 +11526,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H380" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11546,7 +11552,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H381" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11572,7 +11578,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H382" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11598,7 +11604,7 @@
         <v>0.6</v>
       </c>
       <c r="H383" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11624,7 +11630,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H384" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11650,7 +11656,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H385" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11676,7 +11682,7 @@
         <v>0.45</v>
       </c>
       <c r="H386" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11702,7 +11708,7 @@
         <v>0.75</v>
       </c>
       <c r="H387" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11728,7 +11734,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H388" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11754,7 +11760,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H389" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11780,7 +11786,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H390" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11806,7 +11812,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H391" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11832,7 +11838,7 @@
         <v>0.5</v>
       </c>
       <c r="H392" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11858,7 +11864,7 @@
         <v>0.6</v>
       </c>
       <c r="H393" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11884,7 +11890,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H394" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11910,7 +11916,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H395" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11936,7 +11942,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H396" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -11962,7 +11968,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H397" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -11988,7 +11994,7 @@
         <v>0.65</v>
       </c>
       <c r="H398" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12014,7 +12020,7 @@
         <v>0.5</v>
       </c>
       <c r="H399" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12040,7 +12046,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H400" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12066,7 +12072,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H401" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12092,7 +12098,7 @@
         <v>0.6</v>
       </c>
       <c r="H402" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12118,7 +12124,7 @@
         <v>0.55</v>
       </c>
       <c r="H403" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12144,7 +12150,7 @@
         <v>0.65</v>
       </c>
       <c r="H404" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12170,7 +12176,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H405" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12196,7 +12202,7 @@
         <v>0.35</v>
       </c>
       <c r="H406" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12222,7 +12228,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H407" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12248,7 +12254,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H408" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12274,7 +12280,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H409" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12300,7 +12306,7 @@
         <v>0.6</v>
       </c>
       <c r="H410" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12326,7 +12332,7 @@
         <v>0.45</v>
       </c>
       <c r="H411" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12352,7 +12358,7 @@
         <v>0.55</v>
       </c>
       <c r="H412" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12378,7 +12384,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H413" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12404,7 +12410,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H414" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12430,7 +12436,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H415" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12456,7 +12462,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H416" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12482,7 +12488,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H417" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12508,7 +12514,7 @@
         <v>0.45</v>
       </c>
       <c r="H418" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12534,7 +12540,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H419" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12560,7 +12566,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H420" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12586,7 +12592,7 @@
         <v>0.55</v>
       </c>
       <c r="H421" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12612,7 +12618,7 @@
         <v>0.55</v>
       </c>
       <c r="H422" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12638,7 +12644,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H423" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12664,7 +12670,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H424" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -12690,7 +12696,7 @@
         <v>0.5</v>
       </c>
       <c r="H425" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12716,7 +12722,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H426" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -12742,7 +12748,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H427" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12768,7 +12774,7 @@
         <v>0.6</v>
       </c>
       <c r="H428" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -12794,7 +12800,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H429" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -12820,7 +12826,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H430" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -12846,7 +12852,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H431" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -12872,7 +12878,7 @@
         <v>0.6</v>
       </c>
       <c r="H432" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -12898,7 +12904,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H433" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -12924,7 +12930,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H434" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -12950,7 +12956,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H435" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -12976,7 +12982,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H436" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13002,7 +13008,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H437" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13028,7 +13034,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H438" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13054,7 +13060,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H439" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13080,7 +13086,7 @@
         <v>0.6</v>
       </c>
       <c r="H440" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13106,7 +13112,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H441" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13132,7 +13138,7 @@
         <v>0.6</v>
       </c>
       <c r="H442" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13158,7 +13164,7 @@
         <v>0.6</v>
       </c>
       <c r="H443" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13184,7 +13190,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H444" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13210,7 +13216,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H445" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13236,7 +13242,7 @@
         <v>0.65</v>
       </c>
       <c r="H446" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13262,7 +13268,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H447" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13288,7 +13294,7 @@
         <v>0.45</v>
       </c>
       <c r="H448" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13314,7 +13320,7 @@
         <v>0.35</v>
       </c>
       <c r="H449" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13340,7 +13346,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H450" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13366,7 +13372,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H451" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13392,7 +13398,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H452" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13418,7 +13424,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H453" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13444,7 +13450,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H454" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13470,7 +13476,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H455" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13496,7 +13502,7 @@
         <v>0.75</v>
       </c>
       <c r="H456" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13522,7 +13528,7 @@
         <v>0.65</v>
       </c>
       <c r="H457" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13548,7 +13554,7 @@
         <v>0.7</v>
       </c>
       <c r="H458" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13574,7 +13580,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H459" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -13600,7 +13606,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H460" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13626,7 +13632,7 @@
         <v>0.55</v>
       </c>
       <c r="H461" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -13652,7 +13658,7 @@
         <v>0.65</v>
       </c>
       <c r="H462" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -13678,7 +13684,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H463" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -13704,7 +13710,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H464" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -13730,7 +13736,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H465" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -13756,7 +13762,7 @@
         <v>0.3</v>
       </c>
       <c r="H466" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -13782,7 +13788,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H467" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -13808,7 +13814,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H468" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -13834,7 +13840,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H469" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -13860,7 +13866,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H470" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -13886,7 +13892,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H471" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -13912,7 +13918,7 @@
         <v>0.5</v>
       </c>
       <c r="H472" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -13938,7 +13944,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H473" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -13964,7 +13970,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H474" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -13990,7 +13996,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="H475" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14016,7 +14022,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H476" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14042,7 +14048,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H477" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14068,7 +14074,7 @@
         <v>0.35</v>
       </c>
       <c r="H478" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14094,7 +14100,7 @@
         <v>0.4</v>
       </c>
       <c r="H479" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14120,7 +14126,7 @@
         <v>0.6</v>
       </c>
       <c r="H480" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14146,7 +14152,7 @@
         <v>0.55</v>
       </c>
       <c r="H481" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14172,7 +14178,7 @@
         <v>0.65</v>
       </c>
       <c r="H482" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14198,7 +14204,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H483" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14224,7 +14230,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H484" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14250,7 +14256,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H485" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14276,7 +14282,7 @@
         <v>0.6</v>
       </c>
       <c r="H486" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14302,7 +14308,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H487" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14328,7 +14334,7 @@
         <v>0.8166666666666668</v>
       </c>
       <c r="H488" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14354,7 +14360,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H489" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14380,7 +14386,7 @@
         <v>0.75</v>
       </c>
       <c r="H490" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14406,7 +14412,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H491" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14432,7 +14438,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H492" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14458,7 +14464,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H493" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14484,7 +14490,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H494" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14510,7 +14516,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H495" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14536,7 +14542,7 @@
         <v>0.7</v>
       </c>
       <c r="H496" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14562,7 +14568,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H497" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -14588,7 +14594,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H498" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -14614,7 +14620,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H499" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -14640,7 +14646,7 @@
         <v>0.4</v>
       </c>
       <c r="H500" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -14666,7 +14672,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H501" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -14692,7 +14698,7 @@
         <v>0.6</v>
       </c>
       <c r="H502" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -14718,7 +14724,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H503" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -14744,7 +14750,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H504" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -14770,7 +14776,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H505" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -14796,7 +14802,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H506" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -14822,7 +14828,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H507" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -14848,7 +14854,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H508" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -14874,7 +14880,7 @@
         <v>0.6</v>
       </c>
       <c r="H509" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -14900,7 +14906,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H510" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -14926,7 +14932,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H511" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -14952,7 +14958,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H512" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -14978,7 +14984,7 @@
         <v>0.6</v>
       </c>
       <c r="H513" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15004,7 +15010,7 @@
         <v>0.65</v>
       </c>
       <c r="H514" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15030,7 +15036,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H515" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15056,7 +15062,7 @@
         <v>0.55</v>
       </c>
       <c r="H516" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15082,7 +15088,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H517" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15108,7 +15114,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H518" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15134,7 +15140,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H519" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15160,7 +15166,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H520" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15186,7 +15192,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H521" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15212,7 +15218,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H522" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15238,7 +15244,7 @@
         <v>0.55</v>
       </c>
       <c r="H523" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15264,7 +15270,7 @@
         <v>0.6</v>
       </c>
       <c r="H524" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15290,7 +15296,7 @@
         <v>0.45</v>
       </c>
       <c r="H525" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15316,7 +15322,7 @@
         <v>0.65</v>
       </c>
       <c r="H526" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15342,7 +15348,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H527" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15368,7 +15374,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H528" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15394,7 +15400,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H529" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15420,7 +15426,7 @@
         <v>0.6</v>
       </c>
       <c r="H530" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15446,7 +15452,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H531" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15472,7 +15478,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H532" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15498,7 +15504,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H533" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -15524,7 +15530,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H534" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -15550,7 +15556,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H535" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -15576,7 +15582,7 @@
         <v>0.75</v>
       </c>
       <c r="H536" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -15602,7 +15608,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H537" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -15628,7 +15634,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H538" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -15654,7 +15660,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H539" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -15680,7 +15686,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H540" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -15706,7 +15712,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H541" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -15732,7 +15738,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H542" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -15758,7 +15764,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H543" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -15784,7 +15790,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H544" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -15810,7 +15816,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H545" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -15836,7 +15842,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H546" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -15862,7 +15868,7 @@
         <v>0.3</v>
       </c>
       <c r="H547" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -15888,7 +15894,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H548" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -15914,7 +15920,7 @@
         <v>0.4</v>
       </c>
       <c r="H549" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -15940,7 +15946,7 @@
         <v>0.4</v>
       </c>
       <c r="H550" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -15966,7 +15972,7 @@
         <v>0.45</v>
       </c>
       <c r="H551" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -15992,7 +15998,7 @@
         <v>0.4</v>
       </c>
       <c r="H552" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16018,7 +16024,7 @@
         <v>0.4</v>
       </c>
       <c r="H553" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16044,7 +16050,7 @@
         <v>0.2</v>
       </c>
       <c r="H554" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16070,7 +16076,7 @@
         <v>0.25</v>
       </c>
       <c r="H555" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16096,7 +16102,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H556" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16122,7 +16128,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H557" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16148,7 +16154,7 @@
         <v>0.35</v>
       </c>
       <c r="H558" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16174,7 +16180,7 @@
         <v>0.3</v>
       </c>
       <c r="H559" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16200,7 +16206,7 @@
         <v>0.1666666666666666</v>
       </c>
       <c r="H560" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16226,7 +16232,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H561" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16252,7 +16258,7 @@
         <v>0.5</v>
       </c>
       <c r="H562" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16278,7 +16284,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H563" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16288,7 +16294,13 @@
       <c r="B564" t="s">
         <v>569</v>
       </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
       <c r="D564">
+        <v>0</v>
+      </c>
+      <c r="E564">
         <v>0</v>
       </c>
       <c r="F564">
@@ -16298,7 +16310,53 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H564" t="s">
-        <v>598</v>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565" t="s">
+        <v>570</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+      <c r="D565">
+        <v>0</v>
+      </c>
+      <c r="E565">
+        <v>0</v>
+      </c>
+      <c r="F565">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="G565">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="H565" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566" t="s">
+        <v>571</v>
+      </c>
+      <c r="D566">
+        <v>1</v>
+      </c>
+      <c r="F566">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="G566">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H566" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyVOC.xlsx
+++ b/firebase_data_from_spyVOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="612">
   <si>
     <t>date</t>
   </si>
@@ -1730,6 +1730,24 @@
   </si>
   <si>
     <t>2025-08-29</t>
+  </si>
+  <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>2025-09-03</t>
+  </si>
+  <si>
+    <t>2025-09-04</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>2025-09-09</t>
   </si>
   <si>
     <t>50</t>
@@ -2189,7 +2207,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H566"/>
+  <dimension ref="A1:H572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2333,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6384,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6410,7 +6428,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6436,7 +6454,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6462,7 +6480,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6488,7 +6506,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6514,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6540,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6566,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6592,7 +6610,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6618,7 +6636,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6644,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6670,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6696,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6722,7 +6740,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6748,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6774,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6800,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6826,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6852,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6878,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6904,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6930,7 +6948,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6956,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6982,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7008,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7034,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7060,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7086,7 +7104,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7112,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7138,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7164,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7190,7 +7208,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7216,7 +7234,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7242,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7268,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7294,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7320,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7346,7 +7364,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7372,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7398,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7424,7 +7442,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7450,7 +7468,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7476,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7502,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7528,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7554,7 +7572,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7580,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7606,7 +7624,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7632,7 +7650,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7658,7 +7676,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7684,7 +7702,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7710,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7736,7 +7754,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7762,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7788,7 +7806,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7814,7 +7832,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7840,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7866,7 +7884,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7892,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7918,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7944,7 +7962,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7970,7 +7988,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7996,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8022,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8048,7 +8066,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8074,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8100,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8126,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8152,7 +8170,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8178,7 +8196,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8204,7 +8222,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8230,7 +8248,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8256,7 +8274,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8282,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8308,7 +8326,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8334,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8360,7 +8378,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8386,7 +8404,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8412,7 +8430,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8438,7 +8456,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8464,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8490,7 +8508,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8516,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8542,7 +8560,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8568,7 +8586,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8594,7 +8612,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8620,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8646,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8672,7 +8690,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8698,7 +8716,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8724,7 +8742,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8750,7 +8768,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8776,7 +8794,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8802,7 +8820,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8828,7 +8846,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8854,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8880,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8906,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8932,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8958,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8984,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9010,7 +9028,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9036,7 +9054,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9062,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9088,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9114,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9140,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9166,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9192,7 +9210,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9218,7 +9236,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9244,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9270,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9296,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9322,7 +9340,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H295" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9348,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9374,7 +9392,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9400,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9426,7 +9444,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9452,7 +9470,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9478,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9504,7 +9522,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9530,7 +9548,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9556,7 +9574,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9582,7 +9600,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9608,7 +9626,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9634,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9660,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9686,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9712,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9738,7 +9756,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9764,7 +9782,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9790,7 +9808,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9816,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9842,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9868,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9894,7 +9912,7 @@
         <v>1</v>
       </c>
       <c r="H317" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9920,7 +9938,7 @@
         <v>0.5653002550708918</v>
       </c>
       <c r="H318" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9946,7 +9964,7 @@
         <v>0.5200419117488183</v>
       </c>
       <c r="H319" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9972,7 +9990,7 @@
         <v>0.545669087606208</v>
       </c>
       <c r="H320" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9998,7 +10016,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H321" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10024,7 +10042,7 @@
         <v>0.425</v>
       </c>
       <c r="H322" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10050,7 +10068,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H323" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10076,7 +10094,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H324" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10102,7 +10120,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H325" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10128,7 +10146,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H326" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10154,7 +10172,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H327" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10180,7 +10198,7 @@
         <v>0.6583333333333333</v>
       </c>
       <c r="H328" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10206,7 +10224,7 @@
         <v>0.475</v>
       </c>
       <c r="H329" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10232,7 +10250,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H330" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10258,7 +10276,7 @@
         <v>0.45</v>
       </c>
       <c r="H331" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10330,7 +10348,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H334" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10356,7 +10374,7 @@
         <v>0.5</v>
       </c>
       <c r="H335" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10382,7 +10400,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H336" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10408,7 +10426,7 @@
         <v>0.5</v>
       </c>
       <c r="H337" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10434,7 +10452,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H338" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10460,7 +10478,7 @@
         <v>0.3583333333333333</v>
       </c>
       <c r="H339" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10486,7 +10504,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H340" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10512,7 +10530,7 @@
         <v>0.55</v>
       </c>
       <c r="H341" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10538,7 +10556,7 @@
         <v>0.55</v>
       </c>
       <c r="H342" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10564,7 +10582,7 @@
         <v>0.55</v>
       </c>
       <c r="H343" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10590,7 +10608,7 @@
         <v>0.6</v>
       </c>
       <c r="H344" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10616,7 +10634,7 @@
         <v>0.75</v>
       </c>
       <c r="H345" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10642,7 +10660,7 @@
         <v>0.65</v>
       </c>
       <c r="H346" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10668,7 +10686,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H347" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10694,7 +10712,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H348" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10720,7 +10738,7 @@
         <v>0.5</v>
       </c>
       <c r="H349" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10746,7 +10764,7 @@
         <v>0.65</v>
       </c>
       <c r="H350" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10772,7 +10790,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H351" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10798,7 +10816,7 @@
         <v>0.65</v>
       </c>
       <c r="H352" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10824,7 +10842,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H353" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10850,7 +10868,7 @@
         <v>0.65</v>
       </c>
       <c r="H354" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10876,7 +10894,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H355" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10902,7 +10920,7 @@
         <v>0.4</v>
       </c>
       <c r="H356" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10928,7 +10946,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H357" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10954,7 +10972,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H358" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10980,7 +10998,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H359" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11006,7 +11024,7 @@
         <v>0.4</v>
       </c>
       <c r="H360" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11032,7 +11050,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H361" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11058,7 +11076,7 @@
         <v>0.15</v>
       </c>
       <c r="H362" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11084,7 +11102,7 @@
         <v>0.15</v>
       </c>
       <c r="H363" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11110,7 +11128,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H364" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11136,7 +11154,7 @@
         <v>0.55</v>
       </c>
       <c r="H365" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11162,7 +11180,7 @@
         <v>0.5</v>
       </c>
       <c r="H366" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11188,7 +11206,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H367" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11214,7 +11232,7 @@
         <v>0.4</v>
       </c>
       <c r="H368" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11240,7 +11258,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H369" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11266,7 +11284,7 @@
         <v>0.35</v>
       </c>
       <c r="H370" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11292,7 +11310,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H371" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11318,7 +11336,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H372" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11344,7 +11362,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H373" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11370,7 +11388,7 @@
         <v>0.55</v>
       </c>
       <c r="H374" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11396,7 +11414,7 @@
         <v>0.4</v>
       </c>
       <c r="H375" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11422,7 +11440,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H376" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11448,7 +11466,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H377" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11474,7 +11492,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H378" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11500,7 +11518,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H379" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11526,7 +11544,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H380" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11552,7 +11570,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H381" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11578,7 +11596,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H382" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11604,7 +11622,7 @@
         <v>0.6</v>
       </c>
       <c r="H383" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11630,7 +11648,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H384" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11656,7 +11674,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H385" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11682,7 +11700,7 @@
         <v>0.45</v>
       </c>
       <c r="H386" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11708,7 +11726,7 @@
         <v>0.75</v>
       </c>
       <c r="H387" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11734,7 +11752,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H388" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11760,7 +11778,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H389" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11786,7 +11804,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H390" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11812,7 +11830,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H391" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11838,7 +11856,7 @@
         <v>0.5</v>
       </c>
       <c r="H392" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11864,7 +11882,7 @@
         <v>0.6</v>
       </c>
       <c r="H393" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11890,7 +11908,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H394" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11916,7 +11934,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H395" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11942,7 +11960,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H396" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -11968,7 +11986,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H397" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -11994,7 +12012,7 @@
         <v>0.65</v>
       </c>
       <c r="H398" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12020,7 +12038,7 @@
         <v>0.5</v>
       </c>
       <c r="H399" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12046,7 +12064,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H400" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12072,7 +12090,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H401" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12098,7 +12116,7 @@
         <v>0.6</v>
       </c>
       <c r="H402" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12124,7 +12142,7 @@
         <v>0.55</v>
       </c>
       <c r="H403" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12150,7 +12168,7 @@
         <v>0.65</v>
       </c>
       <c r="H404" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12176,7 +12194,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H405" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12202,7 +12220,7 @@
         <v>0.35</v>
       </c>
       <c r="H406" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12228,7 +12246,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H407" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12254,7 +12272,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H408" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12280,7 +12298,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H409" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12306,7 +12324,7 @@
         <v>0.6</v>
       </c>
       <c r="H410" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12332,7 +12350,7 @@
         <v>0.45</v>
       </c>
       <c r="H411" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12358,7 +12376,7 @@
         <v>0.55</v>
       </c>
       <c r="H412" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12384,7 +12402,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H413" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12410,7 +12428,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H414" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12436,7 +12454,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H415" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12462,7 +12480,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H416" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12488,7 +12506,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H417" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12514,7 +12532,7 @@
         <v>0.45</v>
       </c>
       <c r="H418" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12540,7 +12558,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H419" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12566,7 +12584,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H420" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12592,7 +12610,7 @@
         <v>0.55</v>
       </c>
       <c r="H421" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12618,7 +12636,7 @@
         <v>0.55</v>
       </c>
       <c r="H422" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12644,7 +12662,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H423" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12670,7 +12688,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H424" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -12696,7 +12714,7 @@
         <v>0.5</v>
       </c>
       <c r="H425" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12722,7 +12740,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H426" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -12748,7 +12766,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H427" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12774,7 +12792,7 @@
         <v>0.6</v>
       </c>
       <c r="H428" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -12800,7 +12818,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H429" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -12826,7 +12844,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H430" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -12852,7 +12870,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H431" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -12878,7 +12896,7 @@
         <v>0.6</v>
       </c>
       <c r="H432" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -12904,7 +12922,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H433" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -12930,7 +12948,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H434" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -12956,7 +12974,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H435" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -12982,7 +13000,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H436" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13008,7 +13026,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H437" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13034,7 +13052,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H438" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13060,7 +13078,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H439" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13086,7 +13104,7 @@
         <v>0.6</v>
       </c>
       <c r="H440" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13112,7 +13130,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H441" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13138,7 +13156,7 @@
         <v>0.6</v>
       </c>
       <c r="H442" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13164,7 +13182,7 @@
         <v>0.6</v>
       </c>
       <c r="H443" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13190,7 +13208,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H444" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13216,7 +13234,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H445" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13242,7 +13260,7 @@
         <v>0.65</v>
       </c>
       <c r="H446" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13268,7 +13286,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H447" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13294,7 +13312,7 @@
         <v>0.45</v>
       </c>
       <c r="H448" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13320,7 +13338,7 @@
         <v>0.35</v>
       </c>
       <c r="H449" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13346,7 +13364,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H450" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13372,7 +13390,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H451" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13398,7 +13416,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H452" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13424,7 +13442,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H453" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13450,7 +13468,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H454" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13476,7 +13494,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H455" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13502,7 +13520,7 @@
         <v>0.75</v>
       </c>
       <c r="H456" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13528,7 +13546,7 @@
         <v>0.65</v>
       </c>
       <c r="H457" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13554,7 +13572,7 @@
         <v>0.7</v>
       </c>
       <c r="H458" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13580,7 +13598,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H459" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -13606,7 +13624,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H460" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13632,7 +13650,7 @@
         <v>0.55</v>
       </c>
       <c r="H461" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -13658,7 +13676,7 @@
         <v>0.65</v>
       </c>
       <c r="H462" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -13684,7 +13702,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H463" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -13710,7 +13728,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H464" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -13736,7 +13754,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H465" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -13762,7 +13780,7 @@
         <v>0.3</v>
       </c>
       <c r="H466" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -13788,7 +13806,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H467" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -13814,7 +13832,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H468" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -13840,7 +13858,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H469" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -13866,7 +13884,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H470" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -13892,7 +13910,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H471" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -13918,7 +13936,7 @@
         <v>0.5</v>
       </c>
       <c r="H472" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -13944,7 +13962,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H473" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -13970,7 +13988,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H474" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -13996,7 +14014,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="H475" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14022,7 +14040,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H476" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14048,7 +14066,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H477" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14074,7 +14092,7 @@
         <v>0.35</v>
       </c>
       <c r="H478" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14100,7 +14118,7 @@
         <v>0.4</v>
       </c>
       <c r="H479" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14126,7 +14144,7 @@
         <v>0.6</v>
       </c>
       <c r="H480" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14152,7 +14170,7 @@
         <v>0.55</v>
       </c>
       <c r="H481" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14178,7 +14196,7 @@
         <v>0.65</v>
       </c>
       <c r="H482" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14204,7 +14222,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H483" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14230,7 +14248,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H484" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14256,7 +14274,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H485" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14282,7 +14300,7 @@
         <v>0.6</v>
       </c>
       <c r="H486" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14308,7 +14326,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H487" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14334,7 +14352,7 @@
         <v>0.8166666666666668</v>
       </c>
       <c r="H488" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14360,7 +14378,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H489" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14386,7 +14404,7 @@
         <v>0.75</v>
       </c>
       <c r="H490" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14412,7 +14430,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H491" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14438,7 +14456,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H492" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14464,7 +14482,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H493" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14490,7 +14508,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H494" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14516,7 +14534,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H495" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14542,7 +14560,7 @@
         <v>0.7</v>
       </c>
       <c r="H496" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14568,7 +14586,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H497" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -14594,7 +14612,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H498" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -14620,7 +14638,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H499" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -14646,7 +14664,7 @@
         <v>0.4</v>
       </c>
       <c r="H500" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -14672,7 +14690,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H501" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -14698,7 +14716,7 @@
         <v>0.6</v>
       </c>
       <c r="H502" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -14724,7 +14742,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H503" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -14750,7 +14768,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H504" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -14776,7 +14794,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H505" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -14802,7 +14820,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H506" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -14828,7 +14846,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H507" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -14854,7 +14872,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H508" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -14880,7 +14898,7 @@
         <v>0.6</v>
       </c>
       <c r="H509" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -14906,7 +14924,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H510" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -14932,7 +14950,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H511" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -14958,7 +14976,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H512" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -14984,7 +15002,7 @@
         <v>0.6</v>
       </c>
       <c r="H513" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15010,7 +15028,7 @@
         <v>0.65</v>
       </c>
       <c r="H514" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15036,7 +15054,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H515" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15062,7 +15080,7 @@
         <v>0.55</v>
       </c>
       <c r="H516" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15088,7 +15106,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H517" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15114,7 +15132,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H518" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15140,7 +15158,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H519" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15166,7 +15184,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H520" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15192,7 +15210,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H521" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15218,7 +15236,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H522" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15244,7 +15262,7 @@
         <v>0.55</v>
       </c>
       <c r="H523" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15270,7 +15288,7 @@
         <v>0.6</v>
       </c>
       <c r="H524" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15296,7 +15314,7 @@
         <v>0.45</v>
       </c>
       <c r="H525" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15322,7 +15340,7 @@
         <v>0.65</v>
       </c>
       <c r="H526" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15348,7 +15366,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H527" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15374,7 +15392,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H528" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15400,7 +15418,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H529" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15426,7 +15444,7 @@
         <v>0.6</v>
       </c>
       <c r="H530" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15452,7 +15470,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H531" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15478,7 +15496,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H532" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15504,7 +15522,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H533" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -15530,7 +15548,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H534" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -15556,7 +15574,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H535" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -15582,7 +15600,7 @@
         <v>0.75</v>
       </c>
       <c r="H536" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -15608,7 +15626,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H537" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -15634,7 +15652,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H538" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -15660,7 +15678,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H539" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -15686,7 +15704,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H540" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -15712,7 +15730,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H541" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -15738,7 +15756,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H542" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -15764,7 +15782,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H543" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -15790,7 +15808,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H544" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -15816,7 +15834,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H545" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -15842,7 +15860,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H546" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -15868,7 +15886,7 @@
         <v>0.3</v>
       </c>
       <c r="H547" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -15894,7 +15912,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H548" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -15920,7 +15938,7 @@
         <v>0.4</v>
       </c>
       <c r="H549" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -15946,7 +15964,7 @@
         <v>0.4</v>
       </c>
       <c r="H550" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -15972,7 +15990,7 @@
         <v>0.45</v>
       </c>
       <c r="H551" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -15998,7 +16016,7 @@
         <v>0.4</v>
       </c>
       <c r="H552" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16024,7 +16042,7 @@
         <v>0.4</v>
       </c>
       <c r="H553" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16050,7 +16068,7 @@
         <v>0.2</v>
       </c>
       <c r="H554" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16076,7 +16094,7 @@
         <v>0.25</v>
       </c>
       <c r="H555" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16102,7 +16120,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H556" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16128,7 +16146,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H557" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16154,7 +16172,7 @@
         <v>0.35</v>
       </c>
       <c r="H558" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16180,7 +16198,7 @@
         <v>0.3</v>
       </c>
       <c r="H559" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16206,7 +16224,7 @@
         <v>0.1666666666666666</v>
       </c>
       <c r="H560" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16232,7 +16250,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H561" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16258,7 +16276,7 @@
         <v>0.5</v>
       </c>
       <c r="H562" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16284,7 +16302,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H563" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16310,7 +16328,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H564" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16336,7 +16354,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H565" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16346,8 +16364,14 @@
       <c r="B566" t="s">
         <v>571</v>
       </c>
+      <c r="C566">
+        <v>0</v>
+      </c>
       <c r="D566">
         <v>1</v>
+      </c>
+      <c r="E566">
+        <v>0</v>
       </c>
       <c r="F566">
         <v>0.4166666666666667</v>
@@ -16356,7 +16380,157 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H566" t="s">
-        <v>583</v>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567" t="s">
+        <v>572</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+      <c r="D567">
+        <v>0</v>
+      </c>
+      <c r="E567">
+        <v>0</v>
+      </c>
+      <c r="F567">
+        <v>0.55</v>
+      </c>
+      <c r="G567">
+        <v>0.45</v>
+      </c>
+      <c r="H567" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568" t="s">
+        <v>573</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+      <c r="D568">
+        <v>0</v>
+      </c>
+      <c r="E568">
+        <v>0</v>
+      </c>
+      <c r="F568">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="G568">
+        <v>0.4666666666666666</v>
+      </c>
+      <c r="H568" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569" t="s">
+        <v>574</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+      <c r="D569">
+        <v>0</v>
+      </c>
+      <c r="E569">
+        <v>0</v>
+      </c>
+      <c r="F569">
+        <v>0.6</v>
+      </c>
+      <c r="G569">
+        <v>0.4</v>
+      </c>
+      <c r="H569" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570" t="s">
+        <v>575</v>
+      </c>
+      <c r="C570">
+        <v>0</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+      <c r="E570">
+        <v>0</v>
+      </c>
+      <c r="F570">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="G570">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="H570" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571" t="s">
+        <v>576</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+      <c r="D571">
+        <v>0</v>
+      </c>
+      <c r="E571">
+        <v>0</v>
+      </c>
+      <c r="F571">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="G571">
+        <v>0.4833333333333333</v>
+      </c>
+      <c r="H571" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572" t="s">
+        <v>577</v>
+      </c>
+      <c r="D572">
+        <v>0</v>
+      </c>
+      <c r="F572">
+        <v>0.55</v>
+      </c>
+      <c r="G572">
+        <v>0.45</v>
+      </c>
+      <c r="H572" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyVOC.xlsx
+++ b/firebase_data_from_spyVOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="614">
   <si>
     <t>date</t>
   </si>
@@ -1748,6 +1748,12 @@
   </si>
   <si>
     <t>2025-09-09</t>
+  </si>
+  <si>
+    <t>2025-09-10</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
   </si>
   <si>
     <t>50</t>
@@ -2207,7 +2213,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H572"/>
+  <dimension ref="A1:H574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2351,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6402,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6428,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6454,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6480,7 +6486,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6506,7 +6512,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6532,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6558,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6584,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6610,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6636,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6662,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6688,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6714,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6740,7 +6746,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6766,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6792,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6818,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6844,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6870,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6896,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6922,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6948,7 +6954,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6974,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7000,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7026,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7052,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7078,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7104,7 +7110,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7130,7 +7136,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7156,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7182,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7208,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7234,7 +7240,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7260,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7286,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7312,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7338,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7364,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7390,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7416,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7442,7 +7448,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7468,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7494,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7520,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7546,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7572,7 +7578,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7598,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7624,7 +7630,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7650,7 +7656,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7676,7 +7682,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7702,7 +7708,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7728,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7754,7 +7760,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7780,7 +7786,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7806,7 +7812,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7832,7 +7838,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7858,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7884,7 +7890,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7910,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7936,7 +7942,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7962,7 +7968,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7988,7 +7994,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8014,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8040,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8066,7 +8072,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8092,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8118,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8144,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8170,7 +8176,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8196,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8222,7 +8228,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8248,7 +8254,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8274,7 +8280,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8300,7 +8306,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8326,7 +8332,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8352,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8378,7 +8384,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8404,7 +8410,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8430,7 +8436,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8456,7 +8462,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8482,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8508,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8534,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8560,7 +8566,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8586,7 +8592,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8612,7 +8618,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8638,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8664,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8690,7 +8696,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8716,7 +8722,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8742,7 +8748,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8768,7 +8774,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8794,7 +8800,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8820,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8846,7 +8852,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8872,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8898,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8924,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8950,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8976,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9002,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9028,7 +9034,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9054,7 +9060,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9080,7 +9086,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9106,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9132,7 +9138,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9158,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9184,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9210,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9236,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9262,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9288,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9314,7 +9320,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9340,7 +9346,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H295" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9366,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9392,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9418,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9444,7 +9450,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9470,7 +9476,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9496,7 +9502,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9522,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9548,7 +9554,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9574,7 +9580,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9600,7 +9606,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9626,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9652,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9678,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9704,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9730,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9756,7 +9762,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9782,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9808,7 +9814,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9834,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9860,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9886,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9912,7 +9918,7 @@
         <v>1</v>
       </c>
       <c r="H317" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9938,7 +9944,7 @@
         <v>0.5653002550708918</v>
       </c>
       <c r="H318" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9964,7 +9970,7 @@
         <v>0.5200419117488183</v>
       </c>
       <c r="H319" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9990,7 +9996,7 @@
         <v>0.545669087606208</v>
       </c>
       <c r="H320" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10016,7 +10022,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H321" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10042,7 +10048,7 @@
         <v>0.425</v>
       </c>
       <c r="H322" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10068,7 +10074,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H323" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10094,7 +10100,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H324" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10120,7 +10126,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H325" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10146,7 +10152,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H326" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10172,7 +10178,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H327" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10198,7 +10204,7 @@
         <v>0.6583333333333333</v>
       </c>
       <c r="H328" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10224,7 +10230,7 @@
         <v>0.475</v>
       </c>
       <c r="H329" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10250,7 +10256,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H330" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10276,7 +10282,7 @@
         <v>0.45</v>
       </c>
       <c r="H331" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10348,7 +10354,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H334" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10374,7 +10380,7 @@
         <v>0.5</v>
       </c>
       <c r="H335" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10400,7 +10406,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H336" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10426,7 +10432,7 @@
         <v>0.5</v>
       </c>
       <c r="H337" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10452,7 +10458,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H338" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10478,7 +10484,7 @@
         <v>0.3583333333333333</v>
       </c>
       <c r="H339" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10504,7 +10510,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H340" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10530,7 +10536,7 @@
         <v>0.55</v>
       </c>
       <c r="H341" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10556,7 +10562,7 @@
         <v>0.55</v>
       </c>
       <c r="H342" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10582,7 +10588,7 @@
         <v>0.55</v>
       </c>
       <c r="H343" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10608,7 +10614,7 @@
         <v>0.6</v>
       </c>
       <c r="H344" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10634,7 +10640,7 @@
         <v>0.75</v>
       </c>
       <c r="H345" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10660,7 +10666,7 @@
         <v>0.65</v>
       </c>
       <c r="H346" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10686,7 +10692,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H347" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10712,7 +10718,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H348" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10738,7 +10744,7 @@
         <v>0.5</v>
       </c>
       <c r="H349" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10764,7 +10770,7 @@
         <v>0.65</v>
       </c>
       <c r="H350" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10790,7 +10796,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H351" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10816,7 +10822,7 @@
         <v>0.65</v>
       </c>
       <c r="H352" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10842,7 +10848,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H353" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10868,7 +10874,7 @@
         <v>0.65</v>
       </c>
       <c r="H354" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10894,7 +10900,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H355" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10920,7 +10926,7 @@
         <v>0.4</v>
       </c>
       <c r="H356" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10946,7 +10952,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H357" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10972,7 +10978,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H358" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10998,7 +11004,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H359" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11024,7 +11030,7 @@
         <v>0.4</v>
       </c>
       <c r="H360" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11050,7 +11056,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H361" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11076,7 +11082,7 @@
         <v>0.15</v>
       </c>
       <c r="H362" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11102,7 +11108,7 @@
         <v>0.15</v>
       </c>
       <c r="H363" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11128,7 +11134,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H364" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11154,7 +11160,7 @@
         <v>0.55</v>
       </c>
       <c r="H365" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11180,7 +11186,7 @@
         <v>0.5</v>
       </c>
       <c r="H366" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11206,7 +11212,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H367" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11232,7 +11238,7 @@
         <v>0.4</v>
       </c>
       <c r="H368" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11258,7 +11264,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H369" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11284,7 +11290,7 @@
         <v>0.35</v>
       </c>
       <c r="H370" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11310,7 +11316,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H371" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11336,7 +11342,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H372" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11362,7 +11368,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H373" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11388,7 +11394,7 @@
         <v>0.55</v>
       </c>
       <c r="H374" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11414,7 +11420,7 @@
         <v>0.4</v>
       </c>
       <c r="H375" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11440,7 +11446,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H376" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11466,7 +11472,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H377" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11492,7 +11498,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H378" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11518,7 +11524,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H379" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11544,7 +11550,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H380" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11570,7 +11576,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H381" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11596,7 +11602,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H382" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11622,7 +11628,7 @@
         <v>0.6</v>
       </c>
       <c r="H383" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11648,7 +11654,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H384" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11674,7 +11680,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H385" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11700,7 +11706,7 @@
         <v>0.45</v>
       </c>
       <c r="H386" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11726,7 +11732,7 @@
         <v>0.75</v>
       </c>
       <c r="H387" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11752,7 +11758,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H388" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11778,7 +11784,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H389" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11804,7 +11810,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H390" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11830,7 +11836,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H391" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11856,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="H392" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11882,7 +11888,7 @@
         <v>0.6</v>
       </c>
       <c r="H393" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11908,7 +11914,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H394" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11934,7 +11940,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H395" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11960,7 +11966,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H396" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -11986,7 +11992,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H397" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12012,7 +12018,7 @@
         <v>0.65</v>
       </c>
       <c r="H398" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12038,7 +12044,7 @@
         <v>0.5</v>
       </c>
       <c r="H399" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12064,7 +12070,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H400" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12090,7 +12096,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H401" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12116,7 +12122,7 @@
         <v>0.6</v>
       </c>
       <c r="H402" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12142,7 +12148,7 @@
         <v>0.55</v>
       </c>
       <c r="H403" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12168,7 +12174,7 @@
         <v>0.65</v>
       </c>
       <c r="H404" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12194,7 +12200,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H405" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12220,7 +12226,7 @@
         <v>0.35</v>
       </c>
       <c r="H406" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12246,7 +12252,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H407" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12272,7 +12278,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H408" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12298,7 +12304,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H409" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12324,7 +12330,7 @@
         <v>0.6</v>
       </c>
       <c r="H410" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12350,7 +12356,7 @@
         <v>0.45</v>
       </c>
       <c r="H411" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12376,7 +12382,7 @@
         <v>0.55</v>
       </c>
       <c r="H412" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12402,7 +12408,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H413" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12428,7 +12434,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H414" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12454,7 +12460,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H415" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12480,7 +12486,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H416" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12506,7 +12512,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H417" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12532,7 +12538,7 @@
         <v>0.45</v>
       </c>
       <c r="H418" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12558,7 +12564,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H419" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12584,7 +12590,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H420" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12610,7 +12616,7 @@
         <v>0.55</v>
       </c>
       <c r="H421" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12636,7 +12642,7 @@
         <v>0.55</v>
       </c>
       <c r="H422" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12662,7 +12668,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H423" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12688,7 +12694,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H424" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -12714,7 +12720,7 @@
         <v>0.5</v>
       </c>
       <c r="H425" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12740,7 +12746,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H426" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -12766,7 +12772,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H427" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12792,7 +12798,7 @@
         <v>0.6</v>
       </c>
       <c r="H428" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -12818,7 +12824,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H429" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -12844,7 +12850,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H430" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -12870,7 +12876,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H431" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -12896,7 +12902,7 @@
         <v>0.6</v>
       </c>
       <c r="H432" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -12922,7 +12928,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H433" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -12948,7 +12954,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H434" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -12974,7 +12980,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H435" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13000,7 +13006,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H436" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13026,7 +13032,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H437" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13052,7 +13058,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H438" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13078,7 +13084,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H439" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13104,7 +13110,7 @@
         <v>0.6</v>
       </c>
       <c r="H440" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13130,7 +13136,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H441" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13156,7 +13162,7 @@
         <v>0.6</v>
       </c>
       <c r="H442" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13182,7 +13188,7 @@
         <v>0.6</v>
       </c>
       <c r="H443" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13208,7 +13214,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H444" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13234,7 +13240,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H445" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13260,7 +13266,7 @@
         <v>0.65</v>
       </c>
       <c r="H446" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13286,7 +13292,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H447" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13312,7 +13318,7 @@
         <v>0.45</v>
       </c>
       <c r="H448" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13338,7 +13344,7 @@
         <v>0.35</v>
       </c>
       <c r="H449" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13364,7 +13370,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H450" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13390,7 +13396,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H451" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13416,7 +13422,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H452" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13442,7 +13448,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H453" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13468,7 +13474,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H454" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13494,7 +13500,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H455" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13520,7 +13526,7 @@
         <v>0.75</v>
       </c>
       <c r="H456" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13546,7 +13552,7 @@
         <v>0.65</v>
       </c>
       <c r="H457" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13572,7 +13578,7 @@
         <v>0.7</v>
       </c>
       <c r="H458" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13598,7 +13604,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H459" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -13624,7 +13630,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H460" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13650,7 +13656,7 @@
         <v>0.55</v>
       </c>
       <c r="H461" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -13676,7 +13682,7 @@
         <v>0.65</v>
       </c>
       <c r="H462" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -13702,7 +13708,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H463" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -13728,7 +13734,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H464" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -13754,7 +13760,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H465" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -13780,7 +13786,7 @@
         <v>0.3</v>
       </c>
       <c r="H466" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -13806,7 +13812,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H467" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -13832,7 +13838,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H468" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -13858,7 +13864,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H469" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -13884,7 +13890,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H470" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -13910,7 +13916,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H471" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -13936,7 +13942,7 @@
         <v>0.5</v>
       </c>
       <c r="H472" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -13962,7 +13968,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H473" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -13988,7 +13994,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H474" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14014,7 +14020,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="H475" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14040,7 +14046,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H476" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14066,7 +14072,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H477" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14092,7 +14098,7 @@
         <v>0.35</v>
       </c>
       <c r="H478" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14118,7 +14124,7 @@
         <v>0.4</v>
       </c>
       <c r="H479" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14144,7 +14150,7 @@
         <v>0.6</v>
       </c>
       <c r="H480" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14170,7 +14176,7 @@
         <v>0.55</v>
       </c>
       <c r="H481" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14196,7 +14202,7 @@
         <v>0.65</v>
       </c>
       <c r="H482" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14222,7 +14228,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H483" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14248,7 +14254,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H484" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14274,7 +14280,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H485" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14300,7 +14306,7 @@
         <v>0.6</v>
       </c>
       <c r="H486" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14326,7 +14332,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H487" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14352,7 +14358,7 @@
         <v>0.8166666666666668</v>
       </c>
       <c r="H488" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14378,7 +14384,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H489" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14404,7 +14410,7 @@
         <v>0.75</v>
       </c>
       <c r="H490" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14430,7 +14436,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H491" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14456,7 +14462,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H492" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14482,7 +14488,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H493" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14508,7 +14514,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H494" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14534,7 +14540,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H495" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14560,7 +14566,7 @@
         <v>0.7</v>
       </c>
       <c r="H496" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14586,7 +14592,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H497" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -14612,7 +14618,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H498" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -14638,7 +14644,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H499" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -14664,7 +14670,7 @@
         <v>0.4</v>
       </c>
       <c r="H500" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -14690,7 +14696,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H501" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -14716,7 +14722,7 @@
         <v>0.6</v>
       </c>
       <c r="H502" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -14742,7 +14748,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H503" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -14768,7 +14774,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H504" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -14794,7 +14800,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H505" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -14820,7 +14826,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H506" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -14846,7 +14852,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H507" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -14872,7 +14878,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H508" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -14898,7 +14904,7 @@
         <v>0.6</v>
       </c>
       <c r="H509" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -14924,7 +14930,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H510" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -14950,7 +14956,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H511" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -14976,7 +14982,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H512" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15002,7 +15008,7 @@
         <v>0.6</v>
       </c>
       <c r="H513" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15028,7 +15034,7 @@
         <v>0.65</v>
       </c>
       <c r="H514" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15054,7 +15060,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H515" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15080,7 +15086,7 @@
         <v>0.55</v>
       </c>
       <c r="H516" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15106,7 +15112,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H517" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15132,7 +15138,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H518" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15158,7 +15164,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H519" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15184,7 +15190,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H520" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15210,7 +15216,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H521" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15236,7 +15242,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H522" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15262,7 +15268,7 @@
         <v>0.55</v>
       </c>
       <c r="H523" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15288,7 +15294,7 @@
         <v>0.6</v>
       </c>
       <c r="H524" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15314,7 +15320,7 @@
         <v>0.45</v>
       </c>
       <c r="H525" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15340,7 +15346,7 @@
         <v>0.65</v>
       </c>
       <c r="H526" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15366,7 +15372,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H527" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15392,7 +15398,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H528" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15418,7 +15424,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H529" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15444,7 +15450,7 @@
         <v>0.6</v>
       </c>
       <c r="H530" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15470,7 +15476,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H531" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15496,7 +15502,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H532" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15522,7 +15528,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H533" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -15548,7 +15554,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H534" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -15574,7 +15580,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H535" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -15600,7 +15606,7 @@
         <v>0.75</v>
       </c>
       <c r="H536" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -15626,7 +15632,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H537" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -15652,7 +15658,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H538" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -15678,7 +15684,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H539" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -15704,7 +15710,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H540" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -15730,7 +15736,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H541" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -15756,7 +15762,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H542" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -15782,7 +15788,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H543" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -15808,7 +15814,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H544" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -15834,7 +15840,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H545" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -15860,7 +15866,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H546" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -15886,7 +15892,7 @@
         <v>0.3</v>
       </c>
       <c r="H547" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -15912,7 +15918,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H548" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -15938,7 +15944,7 @@
         <v>0.4</v>
       </c>
       <c r="H549" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -15964,7 +15970,7 @@
         <v>0.4</v>
       </c>
       <c r="H550" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -15990,7 +15996,7 @@
         <v>0.45</v>
       </c>
       <c r="H551" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16016,7 +16022,7 @@
         <v>0.4</v>
       </c>
       <c r="H552" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16042,7 +16048,7 @@
         <v>0.4</v>
       </c>
       <c r="H553" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16068,7 +16074,7 @@
         <v>0.2</v>
       </c>
       <c r="H554" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16094,7 +16100,7 @@
         <v>0.25</v>
       </c>
       <c r="H555" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16120,7 +16126,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H556" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16146,7 +16152,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H557" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16172,7 +16178,7 @@
         <v>0.35</v>
       </c>
       <c r="H558" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16198,7 +16204,7 @@
         <v>0.3</v>
       </c>
       <c r="H559" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16224,7 +16230,7 @@
         <v>0.1666666666666666</v>
       </c>
       <c r="H560" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16250,7 +16256,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H561" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16276,7 +16282,7 @@
         <v>0.5</v>
       </c>
       <c r="H562" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16302,7 +16308,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H563" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16328,7 +16334,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H564" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16354,7 +16360,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H565" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16380,7 +16386,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H566" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -16406,7 +16412,7 @@
         <v>0.45</v>
       </c>
       <c r="H567" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -16432,7 +16438,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H568" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -16458,7 +16464,7 @@
         <v>0.4</v>
       </c>
       <c r="H569" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -16484,7 +16490,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H570" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -16510,7 +16516,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H571" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -16520,7 +16526,13 @@
       <c r="B572" t="s">
         <v>577</v>
       </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
       <c r="D572">
+        <v>0</v>
+      </c>
+      <c r="E572">
         <v>0</v>
       </c>
       <c r="F572">
@@ -16530,7 +16542,53 @@
         <v>0.45</v>
       </c>
       <c r="H572" t="s">
-        <v>593</v>
+        <v>595</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573" t="s">
+        <v>578</v>
+      </c>
+      <c r="C573">
+        <v>0</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
+      </c>
+      <c r="E573">
+        <v>0</v>
+      </c>
+      <c r="F573">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="G573">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="H573" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574" t="s">
+        <v>579</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
+      </c>
+      <c r="F574">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="G574">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="H574" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyVOC.xlsx
+++ b/firebase_data_from_spyVOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="631">
   <si>
     <t>date</t>
   </si>
@@ -1754,6 +1754,57 @@
   </si>
   <si>
     <t>2025-09-11</t>
+  </si>
+  <si>
+    <t>2025-09-12</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-16</t>
+  </si>
+  <si>
+    <t>2025-09-17</t>
+  </si>
+  <si>
+    <t>2025-09-18</t>
+  </si>
+  <si>
+    <t>2025-09-19</t>
+  </si>
+  <si>
+    <t>2025-09-22</t>
+  </si>
+  <si>
+    <t>2025-09-23</t>
+  </si>
+  <si>
+    <t>2025-09-24</t>
+  </si>
+  <si>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>2025-09-26</t>
+  </si>
+  <si>
+    <t>2025-09-29</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-01</t>
+  </si>
+  <si>
+    <t>2025-10-02</t>
+  </si>
+  <si>
+    <t>2025-10-03</t>
+  </si>
+  <si>
+    <t>2025-10-06</t>
   </si>
   <si>
     <t>50</t>
@@ -2213,7 +2264,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H574"/>
+  <dimension ref="A1:H591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2357,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6408,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6434,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6460,7 +6511,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6486,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6512,7 +6563,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6538,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6564,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6590,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6616,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6642,7 +6693,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6668,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6694,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6720,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6746,7 +6797,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6772,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6798,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6824,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6850,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6876,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6902,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6928,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6954,7 +7005,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6980,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7006,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7032,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7058,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7084,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7110,7 +7161,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7136,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7162,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7188,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7214,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7240,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7266,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7292,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7318,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7344,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7370,7 +7421,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7396,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7422,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7448,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7474,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7500,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7526,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7552,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7578,7 +7629,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7604,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7630,7 +7681,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7656,7 +7707,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7682,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7708,7 +7759,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7734,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7760,7 +7811,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7786,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7812,7 +7863,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7838,7 +7889,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7864,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7890,7 +7941,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7916,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7942,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7968,7 +8019,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7994,7 +8045,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8020,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8046,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8072,7 +8123,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8098,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8124,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8150,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8176,7 +8227,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8202,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8228,7 +8279,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8254,7 +8305,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8280,7 +8331,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8306,7 +8357,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8332,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8358,7 +8409,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8384,7 +8435,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8410,7 +8461,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8436,7 +8487,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8462,7 +8513,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8488,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8514,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8540,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8566,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8592,7 +8643,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8618,7 +8669,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8644,7 +8695,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8670,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8696,7 +8747,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8722,7 +8773,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8748,7 +8799,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8774,7 +8825,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8800,7 +8851,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8826,7 +8877,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8852,7 +8903,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8878,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8904,7 +8955,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8930,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8956,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8982,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9008,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9034,7 +9085,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9060,7 +9111,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9086,7 +9137,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9112,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9138,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9164,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9190,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9216,7 +9267,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9242,7 +9293,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9268,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9294,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9320,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9346,7 +9397,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H295" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9372,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9398,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9424,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9450,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9476,7 +9527,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9502,7 +9553,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9528,7 +9579,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9554,7 +9605,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9580,7 +9631,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9606,7 +9657,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9632,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9658,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9684,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9710,7 +9761,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9736,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9762,7 +9813,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9788,7 +9839,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9814,7 +9865,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9840,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9866,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9892,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9918,7 +9969,7 @@
         <v>1</v>
       </c>
       <c r="H317" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9944,7 +9995,7 @@
         <v>0.5653002550708918</v>
       </c>
       <c r="H318" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9970,7 +10021,7 @@
         <v>0.5200419117488183</v>
       </c>
       <c r="H319" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9996,7 +10047,7 @@
         <v>0.545669087606208</v>
       </c>
       <c r="H320" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10022,7 +10073,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H321" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10048,7 +10099,7 @@
         <v>0.425</v>
       </c>
       <c r="H322" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10074,7 +10125,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H323" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10100,7 +10151,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H324" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10126,7 +10177,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H325" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10152,7 +10203,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H326" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10178,7 +10229,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H327" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10204,7 +10255,7 @@
         <v>0.6583333333333333</v>
       </c>
       <c r="H328" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10230,7 +10281,7 @@
         <v>0.475</v>
       </c>
       <c r="H329" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10256,7 +10307,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H330" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10282,7 +10333,7 @@
         <v>0.45</v>
       </c>
       <c r="H331" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10354,7 +10405,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H334" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10380,7 +10431,7 @@
         <v>0.5</v>
       </c>
       <c r="H335" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10406,7 +10457,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H336" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10432,7 +10483,7 @@
         <v>0.5</v>
       </c>
       <c r="H337" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10458,7 +10509,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H338" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10484,7 +10535,7 @@
         <v>0.3583333333333333</v>
       </c>
       <c r="H339" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10510,7 +10561,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H340" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10536,7 +10587,7 @@
         <v>0.55</v>
       </c>
       <c r="H341" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10562,7 +10613,7 @@
         <v>0.55</v>
       </c>
       <c r="H342" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10588,7 +10639,7 @@
         <v>0.55</v>
       </c>
       <c r="H343" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10614,7 +10665,7 @@
         <v>0.6</v>
       </c>
       <c r="H344" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10640,7 +10691,7 @@
         <v>0.75</v>
       </c>
       <c r="H345" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10666,7 +10717,7 @@
         <v>0.65</v>
       </c>
       <c r="H346" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10692,7 +10743,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H347" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10718,7 +10769,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H348" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10744,7 +10795,7 @@
         <v>0.5</v>
       </c>
       <c r="H349" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10770,7 +10821,7 @@
         <v>0.65</v>
       </c>
       <c r="H350" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10796,7 +10847,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H351" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10822,7 +10873,7 @@
         <v>0.65</v>
       </c>
       <c r="H352" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10848,7 +10899,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H353" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10874,7 +10925,7 @@
         <v>0.65</v>
       </c>
       <c r="H354" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10900,7 +10951,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H355" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10926,7 +10977,7 @@
         <v>0.4</v>
       </c>
       <c r="H356" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10952,7 +11003,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H357" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10978,7 +11029,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H358" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11004,7 +11055,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H359" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11030,7 +11081,7 @@
         <v>0.4</v>
       </c>
       <c r="H360" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11056,7 +11107,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H361" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11082,7 +11133,7 @@
         <v>0.15</v>
       </c>
       <c r="H362" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11108,7 +11159,7 @@
         <v>0.15</v>
       </c>
       <c r="H363" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11134,7 +11185,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H364" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11160,7 +11211,7 @@
         <v>0.55</v>
       </c>
       <c r="H365" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11186,7 +11237,7 @@
         <v>0.5</v>
       </c>
       <c r="H366" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11212,7 +11263,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H367" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11238,7 +11289,7 @@
         <v>0.4</v>
       </c>
       <c r="H368" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11264,7 +11315,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H369" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11290,7 +11341,7 @@
         <v>0.35</v>
       </c>
       <c r="H370" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11316,7 +11367,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H371" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11342,7 +11393,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H372" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11368,7 +11419,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H373" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11394,7 +11445,7 @@
         <v>0.55</v>
       </c>
       <c r="H374" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11420,7 +11471,7 @@
         <v>0.4</v>
       </c>
       <c r="H375" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11446,7 +11497,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H376" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11472,7 +11523,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H377" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11498,7 +11549,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H378" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11524,7 +11575,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H379" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11550,7 +11601,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H380" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11576,7 +11627,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H381" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11602,7 +11653,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H382" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11628,7 +11679,7 @@
         <v>0.6</v>
       </c>
       <c r="H383" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11654,7 +11705,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H384" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11680,7 +11731,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H385" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11706,7 +11757,7 @@
         <v>0.45</v>
       </c>
       <c r="H386" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11732,7 +11783,7 @@
         <v>0.75</v>
       </c>
       <c r="H387" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11758,7 +11809,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H388" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11784,7 +11835,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H389" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11810,7 +11861,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H390" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11836,7 +11887,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H391" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11862,7 +11913,7 @@
         <v>0.5</v>
       </c>
       <c r="H392" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11888,7 +11939,7 @@
         <v>0.6</v>
       </c>
       <c r="H393" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11914,7 +11965,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H394" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11940,7 +11991,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H395" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11966,7 +12017,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H396" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -11992,7 +12043,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H397" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12018,7 +12069,7 @@
         <v>0.65</v>
       </c>
       <c r="H398" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12044,7 +12095,7 @@
         <v>0.5</v>
       </c>
       <c r="H399" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12070,7 +12121,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H400" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12096,7 +12147,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H401" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12122,7 +12173,7 @@
         <v>0.6</v>
       </c>
       <c r="H402" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12148,7 +12199,7 @@
         <v>0.55</v>
       </c>
       <c r="H403" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12174,7 +12225,7 @@
         <v>0.65</v>
       </c>
       <c r="H404" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12200,7 +12251,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H405" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12226,7 +12277,7 @@
         <v>0.35</v>
       </c>
       <c r="H406" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12252,7 +12303,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H407" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12278,7 +12329,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H408" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12304,7 +12355,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H409" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12330,7 +12381,7 @@
         <v>0.6</v>
       </c>
       <c r="H410" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12356,7 +12407,7 @@
         <v>0.45</v>
       </c>
       <c r="H411" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12382,7 +12433,7 @@
         <v>0.55</v>
       </c>
       <c r="H412" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12408,7 +12459,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H413" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12434,7 +12485,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H414" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12460,7 +12511,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H415" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12486,7 +12537,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H416" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12512,7 +12563,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H417" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12538,7 +12589,7 @@
         <v>0.45</v>
       </c>
       <c r="H418" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12564,7 +12615,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H419" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12590,7 +12641,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H420" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12616,7 +12667,7 @@
         <v>0.55</v>
       </c>
       <c r="H421" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12642,7 +12693,7 @@
         <v>0.55</v>
       </c>
       <c r="H422" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12668,7 +12719,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H423" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12694,7 +12745,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H424" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -12720,7 +12771,7 @@
         <v>0.5</v>
       </c>
       <c r="H425" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12746,7 +12797,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H426" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -12772,7 +12823,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H427" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12798,7 +12849,7 @@
         <v>0.6</v>
       </c>
       <c r="H428" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -12824,7 +12875,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H429" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -12850,7 +12901,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H430" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -12876,7 +12927,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H431" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -12902,7 +12953,7 @@
         <v>0.6</v>
       </c>
       <c r="H432" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -12928,7 +12979,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H433" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -12954,7 +13005,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H434" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -12980,7 +13031,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H435" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13006,7 +13057,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H436" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13032,7 +13083,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H437" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13058,7 +13109,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H438" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13084,7 +13135,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H439" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13110,7 +13161,7 @@
         <v>0.6</v>
       </c>
       <c r="H440" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13136,7 +13187,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H441" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13162,7 +13213,7 @@
         <v>0.6</v>
       </c>
       <c r="H442" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13188,7 +13239,7 @@
         <v>0.6</v>
       </c>
       <c r="H443" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13214,7 +13265,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H444" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13240,7 +13291,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H445" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13266,7 +13317,7 @@
         <v>0.65</v>
       </c>
       <c r="H446" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13292,7 +13343,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H447" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13318,7 +13369,7 @@
         <v>0.45</v>
       </c>
       <c r="H448" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13344,7 +13395,7 @@
         <v>0.35</v>
       </c>
       <c r="H449" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13370,7 +13421,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H450" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13396,7 +13447,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H451" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13422,7 +13473,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H452" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13448,7 +13499,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H453" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13474,7 +13525,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H454" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13500,7 +13551,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H455" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13526,7 +13577,7 @@
         <v>0.75</v>
       </c>
       <c r="H456" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13552,7 +13603,7 @@
         <v>0.65</v>
       </c>
       <c r="H457" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13578,7 +13629,7 @@
         <v>0.7</v>
       </c>
       <c r="H458" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13604,7 +13655,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H459" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -13630,7 +13681,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H460" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13656,7 +13707,7 @@
         <v>0.55</v>
       </c>
       <c r="H461" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -13682,7 +13733,7 @@
         <v>0.65</v>
       </c>
       <c r="H462" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -13708,7 +13759,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H463" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -13734,7 +13785,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H464" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -13760,7 +13811,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H465" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -13786,7 +13837,7 @@
         <v>0.3</v>
       </c>
       <c r="H466" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -13812,7 +13863,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H467" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -13838,7 +13889,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H468" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -13864,7 +13915,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H469" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -13890,7 +13941,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H470" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -13916,7 +13967,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H471" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -13942,7 +13993,7 @@
         <v>0.5</v>
       </c>
       <c r="H472" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -13968,7 +14019,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H473" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -13994,7 +14045,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H474" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14020,7 +14071,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="H475" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14046,7 +14097,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H476" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14072,7 +14123,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H477" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14098,7 +14149,7 @@
         <v>0.35</v>
       </c>
       <c r="H478" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14124,7 +14175,7 @@
         <v>0.4</v>
       </c>
       <c r="H479" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14150,7 +14201,7 @@
         <v>0.6</v>
       </c>
       <c r="H480" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14176,7 +14227,7 @@
         <v>0.55</v>
       </c>
       <c r="H481" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14202,7 +14253,7 @@
         <v>0.65</v>
       </c>
       <c r="H482" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14228,7 +14279,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H483" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14254,7 +14305,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H484" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14280,7 +14331,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H485" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14306,7 +14357,7 @@
         <v>0.6</v>
       </c>
       <c r="H486" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14332,7 +14383,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H487" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14358,7 +14409,7 @@
         <v>0.8166666666666668</v>
       </c>
       <c r="H488" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14384,7 +14435,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H489" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14410,7 +14461,7 @@
         <v>0.75</v>
       </c>
       <c r="H490" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14436,7 +14487,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H491" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14462,7 +14513,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H492" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14488,7 +14539,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H493" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14514,7 +14565,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H494" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14540,7 +14591,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H495" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14566,7 +14617,7 @@
         <v>0.7</v>
       </c>
       <c r="H496" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14592,7 +14643,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H497" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -14618,7 +14669,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H498" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -14644,7 +14695,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H499" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -14670,7 +14721,7 @@
         <v>0.4</v>
       </c>
       <c r="H500" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -14696,7 +14747,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H501" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -14722,7 +14773,7 @@
         <v>0.6</v>
       </c>
       <c r="H502" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -14748,7 +14799,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H503" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -14774,7 +14825,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H504" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -14800,7 +14851,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H505" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -14826,7 +14877,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H506" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -14852,7 +14903,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H507" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -14878,7 +14929,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H508" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -14904,7 +14955,7 @@
         <v>0.6</v>
       </c>
       <c r="H509" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -14930,7 +14981,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H510" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -14956,7 +15007,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H511" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -14982,7 +15033,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H512" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15008,7 +15059,7 @@
         <v>0.6</v>
       </c>
       <c r="H513" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15034,7 +15085,7 @@
         <v>0.65</v>
       </c>
       <c r="H514" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15060,7 +15111,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H515" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15086,7 +15137,7 @@
         <v>0.55</v>
       </c>
       <c r="H516" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15112,7 +15163,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H517" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15138,7 +15189,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H518" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15164,7 +15215,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H519" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15190,7 +15241,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H520" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15216,7 +15267,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H521" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15242,7 +15293,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H522" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15268,7 +15319,7 @@
         <v>0.55</v>
       </c>
       <c r="H523" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15294,7 +15345,7 @@
         <v>0.6</v>
       </c>
       <c r="H524" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15320,7 +15371,7 @@
         <v>0.45</v>
       </c>
       <c r="H525" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15346,7 +15397,7 @@
         <v>0.65</v>
       </c>
       <c r="H526" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15372,7 +15423,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H527" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15398,7 +15449,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H528" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15424,7 +15475,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H529" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15450,7 +15501,7 @@
         <v>0.6</v>
       </c>
       <c r="H530" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15476,7 +15527,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H531" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15502,7 +15553,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H532" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15528,7 +15579,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H533" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -15554,7 +15605,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H534" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -15580,7 +15631,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H535" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -15606,7 +15657,7 @@
         <v>0.75</v>
       </c>
       <c r="H536" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -15632,7 +15683,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H537" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -15658,7 +15709,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H538" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -15684,7 +15735,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H539" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -15710,7 +15761,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H540" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -15736,7 +15787,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H541" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -15762,7 +15813,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H542" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -15788,7 +15839,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H543" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -15814,7 +15865,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H544" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -15840,7 +15891,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H545" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -15866,7 +15917,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H546" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -15892,7 +15943,7 @@
         <v>0.3</v>
       </c>
       <c r="H547" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -15918,7 +15969,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H548" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -15944,7 +15995,7 @@
         <v>0.4</v>
       </c>
       <c r="H549" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -15970,7 +16021,7 @@
         <v>0.4</v>
       </c>
       <c r="H550" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -15996,7 +16047,7 @@
         <v>0.45</v>
       </c>
       <c r="H551" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16022,7 +16073,7 @@
         <v>0.4</v>
       </c>
       <c r="H552" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16048,7 +16099,7 @@
         <v>0.4</v>
       </c>
       <c r="H553" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16074,7 +16125,7 @@
         <v>0.2</v>
       </c>
       <c r="H554" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16100,7 +16151,7 @@
         <v>0.25</v>
       </c>
       <c r="H555" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16126,7 +16177,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H556" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16152,7 +16203,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H557" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16178,7 +16229,7 @@
         <v>0.35</v>
       </c>
       <c r="H558" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16204,7 +16255,7 @@
         <v>0.3</v>
       </c>
       <c r="H559" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16230,7 +16281,7 @@
         <v>0.1666666666666666</v>
       </c>
       <c r="H560" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16256,7 +16307,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H561" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16282,7 +16333,7 @@
         <v>0.5</v>
       </c>
       <c r="H562" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16308,7 +16359,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H563" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16334,7 +16385,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H564" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16360,7 +16411,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H565" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16386,7 +16437,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H566" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -16412,7 +16463,7 @@
         <v>0.45</v>
       </c>
       <c r="H567" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -16438,7 +16489,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H568" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -16464,7 +16515,7 @@
         <v>0.4</v>
       </c>
       <c r="H569" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -16490,7 +16541,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H570" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -16516,7 +16567,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H571" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -16542,7 +16593,7 @@
         <v>0.45</v>
       </c>
       <c r="H572" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -16568,7 +16619,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H573" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -16578,7 +16629,13 @@
       <c r="B574" t="s">
         <v>579</v>
       </c>
+      <c r="C574">
+        <v>1</v>
+      </c>
       <c r="D574">
+        <v>1</v>
+      </c>
+      <c r="E574">
         <v>1</v>
       </c>
       <c r="F574">
@@ -16588,7 +16645,443 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H574" t="s">
-        <v>598</v>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8">
+      <c r="A575" s="1">
+        <v>573</v>
+      </c>
+      <c r="B575" t="s">
+        <v>580</v>
+      </c>
+      <c r="C575">
+        <v>1</v>
+      </c>
+      <c r="D575">
+        <v>1</v>
+      </c>
+      <c r="E575">
+        <v>1</v>
+      </c>
+      <c r="F575">
+        <v>0.45</v>
+      </c>
+      <c r="G575">
+        <v>0.55</v>
+      </c>
+      <c r="H575" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8">
+      <c r="A576" s="1">
+        <v>574</v>
+      </c>
+      <c r="B576" t="s">
+        <v>581</v>
+      </c>
+      <c r="C576">
+        <v>1</v>
+      </c>
+      <c r="D576">
+        <v>1</v>
+      </c>
+      <c r="E576">
+        <v>1</v>
+      </c>
+      <c r="F576">
+        <v>0.3166666666666667</v>
+      </c>
+      <c r="G576">
+        <v>0.6833333333333332</v>
+      </c>
+      <c r="H576" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8">
+      <c r="A577" s="1">
+        <v>575</v>
+      </c>
+      <c r="B577" t="s">
+        <v>582</v>
+      </c>
+      <c r="C577">
+        <v>1</v>
+      </c>
+      <c r="D577">
+        <v>1</v>
+      </c>
+      <c r="E577">
+        <v>1</v>
+      </c>
+      <c r="F577">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="G577">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="H577" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8">
+      <c r="A578" s="1">
+        <v>576</v>
+      </c>
+      <c r="B578" t="s">
+        <v>583</v>
+      </c>
+      <c r="C578">
+        <v>1</v>
+      </c>
+      <c r="D578">
+        <v>1</v>
+      </c>
+      <c r="E578">
+        <v>1</v>
+      </c>
+      <c r="F578">
+        <v>0.35</v>
+      </c>
+      <c r="G578">
+        <v>0.65</v>
+      </c>
+      <c r="H578" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8">
+      <c r="A579" s="1">
+        <v>577</v>
+      </c>
+      <c r="B579" t="s">
+        <v>584</v>
+      </c>
+      <c r="C579">
+        <v>1</v>
+      </c>
+      <c r="D579">
+        <v>1</v>
+      </c>
+      <c r="E579">
+        <v>1</v>
+      </c>
+      <c r="F579">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="G579">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="H579" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8">
+      <c r="A580" s="1">
+        <v>578</v>
+      </c>
+      <c r="B580" t="s">
+        <v>585</v>
+      </c>
+      <c r="C580">
+        <v>1</v>
+      </c>
+      <c r="D580">
+        <v>1</v>
+      </c>
+      <c r="E580">
+        <v>1</v>
+      </c>
+      <c r="F580">
+        <v>0.4</v>
+      </c>
+      <c r="G580">
+        <v>0.6</v>
+      </c>
+      <c r="H580" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8">
+      <c r="A581" s="1">
+        <v>579</v>
+      </c>
+      <c r="B581" t="s">
+        <v>586</v>
+      </c>
+      <c r="C581">
+        <v>1</v>
+      </c>
+      <c r="D581">
+        <v>1</v>
+      </c>
+      <c r="E581">
+        <v>1</v>
+      </c>
+      <c r="F581">
+        <v>0.4666666666666666</v>
+      </c>
+      <c r="G581">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="H581" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8">
+      <c r="A582" s="1">
+        <v>580</v>
+      </c>
+      <c r="B582" t="s">
+        <v>587</v>
+      </c>
+      <c r="C582">
+        <v>1</v>
+      </c>
+      <c r="D582">
+        <v>1</v>
+      </c>
+      <c r="E582">
+        <v>1</v>
+      </c>
+      <c r="F582">
+        <v>0.4666666666666666</v>
+      </c>
+      <c r="G582">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="H582" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8">
+      <c r="A583" s="1">
+        <v>581</v>
+      </c>
+      <c r="B583" t="s">
+        <v>588</v>
+      </c>
+      <c r="C583">
+        <v>1</v>
+      </c>
+      <c r="D583">
+        <v>1</v>
+      </c>
+      <c r="E583">
+        <v>1</v>
+      </c>
+      <c r="F583">
+        <v>0.4833333333333333</v>
+      </c>
+      <c r="G583">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="H583" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8">
+      <c r="A584" s="1">
+        <v>582</v>
+      </c>
+      <c r="B584" t="s">
+        <v>589</v>
+      </c>
+      <c r="C584">
+        <v>1</v>
+      </c>
+      <c r="D584">
+        <v>1</v>
+      </c>
+      <c r="E584">
+        <v>1</v>
+      </c>
+      <c r="F584">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="G584">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="H584" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8">
+      <c r="A585" s="1">
+        <v>583</v>
+      </c>
+      <c r="B585" t="s">
+        <v>590</v>
+      </c>
+      <c r="C585">
+        <v>1</v>
+      </c>
+      <c r="D585">
+        <v>1</v>
+      </c>
+      <c r="E585">
+        <v>1</v>
+      </c>
+      <c r="F585">
+        <v>0.3833333333333334</v>
+      </c>
+      <c r="G585">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="H585" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8">
+      <c r="A586" s="1">
+        <v>584</v>
+      </c>
+      <c r="B586" t="s">
+        <v>591</v>
+      </c>
+      <c r="C586">
+        <v>0</v>
+      </c>
+      <c r="D586">
+        <v>1</v>
+      </c>
+      <c r="E586">
+        <v>0</v>
+      </c>
+      <c r="F586">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="G586">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="H586" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8">
+      <c r="A587" s="1">
+        <v>585</v>
+      </c>
+      <c r="B587" t="s">
+        <v>592</v>
+      </c>
+      <c r="C587">
+        <v>1</v>
+      </c>
+      <c r="D587">
+        <v>1</v>
+      </c>
+      <c r="E587">
+        <v>1</v>
+      </c>
+      <c r="F587">
+        <v>0.45</v>
+      </c>
+      <c r="G587">
+        <v>0.55</v>
+      </c>
+      <c r="H587" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8">
+      <c r="A588" s="1">
+        <v>586</v>
+      </c>
+      <c r="B588" t="s">
+        <v>593</v>
+      </c>
+      <c r="C588">
+        <v>0</v>
+      </c>
+      <c r="D588">
+        <v>1</v>
+      </c>
+      <c r="E588">
+        <v>0</v>
+      </c>
+      <c r="F588">
+        <v>0.4666666666666666</v>
+      </c>
+      <c r="G588">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="H588" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8">
+      <c r="A589" s="1">
+        <v>587</v>
+      </c>
+      <c r="B589" t="s">
+        <v>594</v>
+      </c>
+      <c r="C589">
+        <v>0</v>
+      </c>
+      <c r="D589">
+        <v>1</v>
+      </c>
+      <c r="E589">
+        <v>0</v>
+      </c>
+      <c r="F589">
+        <v>0.4833333333333333</v>
+      </c>
+      <c r="G589">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="H589" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8">
+      <c r="A590" s="1">
+        <v>588</v>
+      </c>
+      <c r="B590" t="s">
+        <v>595</v>
+      </c>
+      <c r="C590">
+        <v>1</v>
+      </c>
+      <c r="D590">
+        <v>0</v>
+      </c>
+      <c r="E590">
+        <v>0</v>
+      </c>
+      <c r="F590">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="G590">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="H590" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8">
+      <c r="A591" s="1">
+        <v>589</v>
+      </c>
+      <c r="B591" t="s">
+        <v>596</v>
+      </c>
+      <c r="D591">
+        <v>0</v>
+      </c>
+      <c r="F591">
+        <v>0.6</v>
+      </c>
+      <c r="G591">
+        <v>0.4</v>
+      </c>
+      <c r="H591" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyVOC.xlsx
+++ b/firebase_data_from_spyVOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="655">
   <si>
     <t>date</t>
   </si>
@@ -1850,6 +1850,33 @@
   </si>
   <si>
     <t>2025-10-27</t>
+  </si>
+  <si>
+    <t>2025-10-28</t>
+  </si>
+  <si>
+    <t>2025-10-29</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-10-31</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
   </si>
   <si>
     <t>50</t>
@@ -2309,7 +2336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H606"/>
+  <dimension ref="A1:H615"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2453,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6504,7 +6531,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6530,7 +6557,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6556,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6582,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6608,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6634,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6660,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6686,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6712,7 +6739,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6738,7 +6765,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6764,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6790,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6816,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6842,7 +6869,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6868,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6894,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6920,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6946,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6972,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6998,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7024,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7050,7 +7077,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7076,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7102,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7128,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7154,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7180,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7206,7 +7233,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7232,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7258,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7284,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7310,7 +7337,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7336,7 +7363,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7362,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7388,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7414,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7440,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7466,7 +7493,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7492,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7518,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7544,7 +7571,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7570,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7596,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7622,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7648,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7674,7 +7701,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7700,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7726,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7752,7 +7779,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7778,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7804,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7830,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7856,7 +7883,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7882,7 +7909,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7908,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7934,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7960,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7986,7 +8013,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8012,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8038,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8064,7 +8091,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8090,7 +8117,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8116,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8142,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8168,7 +8195,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8194,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8220,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8246,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8272,7 +8299,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8298,7 +8325,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8324,7 +8351,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8350,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8376,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8402,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8428,7 +8455,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8454,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8480,7 +8507,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8506,7 +8533,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8532,7 +8559,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8558,7 +8585,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8584,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8610,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8636,7 +8663,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8662,7 +8689,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8688,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8714,7 +8741,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8740,7 +8767,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8766,7 +8793,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8792,7 +8819,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8818,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8844,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8870,7 +8897,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8896,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8922,7 +8949,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8948,7 +8975,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8974,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9000,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9026,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9052,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9078,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9104,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9130,7 +9157,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9156,7 +9183,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9182,7 +9209,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9208,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9234,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9260,7 +9287,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9286,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9312,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9338,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9364,7 +9391,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9390,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9416,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9442,7 +9469,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H295" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9468,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9494,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9520,7 +9547,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9546,7 +9573,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9572,7 +9599,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9598,7 +9625,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9624,7 +9651,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9650,7 +9677,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9676,7 +9703,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9702,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9728,7 +9755,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9754,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9780,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9806,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9832,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9858,7 +9885,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9884,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9910,7 +9937,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9936,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9962,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9988,7 +10015,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10014,7 +10041,7 @@
         <v>1</v>
       </c>
       <c r="H317" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10040,7 +10067,7 @@
         <v>0.5653002550708918</v>
       </c>
       <c r="H318" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10066,7 +10093,7 @@
         <v>0.5200419117488183</v>
       </c>
       <c r="H319" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10092,7 +10119,7 @@
         <v>0.545669087606208</v>
       </c>
       <c r="H320" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10118,7 +10145,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H321" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10144,7 +10171,7 @@
         <v>0.425</v>
       </c>
       <c r="H322" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10170,7 +10197,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H323" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10196,7 +10223,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H324" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10222,7 +10249,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H325" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10248,7 +10275,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H326" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10274,7 +10301,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H327" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10300,7 +10327,7 @@
         <v>0.6583333333333333</v>
       </c>
       <c r="H328" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10326,7 +10353,7 @@
         <v>0.475</v>
       </c>
       <c r="H329" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10352,7 +10379,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H330" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10378,7 +10405,7 @@
         <v>0.45</v>
       </c>
       <c r="H331" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10450,7 +10477,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H334" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10476,7 +10503,7 @@
         <v>0.5</v>
       </c>
       <c r="H335" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10502,7 +10529,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H336" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10528,7 +10555,7 @@
         <v>0.5</v>
       </c>
       <c r="H337" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10554,7 +10581,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H338" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10580,7 +10607,7 @@
         <v>0.3583333333333333</v>
       </c>
       <c r="H339" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10606,7 +10633,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H340" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10632,7 +10659,7 @@
         <v>0.55</v>
       </c>
       <c r="H341" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10658,7 +10685,7 @@
         <v>0.55</v>
       </c>
       <c r="H342" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10684,7 +10711,7 @@
         <v>0.55</v>
       </c>
       <c r="H343" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10710,7 +10737,7 @@
         <v>0.6</v>
       </c>
       <c r="H344" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10736,7 +10763,7 @@
         <v>0.75</v>
       </c>
       <c r="H345" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10762,7 +10789,7 @@
         <v>0.65</v>
       </c>
       <c r="H346" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10788,7 +10815,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H347" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10814,7 +10841,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H348" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10840,7 +10867,7 @@
         <v>0.5</v>
       </c>
       <c r="H349" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10866,7 +10893,7 @@
         <v>0.65</v>
       </c>
       <c r="H350" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10892,7 +10919,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H351" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10918,7 +10945,7 @@
         <v>0.65</v>
       </c>
       <c r="H352" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10944,7 +10971,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H353" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10970,7 +10997,7 @@
         <v>0.65</v>
       </c>
       <c r="H354" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10996,7 +11023,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H355" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11022,7 +11049,7 @@
         <v>0.4</v>
       </c>
       <c r="H356" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11048,7 +11075,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H357" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11074,7 +11101,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H358" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11100,7 +11127,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H359" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11126,7 +11153,7 @@
         <v>0.4</v>
       </c>
       <c r="H360" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11152,7 +11179,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H361" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11178,7 +11205,7 @@
         <v>0.15</v>
       </c>
       <c r="H362" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11204,7 +11231,7 @@
         <v>0.15</v>
       </c>
       <c r="H363" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11230,7 +11257,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H364" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11256,7 +11283,7 @@
         <v>0.55</v>
       </c>
       <c r="H365" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11282,7 +11309,7 @@
         <v>0.5</v>
       </c>
       <c r="H366" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11308,7 +11335,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H367" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11334,7 +11361,7 @@
         <v>0.4</v>
       </c>
       <c r="H368" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11360,7 +11387,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H369" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11386,7 +11413,7 @@
         <v>0.35</v>
       </c>
       <c r="H370" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11412,7 +11439,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H371" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11438,7 +11465,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H372" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11464,7 +11491,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H373" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11490,7 +11517,7 @@
         <v>0.55</v>
       </c>
       <c r="H374" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11516,7 +11543,7 @@
         <v>0.4</v>
       </c>
       <c r="H375" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11542,7 +11569,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H376" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11568,7 +11595,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H377" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11594,7 +11621,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H378" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11620,7 +11647,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H379" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11646,7 +11673,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H380" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11672,7 +11699,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H381" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11698,7 +11725,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H382" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11724,7 +11751,7 @@
         <v>0.6</v>
       </c>
       <c r="H383" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11750,7 +11777,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H384" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11776,7 +11803,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H385" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11802,7 +11829,7 @@
         <v>0.45</v>
       </c>
       <c r="H386" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11828,7 +11855,7 @@
         <v>0.75</v>
       </c>
       <c r="H387" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11854,7 +11881,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H388" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11880,7 +11907,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H389" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11906,7 +11933,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H390" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11932,7 +11959,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H391" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11958,7 +11985,7 @@
         <v>0.5</v>
       </c>
       <c r="H392" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11984,7 +12011,7 @@
         <v>0.6</v>
       </c>
       <c r="H393" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12010,7 +12037,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H394" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12036,7 +12063,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H395" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12062,7 +12089,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H396" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12088,7 +12115,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H397" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12114,7 +12141,7 @@
         <v>0.65</v>
       </c>
       <c r="H398" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12140,7 +12167,7 @@
         <v>0.5</v>
       </c>
       <c r="H399" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12166,7 +12193,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H400" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12192,7 +12219,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H401" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12218,7 +12245,7 @@
         <v>0.6</v>
       </c>
       <c r="H402" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12244,7 +12271,7 @@
         <v>0.55</v>
       </c>
       <c r="H403" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12270,7 +12297,7 @@
         <v>0.65</v>
       </c>
       <c r="H404" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12296,7 +12323,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H405" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12322,7 +12349,7 @@
         <v>0.35</v>
       </c>
       <c r="H406" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12348,7 +12375,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H407" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12374,7 +12401,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H408" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12400,7 +12427,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H409" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12426,7 +12453,7 @@
         <v>0.6</v>
       </c>
       <c r="H410" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12452,7 +12479,7 @@
         <v>0.45</v>
       </c>
       <c r="H411" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12478,7 +12505,7 @@
         <v>0.55</v>
       </c>
       <c r="H412" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12504,7 +12531,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H413" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12530,7 +12557,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H414" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12556,7 +12583,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H415" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12582,7 +12609,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H416" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12608,7 +12635,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H417" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12634,7 +12661,7 @@
         <v>0.45</v>
       </c>
       <c r="H418" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12660,7 +12687,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H419" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12686,7 +12713,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H420" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12712,7 +12739,7 @@
         <v>0.55</v>
       </c>
       <c r="H421" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12738,7 +12765,7 @@
         <v>0.55</v>
       </c>
       <c r="H422" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12764,7 +12791,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H423" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12790,7 +12817,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H424" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -12816,7 +12843,7 @@
         <v>0.5</v>
       </c>
       <c r="H425" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12842,7 +12869,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H426" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -12868,7 +12895,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H427" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12894,7 +12921,7 @@
         <v>0.6</v>
       </c>
       <c r="H428" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -12920,7 +12947,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H429" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -12946,7 +12973,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H430" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -12972,7 +12999,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H431" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -12998,7 +13025,7 @@
         <v>0.6</v>
       </c>
       <c r="H432" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13024,7 +13051,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H433" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13050,7 +13077,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H434" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13076,7 +13103,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H435" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13102,7 +13129,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H436" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13128,7 +13155,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H437" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13154,7 +13181,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H438" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13180,7 +13207,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H439" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13206,7 +13233,7 @@
         <v>0.6</v>
       </c>
       <c r="H440" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13232,7 +13259,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H441" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13258,7 +13285,7 @@
         <v>0.6</v>
       </c>
       <c r="H442" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13284,7 +13311,7 @@
         <v>0.6</v>
       </c>
       <c r="H443" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13310,7 +13337,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H444" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13336,7 +13363,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H445" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13362,7 +13389,7 @@
         <v>0.65</v>
       </c>
       <c r="H446" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13388,7 +13415,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H447" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13414,7 +13441,7 @@
         <v>0.45</v>
       </c>
       <c r="H448" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13440,7 +13467,7 @@
         <v>0.35</v>
       </c>
       <c r="H449" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13466,7 +13493,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H450" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13492,7 +13519,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H451" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13518,7 +13545,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H452" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13544,7 +13571,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H453" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13570,7 +13597,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H454" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13596,7 +13623,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H455" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13622,7 +13649,7 @@
         <v>0.75</v>
       </c>
       <c r="H456" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13648,7 +13675,7 @@
         <v>0.65</v>
       </c>
       <c r="H457" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13674,7 +13701,7 @@
         <v>0.7</v>
       </c>
       <c r="H458" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13700,7 +13727,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H459" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -13726,7 +13753,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H460" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13752,7 +13779,7 @@
         <v>0.55</v>
       </c>
       <c r="H461" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -13778,7 +13805,7 @@
         <v>0.65</v>
       </c>
       <c r="H462" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -13804,7 +13831,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H463" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -13830,7 +13857,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H464" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -13856,7 +13883,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H465" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -13882,7 +13909,7 @@
         <v>0.3</v>
       </c>
       <c r="H466" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -13908,7 +13935,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H467" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -13934,7 +13961,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H468" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -13960,7 +13987,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H469" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -13986,7 +14013,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H470" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14012,7 +14039,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H471" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14038,7 +14065,7 @@
         <v>0.5</v>
       </c>
       <c r="H472" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14064,7 +14091,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H473" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14090,7 +14117,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H474" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14116,7 +14143,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="H475" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14142,7 +14169,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H476" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14168,7 +14195,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H477" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14194,7 +14221,7 @@
         <v>0.35</v>
       </c>
       <c r="H478" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14220,7 +14247,7 @@
         <v>0.4</v>
       </c>
       <c r="H479" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14246,7 +14273,7 @@
         <v>0.6</v>
       </c>
       <c r="H480" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14272,7 +14299,7 @@
         <v>0.55</v>
       </c>
       <c r="H481" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14298,7 +14325,7 @@
         <v>0.65</v>
       </c>
       <c r="H482" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14324,7 +14351,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H483" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14350,7 +14377,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H484" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14376,7 +14403,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H485" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14402,7 +14429,7 @@
         <v>0.6</v>
       </c>
       <c r="H486" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14428,7 +14455,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H487" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14454,7 +14481,7 @@
         <v>0.8166666666666668</v>
       </c>
       <c r="H488" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14480,7 +14507,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H489" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14506,7 +14533,7 @@
         <v>0.75</v>
       </c>
       <c r="H490" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14532,7 +14559,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H491" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14558,7 +14585,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H492" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14584,7 +14611,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H493" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14610,7 +14637,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H494" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14636,7 +14663,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H495" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14662,7 +14689,7 @@
         <v>0.7</v>
       </c>
       <c r="H496" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14688,7 +14715,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H497" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -14714,7 +14741,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H498" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -14740,7 +14767,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H499" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -14766,7 +14793,7 @@
         <v>0.4</v>
       </c>
       <c r="H500" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -14792,7 +14819,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H501" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -14818,7 +14845,7 @@
         <v>0.6</v>
       </c>
       <c r="H502" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -14844,7 +14871,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H503" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -14870,7 +14897,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H504" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -14896,7 +14923,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H505" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -14922,7 +14949,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H506" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -14948,7 +14975,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H507" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -14974,7 +15001,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H508" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15000,7 +15027,7 @@
         <v>0.6</v>
       </c>
       <c r="H509" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15026,7 +15053,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H510" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15052,7 +15079,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H511" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15078,7 +15105,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H512" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15104,7 +15131,7 @@
         <v>0.6</v>
       </c>
       <c r="H513" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15130,7 +15157,7 @@
         <v>0.65</v>
       </c>
       <c r="H514" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15156,7 +15183,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H515" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15182,7 +15209,7 @@
         <v>0.55</v>
       </c>
       <c r="H516" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15208,7 +15235,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H517" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15234,7 +15261,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H518" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15260,7 +15287,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H519" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15286,7 +15313,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H520" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15312,7 +15339,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H521" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15338,7 +15365,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H522" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15364,7 +15391,7 @@
         <v>0.55</v>
       </c>
       <c r="H523" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15390,7 +15417,7 @@
         <v>0.6</v>
       </c>
       <c r="H524" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15416,7 +15443,7 @@
         <v>0.45</v>
       </c>
       <c r="H525" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15442,7 +15469,7 @@
         <v>0.65</v>
       </c>
       <c r="H526" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15468,7 +15495,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H527" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15494,7 +15521,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H528" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15520,7 +15547,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H529" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15546,7 +15573,7 @@
         <v>0.6</v>
       </c>
       <c r="H530" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15572,7 +15599,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H531" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15598,7 +15625,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H532" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15624,7 +15651,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H533" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -15650,7 +15677,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H534" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -15676,7 +15703,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H535" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -15702,7 +15729,7 @@
         <v>0.75</v>
       </c>
       <c r="H536" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -15728,7 +15755,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H537" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -15754,7 +15781,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H538" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -15780,7 +15807,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H539" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -15806,7 +15833,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H540" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -15832,7 +15859,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H541" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -15858,7 +15885,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H542" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -15884,7 +15911,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H543" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -15910,7 +15937,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H544" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -15936,7 +15963,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H545" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -15962,7 +15989,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H546" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -15988,7 +16015,7 @@
         <v>0.3</v>
       </c>
       <c r="H547" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16014,7 +16041,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H548" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16040,7 +16067,7 @@
         <v>0.4</v>
       </c>
       <c r="H549" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16066,7 +16093,7 @@
         <v>0.4</v>
       </c>
       <c r="H550" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16092,7 +16119,7 @@
         <v>0.45</v>
       </c>
       <c r="H551" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16118,7 +16145,7 @@
         <v>0.4</v>
       </c>
       <c r="H552" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16144,7 +16171,7 @@
         <v>0.4</v>
       </c>
       <c r="H553" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16170,7 +16197,7 @@
         <v>0.2</v>
       </c>
       <c r="H554" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16196,7 +16223,7 @@
         <v>0.25</v>
       </c>
       <c r="H555" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16222,7 +16249,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H556" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16248,7 +16275,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H557" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16274,7 +16301,7 @@
         <v>0.35</v>
       </c>
       <c r="H558" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16300,7 +16327,7 @@
         <v>0.3</v>
       </c>
       <c r="H559" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16326,7 +16353,7 @@
         <v>0.1666666666666666</v>
       </c>
       <c r="H560" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16352,7 +16379,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H561" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16378,7 +16405,7 @@
         <v>0.5</v>
       </c>
       <c r="H562" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16404,7 +16431,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H563" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16430,7 +16457,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H564" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16456,7 +16483,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H565" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16482,7 +16509,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H566" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -16508,7 +16535,7 @@
         <v>0.45</v>
       </c>
       <c r="H567" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -16534,7 +16561,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H568" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -16560,7 +16587,7 @@
         <v>0.4</v>
       </c>
       <c r="H569" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -16586,7 +16613,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H570" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -16612,7 +16639,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H571" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -16638,7 +16665,7 @@
         <v>0.45</v>
       </c>
       <c r="H572" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -16664,7 +16691,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H573" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -16690,7 +16717,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H574" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -16716,7 +16743,7 @@
         <v>0.55</v>
       </c>
       <c r="H575" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -16742,7 +16769,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H576" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -16768,7 +16795,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H577" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -16794,7 +16821,7 @@
         <v>0.65</v>
       </c>
       <c r="H578" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -16820,7 +16847,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H579" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -16846,7 +16873,7 @@
         <v>0.6</v>
       </c>
       <c r="H580" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -16872,7 +16899,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H581" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -16898,7 +16925,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H582" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -16924,7 +16951,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H583" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -16950,7 +16977,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H584" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -16976,7 +17003,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H585" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -17002,7 +17029,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H586" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -17028,7 +17055,7 @@
         <v>0.55</v>
       </c>
       <c r="H587" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -17054,7 +17081,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H588" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -17080,7 +17107,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H589" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -17106,7 +17133,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H590" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -17132,7 +17159,7 @@
         <v>0.4</v>
       </c>
       <c r="H591" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -17158,7 +17185,7 @@
         <v>0.4</v>
       </c>
       <c r="H592" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -17184,7 +17211,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H593" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -17210,7 +17237,7 @@
         <v>0.35</v>
       </c>
       <c r="H594" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -17236,7 +17263,7 @@
         <v>0.4</v>
       </c>
       <c r="H595" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -17262,7 +17289,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H596" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -17288,7 +17315,7 @@
         <v>0.45</v>
       </c>
       <c r="H597" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -17314,7 +17341,7 @@
         <v>0.75</v>
       </c>
       <c r="H598" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -17340,7 +17367,7 @@
         <v>0.45</v>
       </c>
       <c r="H599" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -17366,7 +17393,7 @@
         <v>0.45</v>
       </c>
       <c r="H600" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -17392,7 +17419,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H601" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -17418,7 +17445,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H602" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -17444,7 +17471,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H603" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -17470,7 +17497,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H604" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -17496,7 +17523,7 @@
         <v>0.3</v>
       </c>
       <c r="H605" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -17506,7 +17533,13 @@
       <c r="B606" t="s">
         <v>611</v>
       </c>
+      <c r="C606">
+        <v>1</v>
+      </c>
       <c r="D606">
+        <v>0</v>
+      </c>
+      <c r="E606">
         <v>0</v>
       </c>
       <c r="F606">
@@ -17516,7 +17549,235 @@
         <v>0.3</v>
       </c>
       <c r="H606" t="s">
-        <v>641</v>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8">
+      <c r="A607" s="1">
+        <v>605</v>
+      </c>
+      <c r="B607" t="s">
+        <v>612</v>
+      </c>
+      <c r="C607">
+        <v>1</v>
+      </c>
+      <c r="D607">
+        <v>0</v>
+      </c>
+      <c r="E607">
+        <v>0</v>
+      </c>
+      <c r="F607">
+        <v>0.55</v>
+      </c>
+      <c r="G607">
+        <v>0.45</v>
+      </c>
+      <c r="H607" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8">
+      <c r="A608" s="1">
+        <v>606</v>
+      </c>
+      <c r="B608" t="s">
+        <v>613</v>
+      </c>
+      <c r="C608">
+        <v>0</v>
+      </c>
+      <c r="D608">
+        <v>1</v>
+      </c>
+      <c r="E608">
+        <v>0</v>
+      </c>
+      <c r="F608">
+        <v>0.4</v>
+      </c>
+      <c r="G608">
+        <v>0.6</v>
+      </c>
+      <c r="H608" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8">
+      <c r="A609" s="1">
+        <v>607</v>
+      </c>
+      <c r="B609" t="s">
+        <v>614</v>
+      </c>
+      <c r="C609">
+        <v>0</v>
+      </c>
+      <c r="D609">
+        <v>0</v>
+      </c>
+      <c r="E609">
+        <v>1</v>
+      </c>
+      <c r="F609">
+        <v>0.65</v>
+      </c>
+      <c r="G609">
+        <v>0.35</v>
+      </c>
+      <c r="H609" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8">
+      <c r="A610" s="1">
+        <v>608</v>
+      </c>
+      <c r="B610" t="s">
+        <v>615</v>
+      </c>
+      <c r="C610">
+        <v>0</v>
+      </c>
+      <c r="D610">
+        <v>0</v>
+      </c>
+      <c r="E610">
+        <v>1</v>
+      </c>
+      <c r="F610">
+        <v>0.55</v>
+      </c>
+      <c r="G610">
+        <v>0.45</v>
+      </c>
+      <c r="H610" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8">
+      <c r="A611" s="1">
+        <v>609</v>
+      </c>
+      <c r="B611" t="s">
+        <v>616</v>
+      </c>
+      <c r="C611">
+        <v>0</v>
+      </c>
+      <c r="D611">
+        <v>0</v>
+      </c>
+      <c r="E611">
+        <v>1</v>
+      </c>
+      <c r="F611">
+        <v>0.6833333333333332</v>
+      </c>
+      <c r="G611">
+        <v>0.3166666666666667</v>
+      </c>
+      <c r="H611" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8">
+      <c r="A612" s="1">
+        <v>610</v>
+      </c>
+      <c r="B612" t="s">
+        <v>617</v>
+      </c>
+      <c r="C612">
+        <v>0</v>
+      </c>
+      <c r="D612">
+        <v>0</v>
+      </c>
+      <c r="E612">
+        <v>1</v>
+      </c>
+      <c r="F612">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="G612">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="H612" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8">
+      <c r="A613" s="1">
+        <v>611</v>
+      </c>
+      <c r="B613" t="s">
+        <v>618</v>
+      </c>
+      <c r="C613">
+        <v>1</v>
+      </c>
+      <c r="D613">
+        <v>0</v>
+      </c>
+      <c r="E613">
+        <v>0</v>
+      </c>
+      <c r="F613">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="G613">
+        <v>0.2833333333333333</v>
+      </c>
+      <c r="H613" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8">
+      <c r="A614" s="1">
+        <v>612</v>
+      </c>
+      <c r="B614" t="s">
+        <v>619</v>
+      </c>
+      <c r="C614">
+        <v>0</v>
+      </c>
+      <c r="D614">
+        <v>0</v>
+      </c>
+      <c r="E614">
+        <v>1</v>
+      </c>
+      <c r="F614">
+        <v>0.55</v>
+      </c>
+      <c r="G614">
+        <v>0.45</v>
+      </c>
+      <c r="H614" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8">
+      <c r="A615" s="1">
+        <v>613</v>
+      </c>
+      <c r="B615" t="s">
+        <v>620</v>
+      </c>
+      <c r="D615">
+        <v>0</v>
+      </c>
+      <c r="F615">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="G615">
+        <v>0.4833333333333333</v>
+      </c>
+      <c r="H615" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyVOC.xlsx
+++ b/firebase_data_from_spyVOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="659">
   <si>
     <t>date</t>
   </si>
@@ -1877,6 +1877,18 @@
   </si>
   <si>
     <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
   </si>
   <si>
     <t>50</t>
@@ -2336,7 +2348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H615"/>
+  <dimension ref="A1:H619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2480,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6531,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6557,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6583,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6609,7 +6621,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6635,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6661,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6687,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6713,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6739,7 +6751,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6765,7 +6777,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6791,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6817,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6843,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6869,7 +6881,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6895,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6921,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6947,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6973,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6999,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7025,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7051,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7077,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7103,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7129,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7155,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7181,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7207,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7233,7 +7245,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7259,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7285,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7311,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7337,7 +7349,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7363,7 +7375,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7389,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7415,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7441,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7467,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7493,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7519,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7545,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7571,7 +7583,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7597,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7623,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7649,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7675,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7701,7 +7713,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7727,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7753,7 +7765,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7779,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7805,7 +7817,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7831,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7857,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7883,7 +7895,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7909,7 +7921,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7935,7 +7947,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7961,7 +7973,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7987,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8013,7 +8025,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8039,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8065,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8091,7 +8103,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8117,7 +8129,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8143,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8169,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8195,7 +8207,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8221,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8247,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8273,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8299,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8325,7 +8337,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8351,7 +8363,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8377,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8403,7 +8415,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8429,7 +8441,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8455,7 +8467,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8481,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8507,7 +8519,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8533,7 +8545,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8559,7 +8571,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8585,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8611,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8637,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8663,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8689,7 +8701,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8715,7 +8727,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8741,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8767,7 +8779,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8793,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8819,7 +8831,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8845,7 +8857,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8871,7 +8883,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8897,7 +8909,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8923,7 +8935,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8949,7 +8961,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8975,7 +8987,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9001,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9027,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9053,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9079,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9105,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9131,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9157,7 +9169,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9183,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9209,7 +9221,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9235,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9261,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9287,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9313,7 +9325,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9339,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9365,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9391,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9417,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9443,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9469,7 +9481,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H295" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9495,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9521,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9547,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9573,7 +9585,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9599,7 +9611,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9625,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9651,7 +9663,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9677,7 +9689,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9703,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9729,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9755,7 +9767,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9781,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9807,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9833,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9859,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9885,7 +9897,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9911,7 +9923,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9937,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9963,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9989,7 +10001,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10015,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10041,7 +10053,7 @@
         <v>1</v>
       </c>
       <c r="H317" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10067,7 +10079,7 @@
         <v>0.5653002550708918</v>
       </c>
       <c r="H318" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10093,7 +10105,7 @@
         <v>0.5200419117488183</v>
       </c>
       <c r="H319" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10119,7 +10131,7 @@
         <v>0.545669087606208</v>
       </c>
       <c r="H320" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10145,7 +10157,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H321" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10171,7 +10183,7 @@
         <v>0.425</v>
       </c>
       <c r="H322" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10197,7 +10209,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H323" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10223,7 +10235,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H324" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10249,7 +10261,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H325" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10275,7 +10287,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H326" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10301,7 +10313,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H327" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10327,7 +10339,7 @@
         <v>0.6583333333333333</v>
       </c>
       <c r="H328" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10353,7 +10365,7 @@
         <v>0.475</v>
       </c>
       <c r="H329" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10379,7 +10391,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H330" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10405,7 +10417,7 @@
         <v>0.45</v>
       </c>
       <c r="H331" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10477,7 +10489,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H334" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10503,7 +10515,7 @@
         <v>0.5</v>
       </c>
       <c r="H335" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10529,7 +10541,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H336" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10555,7 +10567,7 @@
         <v>0.5</v>
       </c>
       <c r="H337" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10581,7 +10593,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H338" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10607,7 +10619,7 @@
         <v>0.3583333333333333</v>
       </c>
       <c r="H339" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10633,7 +10645,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H340" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10659,7 +10671,7 @@
         <v>0.55</v>
       </c>
       <c r="H341" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10685,7 +10697,7 @@
         <v>0.55</v>
       </c>
       <c r="H342" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10711,7 +10723,7 @@
         <v>0.55</v>
       </c>
       <c r="H343" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10737,7 +10749,7 @@
         <v>0.6</v>
       </c>
       <c r="H344" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10763,7 +10775,7 @@
         <v>0.75</v>
       </c>
       <c r="H345" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10789,7 +10801,7 @@
         <v>0.65</v>
       </c>
       <c r="H346" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10815,7 +10827,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H347" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10841,7 +10853,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H348" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10867,7 +10879,7 @@
         <v>0.5</v>
       </c>
       <c r="H349" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10893,7 +10905,7 @@
         <v>0.65</v>
       </c>
       <c r="H350" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10919,7 +10931,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H351" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10945,7 +10957,7 @@
         <v>0.65</v>
       </c>
       <c r="H352" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10971,7 +10983,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H353" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10997,7 +11009,7 @@
         <v>0.65</v>
       </c>
       <c r="H354" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11023,7 +11035,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H355" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11049,7 +11061,7 @@
         <v>0.4</v>
       </c>
       <c r="H356" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11075,7 +11087,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H357" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11101,7 +11113,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H358" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11127,7 +11139,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H359" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11153,7 +11165,7 @@
         <v>0.4</v>
       </c>
       <c r="H360" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11179,7 +11191,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H361" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11205,7 +11217,7 @@
         <v>0.15</v>
       </c>
       <c r="H362" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11231,7 +11243,7 @@
         <v>0.15</v>
       </c>
       <c r="H363" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11257,7 +11269,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H364" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11283,7 +11295,7 @@
         <v>0.55</v>
       </c>
       <c r="H365" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11309,7 +11321,7 @@
         <v>0.5</v>
       </c>
       <c r="H366" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11335,7 +11347,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H367" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11361,7 +11373,7 @@
         <v>0.4</v>
       </c>
       <c r="H368" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11387,7 +11399,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H369" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11413,7 +11425,7 @@
         <v>0.35</v>
       </c>
       <c r="H370" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11439,7 +11451,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H371" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11465,7 +11477,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H372" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11491,7 +11503,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H373" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11517,7 +11529,7 @@
         <v>0.55</v>
       </c>
       <c r="H374" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11543,7 +11555,7 @@
         <v>0.4</v>
       </c>
       <c r="H375" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11569,7 +11581,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H376" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11595,7 +11607,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H377" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11621,7 +11633,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H378" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11647,7 +11659,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H379" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11673,7 +11685,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H380" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11699,7 +11711,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H381" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11725,7 +11737,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H382" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11751,7 +11763,7 @@
         <v>0.6</v>
       </c>
       <c r="H383" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11777,7 +11789,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H384" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11803,7 +11815,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H385" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11829,7 +11841,7 @@
         <v>0.45</v>
       </c>
       <c r="H386" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11855,7 +11867,7 @@
         <v>0.75</v>
       </c>
       <c r="H387" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11881,7 +11893,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H388" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11907,7 +11919,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H389" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11933,7 +11945,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H390" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11959,7 +11971,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H391" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11985,7 +11997,7 @@
         <v>0.5</v>
       </c>
       <c r="H392" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12011,7 +12023,7 @@
         <v>0.6</v>
       </c>
       <c r="H393" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12037,7 +12049,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H394" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12063,7 +12075,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H395" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12089,7 +12101,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H396" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12115,7 +12127,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H397" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12141,7 +12153,7 @@
         <v>0.65</v>
       </c>
       <c r="H398" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12167,7 +12179,7 @@
         <v>0.5</v>
       </c>
       <c r="H399" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12193,7 +12205,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H400" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12219,7 +12231,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H401" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12245,7 +12257,7 @@
         <v>0.6</v>
       </c>
       <c r="H402" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12271,7 +12283,7 @@
         <v>0.55</v>
       </c>
       <c r="H403" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12297,7 +12309,7 @@
         <v>0.65</v>
       </c>
       <c r="H404" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12323,7 +12335,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H405" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12349,7 +12361,7 @@
         <v>0.35</v>
       </c>
       <c r="H406" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12375,7 +12387,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H407" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12401,7 +12413,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H408" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12427,7 +12439,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H409" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12453,7 +12465,7 @@
         <v>0.6</v>
       </c>
       <c r="H410" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12479,7 +12491,7 @@
         <v>0.45</v>
       </c>
       <c r="H411" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12505,7 +12517,7 @@
         <v>0.55</v>
       </c>
       <c r="H412" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12531,7 +12543,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H413" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12557,7 +12569,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H414" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12583,7 +12595,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H415" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12609,7 +12621,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H416" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12635,7 +12647,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H417" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12661,7 +12673,7 @@
         <v>0.45</v>
       </c>
       <c r="H418" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12687,7 +12699,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H419" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12713,7 +12725,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H420" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12739,7 +12751,7 @@
         <v>0.55</v>
       </c>
       <c r="H421" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12765,7 +12777,7 @@
         <v>0.55</v>
       </c>
       <c r="H422" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12791,7 +12803,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H423" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12817,7 +12829,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H424" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -12843,7 +12855,7 @@
         <v>0.5</v>
       </c>
       <c r="H425" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12869,7 +12881,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H426" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -12895,7 +12907,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H427" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12921,7 +12933,7 @@
         <v>0.6</v>
       </c>
       <c r="H428" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -12947,7 +12959,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H429" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -12973,7 +12985,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H430" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -12999,7 +13011,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H431" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13025,7 +13037,7 @@
         <v>0.6</v>
       </c>
       <c r="H432" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13051,7 +13063,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H433" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13077,7 +13089,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H434" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13103,7 +13115,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H435" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13129,7 +13141,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H436" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13155,7 +13167,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H437" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13181,7 +13193,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H438" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13207,7 +13219,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H439" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13233,7 +13245,7 @@
         <v>0.6</v>
       </c>
       <c r="H440" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13259,7 +13271,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H441" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13285,7 +13297,7 @@
         <v>0.6</v>
       </c>
       <c r="H442" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13311,7 +13323,7 @@
         <v>0.6</v>
       </c>
       <c r="H443" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13337,7 +13349,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H444" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13363,7 +13375,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H445" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13389,7 +13401,7 @@
         <v>0.65</v>
       </c>
       <c r="H446" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13415,7 +13427,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H447" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13441,7 +13453,7 @@
         <v>0.45</v>
       </c>
       <c r="H448" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13467,7 +13479,7 @@
         <v>0.35</v>
       </c>
       <c r="H449" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13493,7 +13505,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H450" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13519,7 +13531,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H451" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13545,7 +13557,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H452" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13571,7 +13583,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H453" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13597,7 +13609,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H454" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13623,7 +13635,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H455" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13649,7 +13661,7 @@
         <v>0.75</v>
       </c>
       <c r="H456" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13675,7 +13687,7 @@
         <v>0.65</v>
       </c>
       <c r="H457" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13701,7 +13713,7 @@
         <v>0.7</v>
       </c>
       <c r="H458" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13727,7 +13739,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H459" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -13753,7 +13765,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H460" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13779,7 +13791,7 @@
         <v>0.55</v>
       </c>
       <c r="H461" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -13805,7 +13817,7 @@
         <v>0.65</v>
       </c>
       <c r="H462" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -13831,7 +13843,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H463" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -13857,7 +13869,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H464" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -13883,7 +13895,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H465" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -13909,7 +13921,7 @@
         <v>0.3</v>
       </c>
       <c r="H466" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -13935,7 +13947,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H467" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -13961,7 +13973,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H468" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -13987,7 +13999,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H469" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14013,7 +14025,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H470" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14039,7 +14051,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H471" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14065,7 +14077,7 @@
         <v>0.5</v>
       </c>
       <c r="H472" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14091,7 +14103,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H473" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14117,7 +14129,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H474" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14143,7 +14155,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="H475" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14169,7 +14181,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H476" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14195,7 +14207,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H477" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14221,7 +14233,7 @@
         <v>0.35</v>
       </c>
       <c r="H478" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14247,7 +14259,7 @@
         <v>0.4</v>
       </c>
       <c r="H479" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14273,7 +14285,7 @@
         <v>0.6</v>
       </c>
       <c r="H480" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14299,7 +14311,7 @@
         <v>0.55</v>
       </c>
       <c r="H481" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14325,7 +14337,7 @@
         <v>0.65</v>
       </c>
       <c r="H482" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14351,7 +14363,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H483" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14377,7 +14389,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H484" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14403,7 +14415,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H485" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14429,7 +14441,7 @@
         <v>0.6</v>
       </c>
       <c r="H486" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14455,7 +14467,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H487" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14481,7 +14493,7 @@
         <v>0.8166666666666668</v>
       </c>
       <c r="H488" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14507,7 +14519,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H489" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14533,7 +14545,7 @@
         <v>0.75</v>
       </c>
       <c r="H490" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14559,7 +14571,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H491" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14585,7 +14597,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H492" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14611,7 +14623,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H493" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14637,7 +14649,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H494" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14663,7 +14675,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H495" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14689,7 +14701,7 @@
         <v>0.7</v>
       </c>
       <c r="H496" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14715,7 +14727,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H497" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -14741,7 +14753,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H498" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -14767,7 +14779,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H499" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -14793,7 +14805,7 @@
         <v>0.4</v>
       </c>
       <c r="H500" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -14819,7 +14831,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H501" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -14845,7 +14857,7 @@
         <v>0.6</v>
       </c>
       <c r="H502" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -14871,7 +14883,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H503" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -14897,7 +14909,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H504" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -14923,7 +14935,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H505" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -14949,7 +14961,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H506" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -14975,7 +14987,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H507" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15001,7 +15013,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H508" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15027,7 +15039,7 @@
         <v>0.6</v>
       </c>
       <c r="H509" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15053,7 +15065,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H510" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15079,7 +15091,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H511" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15105,7 +15117,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H512" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15131,7 +15143,7 @@
         <v>0.6</v>
       </c>
       <c r="H513" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15157,7 +15169,7 @@
         <v>0.65</v>
       </c>
       <c r="H514" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15183,7 +15195,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H515" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15209,7 +15221,7 @@
         <v>0.55</v>
       </c>
       <c r="H516" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15235,7 +15247,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H517" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15261,7 +15273,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H518" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15287,7 +15299,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H519" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15313,7 +15325,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H520" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15339,7 +15351,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H521" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15365,7 +15377,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H522" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15391,7 +15403,7 @@
         <v>0.55</v>
       </c>
       <c r="H523" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15417,7 +15429,7 @@
         <v>0.6</v>
       </c>
       <c r="H524" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15443,7 +15455,7 @@
         <v>0.45</v>
       </c>
       <c r="H525" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15469,7 +15481,7 @@
         <v>0.65</v>
       </c>
       <c r="H526" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15495,7 +15507,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H527" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15521,7 +15533,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H528" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15547,7 +15559,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H529" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15573,7 +15585,7 @@
         <v>0.6</v>
       </c>
       <c r="H530" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15599,7 +15611,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H531" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15625,7 +15637,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H532" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15651,7 +15663,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H533" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -15677,7 +15689,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H534" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -15703,7 +15715,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H535" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -15729,7 +15741,7 @@
         <v>0.75</v>
       </c>
       <c r="H536" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -15755,7 +15767,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H537" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -15781,7 +15793,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H538" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -15807,7 +15819,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H539" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -15833,7 +15845,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H540" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -15859,7 +15871,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H541" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -15885,7 +15897,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H542" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -15911,7 +15923,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H543" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -15937,7 +15949,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H544" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -15963,7 +15975,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H545" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -15989,7 +16001,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H546" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16015,7 +16027,7 @@
         <v>0.3</v>
       </c>
       <c r="H547" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16041,7 +16053,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H548" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16067,7 +16079,7 @@
         <v>0.4</v>
       </c>
       <c r="H549" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16093,7 +16105,7 @@
         <v>0.4</v>
       </c>
       <c r="H550" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16119,7 +16131,7 @@
         <v>0.45</v>
       </c>
       <c r="H551" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16145,7 +16157,7 @@
         <v>0.4</v>
       </c>
       <c r="H552" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16171,7 +16183,7 @@
         <v>0.4</v>
       </c>
       <c r="H553" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16197,7 +16209,7 @@
         <v>0.2</v>
       </c>
       <c r="H554" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16223,7 +16235,7 @@
         <v>0.25</v>
       </c>
       <c r="H555" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16249,7 +16261,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H556" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16275,7 +16287,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H557" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16301,7 +16313,7 @@
         <v>0.35</v>
       </c>
       <c r="H558" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16327,7 +16339,7 @@
         <v>0.3</v>
       </c>
       <c r="H559" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16353,7 +16365,7 @@
         <v>0.1666666666666666</v>
       </c>
       <c r="H560" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16379,7 +16391,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H561" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16405,7 +16417,7 @@
         <v>0.5</v>
       </c>
       <c r="H562" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16431,7 +16443,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H563" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16457,7 +16469,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H564" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16483,7 +16495,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H565" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16509,7 +16521,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H566" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -16535,7 +16547,7 @@
         <v>0.45</v>
       </c>
       <c r="H567" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -16561,7 +16573,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H568" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -16587,7 +16599,7 @@
         <v>0.4</v>
       </c>
       <c r="H569" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -16613,7 +16625,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H570" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -16639,7 +16651,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H571" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -16665,7 +16677,7 @@
         <v>0.45</v>
       </c>
       <c r="H572" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -16691,7 +16703,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H573" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -16717,7 +16729,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H574" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -16743,7 +16755,7 @@
         <v>0.55</v>
       </c>
       <c r="H575" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -16769,7 +16781,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H576" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -16795,7 +16807,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H577" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -16821,7 +16833,7 @@
         <v>0.65</v>
       </c>
       <c r="H578" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -16847,7 +16859,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H579" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -16873,7 +16885,7 @@
         <v>0.6</v>
       </c>
       <c r="H580" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -16899,7 +16911,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H581" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -16925,7 +16937,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H582" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -16951,7 +16963,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H583" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -16977,7 +16989,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H584" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -17003,7 +17015,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H585" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -17029,7 +17041,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H586" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -17055,7 +17067,7 @@
         <v>0.55</v>
       </c>
       <c r="H587" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -17081,7 +17093,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H588" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -17107,7 +17119,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H589" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -17133,7 +17145,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H590" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -17159,7 +17171,7 @@
         <v>0.4</v>
       </c>
       <c r="H591" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -17185,7 +17197,7 @@
         <v>0.4</v>
       </c>
       <c r="H592" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -17211,7 +17223,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H593" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -17237,7 +17249,7 @@
         <v>0.35</v>
       </c>
       <c r="H594" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -17263,7 +17275,7 @@
         <v>0.4</v>
       </c>
       <c r="H595" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -17289,7 +17301,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H596" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -17315,7 +17327,7 @@
         <v>0.45</v>
       </c>
       <c r="H597" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -17341,7 +17353,7 @@
         <v>0.75</v>
       </c>
       <c r="H598" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -17367,7 +17379,7 @@
         <v>0.45</v>
       </c>
       <c r="H599" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -17393,7 +17405,7 @@
         <v>0.45</v>
       </c>
       <c r="H600" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -17419,7 +17431,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H601" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -17445,7 +17457,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H602" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -17471,7 +17483,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H603" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -17497,7 +17509,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H604" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -17523,7 +17535,7 @@
         <v>0.3</v>
       </c>
       <c r="H605" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -17549,7 +17561,7 @@
         <v>0.3</v>
       </c>
       <c r="H606" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -17575,7 +17587,7 @@
         <v>0.45</v>
       </c>
       <c r="H607" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -17601,7 +17613,7 @@
         <v>0.6</v>
       </c>
       <c r="H608" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -17627,7 +17639,7 @@
         <v>0.35</v>
       </c>
       <c r="H609" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -17653,7 +17665,7 @@
         <v>0.45</v>
       </c>
       <c r="H610" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -17679,7 +17691,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H611" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -17705,7 +17717,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H612" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -17731,7 +17743,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H613" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -17757,7 +17769,7 @@
         <v>0.45</v>
       </c>
       <c r="H614" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -17767,7 +17779,13 @@
       <c r="B615" t="s">
         <v>620</v>
       </c>
+      <c r="C615">
+        <v>1</v>
+      </c>
       <c r="D615">
+        <v>0</v>
+      </c>
+      <c r="E615">
         <v>0</v>
       </c>
       <c r="F615">
@@ -17777,6 +17795,104 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H615" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8">
+      <c r="A616" s="1">
+        <v>614</v>
+      </c>
+      <c r="B616" t="s">
+        <v>621</v>
+      </c>
+      <c r="C616">
+        <v>1</v>
+      </c>
+      <c r="D616">
+        <v>1</v>
+      </c>
+      <c r="E616">
+        <v>1</v>
+      </c>
+      <c r="F616">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="G616">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H616" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8">
+      <c r="A617" s="1">
+        <v>615</v>
+      </c>
+      <c r="B617" t="s">
+        <v>622</v>
+      </c>
+      <c r="C617">
+        <v>1</v>
+      </c>
+      <c r="D617">
+        <v>1</v>
+      </c>
+      <c r="E617">
+        <v>1</v>
+      </c>
+      <c r="F617">
+        <v>0.45</v>
+      </c>
+      <c r="G617">
+        <v>0.55</v>
+      </c>
+      <c r="H617" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8">
+      <c r="A618" s="1">
+        <v>616</v>
+      </c>
+      <c r="B618" t="s">
+        <v>623</v>
+      </c>
+      <c r="C618">
+        <v>0</v>
+      </c>
+      <c r="D618">
+        <v>1</v>
+      </c>
+      <c r="E618">
+        <v>0</v>
+      </c>
+      <c r="F618">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="G618">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H618" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8">
+      <c r="A619" s="1">
+        <v>617</v>
+      </c>
+      <c r="B619" t="s">
+        <v>624</v>
+      </c>
+      <c r="D619">
+        <v>0</v>
+      </c>
+      <c r="F619">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="G619">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="H619" t="s">
         <v>635</v>
       </c>
     </row>

--- a/firebase_data_from_spyVOC.xlsx
+++ b/firebase_data_from_spyVOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="668">
   <si>
     <t>date</t>
   </si>
@@ -1889,6 +1889,33 @@
   </si>
   <si>
     <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
   </si>
   <si>
     <t>50</t>
@@ -2348,7 +2375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H619"/>
+  <dimension ref="A1:H628"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2492,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6543,7 +6570,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6569,7 +6596,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6595,7 +6622,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6621,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6647,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6673,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6699,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6725,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6751,7 +6778,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6777,7 +6804,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6803,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6829,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6855,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6881,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6907,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6933,7 +6960,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6959,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6985,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7011,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7037,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7063,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7089,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7115,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7141,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7167,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7193,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7219,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7245,7 +7272,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7271,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7297,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7323,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7349,7 +7376,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7375,7 +7402,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7401,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7427,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7453,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7479,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7505,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7531,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7557,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7583,7 +7610,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7609,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7635,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7661,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7687,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7713,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7739,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7765,7 +7792,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7791,7 +7818,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7817,7 +7844,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7843,7 +7870,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7869,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7895,7 +7922,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7921,7 +7948,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7947,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7973,7 +8000,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7999,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8025,7 +8052,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8051,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8077,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8103,7 +8130,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8129,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8155,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8181,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8207,7 +8234,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8233,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8259,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8285,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8311,7 +8338,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8337,7 +8364,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8363,7 +8390,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8389,7 +8416,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8415,7 +8442,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8441,7 +8468,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8467,7 +8494,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8493,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8519,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8545,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8571,7 +8598,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8597,7 +8624,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8623,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8649,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8675,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8701,7 +8728,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8727,7 +8754,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8753,7 +8780,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8779,7 +8806,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8805,7 +8832,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8831,7 +8858,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8857,7 +8884,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8883,7 +8910,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8909,7 +8936,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8935,7 +8962,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8961,7 +8988,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8987,7 +9014,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9013,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9039,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9065,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9091,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9117,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9143,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9169,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9195,7 +9222,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9221,7 +9248,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9247,7 +9274,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9273,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9299,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9325,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9351,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9377,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9403,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9429,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9455,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9481,7 +9508,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H295" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9507,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9533,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9559,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9585,7 +9612,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9611,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9637,7 +9664,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9663,7 +9690,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9689,7 +9716,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9715,7 +9742,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9741,7 +9768,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9767,7 +9794,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9793,7 +9820,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9819,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9845,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9871,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9897,7 +9924,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9923,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9949,7 +9976,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9975,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10001,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10027,7 +10054,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10053,7 +10080,7 @@
         <v>1</v>
       </c>
       <c r="H317" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10079,7 +10106,7 @@
         <v>0.5653002550708918</v>
       </c>
       <c r="H318" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10105,7 +10132,7 @@
         <v>0.5200419117488183</v>
       </c>
       <c r="H319" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10131,7 +10158,7 @@
         <v>0.545669087606208</v>
       </c>
       <c r="H320" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10157,7 +10184,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H321" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10183,7 +10210,7 @@
         <v>0.425</v>
       </c>
       <c r="H322" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10209,7 +10236,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H323" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10235,7 +10262,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H324" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10261,7 +10288,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H325" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10287,7 +10314,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H326" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10313,7 +10340,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H327" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10339,7 +10366,7 @@
         <v>0.6583333333333333</v>
       </c>
       <c r="H328" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10365,7 +10392,7 @@
         <v>0.475</v>
       </c>
       <c r="H329" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10391,7 +10418,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H330" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10417,7 +10444,7 @@
         <v>0.45</v>
       </c>
       <c r="H331" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10489,7 +10516,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H334" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10515,7 +10542,7 @@
         <v>0.5</v>
       </c>
       <c r="H335" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10541,7 +10568,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H336" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10567,7 +10594,7 @@
         <v>0.5</v>
       </c>
       <c r="H337" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10593,7 +10620,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H338" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10619,7 +10646,7 @@
         <v>0.3583333333333333</v>
       </c>
       <c r="H339" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10645,7 +10672,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H340" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10671,7 +10698,7 @@
         <v>0.55</v>
       </c>
       <c r="H341" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10697,7 +10724,7 @@
         <v>0.55</v>
       </c>
       <c r="H342" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10723,7 +10750,7 @@
         <v>0.55</v>
       </c>
       <c r="H343" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10749,7 +10776,7 @@
         <v>0.6</v>
       </c>
       <c r="H344" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10775,7 +10802,7 @@
         <v>0.75</v>
       </c>
       <c r="H345" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10801,7 +10828,7 @@
         <v>0.65</v>
       </c>
       <c r="H346" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10827,7 +10854,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H347" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10853,7 +10880,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H348" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10879,7 +10906,7 @@
         <v>0.5</v>
       </c>
       <c r="H349" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10905,7 +10932,7 @@
         <v>0.65</v>
       </c>
       <c r="H350" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10931,7 +10958,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H351" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10957,7 +10984,7 @@
         <v>0.65</v>
       </c>
       <c r="H352" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10983,7 +11010,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H353" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11009,7 +11036,7 @@
         <v>0.65</v>
       </c>
       <c r="H354" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11035,7 +11062,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H355" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11061,7 +11088,7 @@
         <v>0.4</v>
       </c>
       <c r="H356" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11087,7 +11114,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H357" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11113,7 +11140,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H358" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11139,7 +11166,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H359" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11165,7 +11192,7 @@
         <v>0.4</v>
       </c>
       <c r="H360" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11191,7 +11218,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H361" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11217,7 +11244,7 @@
         <v>0.15</v>
       </c>
       <c r="H362" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11243,7 +11270,7 @@
         <v>0.15</v>
       </c>
       <c r="H363" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11269,7 +11296,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H364" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11295,7 +11322,7 @@
         <v>0.55</v>
       </c>
       <c r="H365" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11321,7 +11348,7 @@
         <v>0.5</v>
       </c>
       <c r="H366" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11347,7 +11374,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H367" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11373,7 +11400,7 @@
         <v>0.4</v>
       </c>
       <c r="H368" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11399,7 +11426,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H369" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11425,7 +11452,7 @@
         <v>0.35</v>
       </c>
       <c r="H370" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11451,7 +11478,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H371" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11477,7 +11504,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H372" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11503,7 +11530,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H373" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11529,7 +11556,7 @@
         <v>0.55</v>
       </c>
       <c r="H374" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11555,7 +11582,7 @@
         <v>0.4</v>
       </c>
       <c r="H375" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11581,7 +11608,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H376" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11607,7 +11634,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H377" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11633,7 +11660,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H378" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11659,7 +11686,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H379" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11685,7 +11712,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H380" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11711,7 +11738,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H381" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11737,7 +11764,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H382" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11763,7 +11790,7 @@
         <v>0.6</v>
       </c>
       <c r="H383" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11789,7 +11816,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H384" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11815,7 +11842,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H385" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11841,7 +11868,7 @@
         <v>0.45</v>
       </c>
       <c r="H386" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11867,7 +11894,7 @@
         <v>0.75</v>
       </c>
       <c r="H387" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11893,7 +11920,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H388" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11919,7 +11946,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H389" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11945,7 +11972,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H390" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11971,7 +11998,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H391" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11997,7 +12024,7 @@
         <v>0.5</v>
       </c>
       <c r="H392" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12023,7 +12050,7 @@
         <v>0.6</v>
       </c>
       <c r="H393" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12049,7 +12076,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H394" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12075,7 +12102,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H395" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12101,7 +12128,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H396" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12127,7 +12154,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H397" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12153,7 +12180,7 @@
         <v>0.65</v>
       </c>
       <c r="H398" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12179,7 +12206,7 @@
         <v>0.5</v>
       </c>
       <c r="H399" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12205,7 +12232,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H400" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12231,7 +12258,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H401" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12257,7 +12284,7 @@
         <v>0.6</v>
       </c>
       <c r="H402" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12283,7 +12310,7 @@
         <v>0.55</v>
       </c>
       <c r="H403" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12309,7 +12336,7 @@
         <v>0.65</v>
       </c>
       <c r="H404" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12335,7 +12362,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H405" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12361,7 +12388,7 @@
         <v>0.35</v>
       </c>
       <c r="H406" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12387,7 +12414,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H407" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12413,7 +12440,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H408" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12439,7 +12466,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H409" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12465,7 +12492,7 @@
         <v>0.6</v>
       </c>
       <c r="H410" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12491,7 +12518,7 @@
         <v>0.45</v>
       </c>
       <c r="H411" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12517,7 +12544,7 @@
         <v>0.55</v>
       </c>
       <c r="H412" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12543,7 +12570,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H413" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12569,7 +12596,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H414" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12595,7 +12622,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H415" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12621,7 +12648,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H416" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12647,7 +12674,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H417" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12673,7 +12700,7 @@
         <v>0.45</v>
       </c>
       <c r="H418" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12699,7 +12726,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H419" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12725,7 +12752,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H420" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12751,7 +12778,7 @@
         <v>0.55</v>
       </c>
       <c r="H421" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12777,7 +12804,7 @@
         <v>0.55</v>
       </c>
       <c r="H422" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12803,7 +12830,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H423" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12829,7 +12856,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H424" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -12855,7 +12882,7 @@
         <v>0.5</v>
       </c>
       <c r="H425" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12881,7 +12908,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H426" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -12907,7 +12934,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H427" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12933,7 +12960,7 @@
         <v>0.6</v>
       </c>
       <c r="H428" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -12959,7 +12986,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H429" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -12985,7 +13012,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H430" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13011,7 +13038,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H431" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13037,7 +13064,7 @@
         <v>0.6</v>
       </c>
       <c r="H432" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13063,7 +13090,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H433" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13089,7 +13116,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H434" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13115,7 +13142,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H435" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13141,7 +13168,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H436" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13167,7 +13194,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H437" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13193,7 +13220,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H438" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13219,7 +13246,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H439" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13245,7 +13272,7 @@
         <v>0.6</v>
       </c>
       <c r="H440" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13271,7 +13298,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H441" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13297,7 +13324,7 @@
         <v>0.6</v>
       </c>
       <c r="H442" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13323,7 +13350,7 @@
         <v>0.6</v>
       </c>
       <c r="H443" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13349,7 +13376,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H444" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13375,7 +13402,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H445" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13401,7 +13428,7 @@
         <v>0.65</v>
       </c>
       <c r="H446" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13427,7 +13454,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H447" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13453,7 +13480,7 @@
         <v>0.45</v>
       </c>
       <c r="H448" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13479,7 +13506,7 @@
         <v>0.35</v>
       </c>
       <c r="H449" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13505,7 +13532,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H450" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13531,7 +13558,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H451" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13557,7 +13584,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H452" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13583,7 +13610,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H453" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13609,7 +13636,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H454" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13635,7 +13662,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H455" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13661,7 +13688,7 @@
         <v>0.75</v>
       </c>
       <c r="H456" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13687,7 +13714,7 @@
         <v>0.65</v>
       </c>
       <c r="H457" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13713,7 +13740,7 @@
         <v>0.7</v>
       </c>
       <c r="H458" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13739,7 +13766,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H459" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -13765,7 +13792,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H460" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13791,7 +13818,7 @@
         <v>0.55</v>
       </c>
       <c r="H461" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -13817,7 +13844,7 @@
         <v>0.65</v>
       </c>
       <c r="H462" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -13843,7 +13870,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H463" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -13869,7 +13896,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H464" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -13895,7 +13922,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H465" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -13921,7 +13948,7 @@
         <v>0.3</v>
       </c>
       <c r="H466" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -13947,7 +13974,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H467" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -13973,7 +14000,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H468" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -13999,7 +14026,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H469" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14025,7 +14052,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H470" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14051,7 +14078,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H471" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14077,7 +14104,7 @@
         <v>0.5</v>
       </c>
       <c r="H472" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14103,7 +14130,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H473" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14129,7 +14156,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H474" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14155,7 +14182,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="H475" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14181,7 +14208,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H476" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14207,7 +14234,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H477" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14233,7 +14260,7 @@
         <v>0.35</v>
       </c>
       <c r="H478" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14259,7 +14286,7 @@
         <v>0.4</v>
       </c>
       <c r="H479" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14285,7 +14312,7 @@
         <v>0.6</v>
       </c>
       <c r="H480" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14311,7 +14338,7 @@
         <v>0.55</v>
       </c>
       <c r="H481" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14337,7 +14364,7 @@
         <v>0.65</v>
       </c>
       <c r="H482" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14363,7 +14390,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H483" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14389,7 +14416,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H484" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14415,7 +14442,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H485" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14441,7 +14468,7 @@
         <v>0.6</v>
       </c>
       <c r="H486" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14467,7 +14494,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H487" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14493,7 +14520,7 @@
         <v>0.8166666666666668</v>
       </c>
       <c r="H488" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14519,7 +14546,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H489" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14545,7 +14572,7 @@
         <v>0.75</v>
       </c>
       <c r="H490" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14571,7 +14598,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H491" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14597,7 +14624,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H492" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14623,7 +14650,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H493" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14649,7 +14676,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H494" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14675,7 +14702,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H495" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14701,7 +14728,7 @@
         <v>0.7</v>
       </c>
       <c r="H496" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14727,7 +14754,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H497" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -14753,7 +14780,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H498" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -14779,7 +14806,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H499" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -14805,7 +14832,7 @@
         <v>0.4</v>
       </c>
       <c r="H500" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -14831,7 +14858,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H501" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -14857,7 +14884,7 @@
         <v>0.6</v>
       </c>
       <c r="H502" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -14883,7 +14910,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H503" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -14909,7 +14936,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H504" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -14935,7 +14962,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H505" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -14961,7 +14988,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H506" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -14987,7 +15014,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H507" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15013,7 +15040,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H508" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15039,7 +15066,7 @@
         <v>0.6</v>
       </c>
       <c r="H509" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15065,7 +15092,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H510" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15091,7 +15118,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H511" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15117,7 +15144,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H512" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15143,7 +15170,7 @@
         <v>0.6</v>
       </c>
       <c r="H513" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15169,7 +15196,7 @@
         <v>0.65</v>
       </c>
       <c r="H514" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15195,7 +15222,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H515" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15221,7 +15248,7 @@
         <v>0.55</v>
       </c>
       <c r="H516" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15247,7 +15274,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H517" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15273,7 +15300,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H518" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15299,7 +15326,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H519" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15325,7 +15352,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H520" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15351,7 +15378,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H521" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15377,7 +15404,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H522" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15403,7 +15430,7 @@
         <v>0.55</v>
       </c>
       <c r="H523" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15429,7 +15456,7 @@
         <v>0.6</v>
       </c>
       <c r="H524" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15455,7 +15482,7 @@
         <v>0.45</v>
       </c>
       <c r="H525" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15481,7 +15508,7 @@
         <v>0.65</v>
       </c>
       <c r="H526" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15507,7 +15534,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H527" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15533,7 +15560,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H528" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15559,7 +15586,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H529" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15585,7 +15612,7 @@
         <v>0.6</v>
       </c>
       <c r="H530" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15611,7 +15638,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H531" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15637,7 +15664,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H532" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15663,7 +15690,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H533" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -15689,7 +15716,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H534" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -15715,7 +15742,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H535" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -15741,7 +15768,7 @@
         <v>0.75</v>
       </c>
       <c r="H536" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -15767,7 +15794,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H537" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -15793,7 +15820,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H538" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -15819,7 +15846,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H539" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -15845,7 +15872,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H540" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -15871,7 +15898,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H541" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -15897,7 +15924,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H542" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -15923,7 +15950,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H543" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -15949,7 +15976,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H544" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -15975,7 +16002,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H545" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16001,7 +16028,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H546" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16027,7 +16054,7 @@
         <v>0.3</v>
       </c>
       <c r="H547" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16053,7 +16080,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H548" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16079,7 +16106,7 @@
         <v>0.4</v>
       </c>
       <c r="H549" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16105,7 +16132,7 @@
         <v>0.4</v>
       </c>
       <c r="H550" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16131,7 +16158,7 @@
         <v>0.45</v>
       </c>
       <c r="H551" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16157,7 +16184,7 @@
         <v>0.4</v>
       </c>
       <c r="H552" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16183,7 +16210,7 @@
         <v>0.4</v>
       </c>
       <c r="H553" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16209,7 +16236,7 @@
         <v>0.2</v>
       </c>
       <c r="H554" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16235,7 +16262,7 @@
         <v>0.25</v>
       </c>
       <c r="H555" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16261,7 +16288,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H556" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16287,7 +16314,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H557" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16313,7 +16340,7 @@
         <v>0.35</v>
       </c>
       <c r="H558" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16339,7 +16366,7 @@
         <v>0.3</v>
       </c>
       <c r="H559" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16365,7 +16392,7 @@
         <v>0.1666666666666666</v>
       </c>
       <c r="H560" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16391,7 +16418,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H561" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16417,7 +16444,7 @@
         <v>0.5</v>
       </c>
       <c r="H562" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16443,7 +16470,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H563" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16469,7 +16496,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H564" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16495,7 +16522,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H565" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16521,7 +16548,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H566" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -16547,7 +16574,7 @@
         <v>0.45</v>
       </c>
       <c r="H567" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -16573,7 +16600,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H568" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -16599,7 +16626,7 @@
         <v>0.4</v>
       </c>
       <c r="H569" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -16625,7 +16652,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H570" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -16651,7 +16678,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H571" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -16677,7 +16704,7 @@
         <v>0.45</v>
       </c>
       <c r="H572" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -16703,7 +16730,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H573" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -16729,7 +16756,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H574" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -16755,7 +16782,7 @@
         <v>0.55</v>
       </c>
       <c r="H575" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -16781,7 +16808,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H576" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -16807,7 +16834,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H577" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -16833,7 +16860,7 @@
         <v>0.65</v>
       </c>
       <c r="H578" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -16859,7 +16886,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H579" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -16885,7 +16912,7 @@
         <v>0.6</v>
       </c>
       <c r="H580" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -16911,7 +16938,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H581" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -16937,7 +16964,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H582" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -16963,7 +16990,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H583" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -16989,7 +17016,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H584" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -17015,7 +17042,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H585" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -17041,7 +17068,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H586" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -17067,7 +17094,7 @@
         <v>0.55</v>
       </c>
       <c r="H587" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -17093,7 +17120,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H588" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -17119,7 +17146,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H589" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -17145,7 +17172,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H590" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -17171,7 +17198,7 @@
         <v>0.4</v>
       </c>
       <c r="H591" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -17197,7 +17224,7 @@
         <v>0.4</v>
       </c>
       <c r="H592" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -17223,7 +17250,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H593" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -17249,7 +17276,7 @@
         <v>0.35</v>
       </c>
       <c r="H594" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -17275,7 +17302,7 @@
         <v>0.4</v>
       </c>
       <c r="H595" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -17301,7 +17328,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H596" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -17327,7 +17354,7 @@
         <v>0.45</v>
       </c>
       <c r="H597" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -17353,7 +17380,7 @@
         <v>0.75</v>
       </c>
       <c r="H598" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -17379,7 +17406,7 @@
         <v>0.45</v>
       </c>
       <c r="H599" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -17405,7 +17432,7 @@
         <v>0.45</v>
       </c>
       <c r="H600" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -17431,7 +17458,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H601" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -17457,7 +17484,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H602" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -17483,7 +17510,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H603" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -17509,7 +17536,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H604" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -17535,7 +17562,7 @@
         <v>0.3</v>
       </c>
       <c r="H605" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -17561,7 +17588,7 @@
         <v>0.3</v>
       </c>
       <c r="H606" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -17587,7 +17614,7 @@
         <v>0.45</v>
       </c>
       <c r="H607" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -17613,7 +17640,7 @@
         <v>0.6</v>
       </c>
       <c r="H608" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -17639,7 +17666,7 @@
         <v>0.35</v>
       </c>
       <c r="H609" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -17665,7 +17692,7 @@
         <v>0.45</v>
       </c>
       <c r="H610" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -17691,7 +17718,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H611" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -17717,7 +17744,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H612" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -17743,7 +17770,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H613" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -17769,7 +17796,7 @@
         <v>0.45</v>
       </c>
       <c r="H614" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -17795,7 +17822,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H615" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -17821,7 +17848,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H616" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -17847,7 +17874,7 @@
         <v>0.55</v>
       </c>
       <c r="H617" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -17873,7 +17900,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H618" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -17883,8 +17910,14 @@
       <c r="B619" t="s">
         <v>624</v>
       </c>
+      <c r="C619">
+        <v>0</v>
+      </c>
       <c r="D619">
         <v>0</v>
+      </c>
+      <c r="E619">
+        <v>1</v>
       </c>
       <c r="F619">
         <v>0.7333333333333333</v>
@@ -17893,7 +17926,235 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H619" t="s">
-        <v>635</v>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8">
+      <c r="A620" s="1">
+        <v>618</v>
+      </c>
+      <c r="B620" t="s">
+        <v>625</v>
+      </c>
+      <c r="C620">
+        <v>1</v>
+      </c>
+      <c r="D620">
+        <v>1</v>
+      </c>
+      <c r="E620">
+        <v>1</v>
+      </c>
+      <c r="F620">
+        <v>0.4666666666666666</v>
+      </c>
+      <c r="G620">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="H620" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8">
+      <c r="A621" s="1">
+        <v>619</v>
+      </c>
+      <c r="B621" t="s">
+        <v>626</v>
+      </c>
+      <c r="C621">
+        <v>0</v>
+      </c>
+      <c r="D621">
+        <v>1</v>
+      </c>
+      <c r="E621">
+        <v>0</v>
+      </c>
+      <c r="F621">
+        <v>0.2166666666666667</v>
+      </c>
+      <c r="G621">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="H621" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8">
+      <c r="A622" s="1">
+        <v>620</v>
+      </c>
+      <c r="B622" t="s">
+        <v>627</v>
+      </c>
+      <c r="C622">
+        <v>0</v>
+      </c>
+      <c r="D622">
+        <v>1</v>
+      </c>
+      <c r="E622">
+        <v>0</v>
+      </c>
+      <c r="F622">
+        <v>0.4666666666666666</v>
+      </c>
+      <c r="G622">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="H622" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8">
+      <c r="A623" s="1">
+        <v>621</v>
+      </c>
+      <c r="B623" t="s">
+        <v>628</v>
+      </c>
+      <c r="C623">
+        <v>1</v>
+      </c>
+      <c r="D623">
+        <v>0</v>
+      </c>
+      <c r="E623">
+        <v>0</v>
+      </c>
+      <c r="F623">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="G623">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="H623" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8">
+      <c r="A624" s="1">
+        <v>622</v>
+      </c>
+      <c r="B624" t="s">
+        <v>629</v>
+      </c>
+      <c r="C624">
+        <v>0</v>
+      </c>
+      <c r="D624">
+        <v>1</v>
+      </c>
+      <c r="E624">
+        <v>0</v>
+      </c>
+      <c r="F624">
+        <v>0.45</v>
+      </c>
+      <c r="G624">
+        <v>0.55</v>
+      </c>
+      <c r="H624" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8">
+      <c r="A625" s="1">
+        <v>623</v>
+      </c>
+      <c r="B625" t="s">
+        <v>630</v>
+      </c>
+      <c r="C625">
+        <v>1</v>
+      </c>
+      <c r="D625">
+        <v>1</v>
+      </c>
+      <c r="E625">
+        <v>1</v>
+      </c>
+      <c r="F625">
+        <v>0.4666666666666666</v>
+      </c>
+      <c r="G625">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="H625" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8">
+      <c r="A626" s="1">
+        <v>624</v>
+      </c>
+      <c r="B626" t="s">
+        <v>631</v>
+      </c>
+      <c r="C626">
+        <v>1</v>
+      </c>
+      <c r="D626">
+        <v>1</v>
+      </c>
+      <c r="E626">
+        <v>1</v>
+      </c>
+      <c r="F626">
+        <v>0.4</v>
+      </c>
+      <c r="G626">
+        <v>0.6</v>
+      </c>
+      <c r="H626" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8">
+      <c r="A627" s="1">
+        <v>625</v>
+      </c>
+      <c r="B627" t="s">
+        <v>632</v>
+      </c>
+      <c r="C627">
+        <v>1</v>
+      </c>
+      <c r="D627">
+        <v>1</v>
+      </c>
+      <c r="E627">
+        <v>1</v>
+      </c>
+      <c r="F627">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G627">
+        <v>0.6666666666666665</v>
+      </c>
+      <c r="H627" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8">
+      <c r="A628" s="1">
+        <v>626</v>
+      </c>
+      <c r="B628" t="s">
+        <v>633</v>
+      </c>
+      <c r="D628">
+        <v>1</v>
+      </c>
+      <c r="F628">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="G628">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="H628" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>
